--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="317" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{037916B4-33C6-4CC7-8B39-70E363639744}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
@@ -548,12 +548,6 @@
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -592,40 +586,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -651,6 +615,42 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1172,85 +1172,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>315</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="15">
         <f>B41+(K50/2)</f>
         <v>162.911</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="15">
         <f>C41+S27</f>
         <v>330.23099999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>31.603999999999999</v>
       </c>
       <c r="C7" t="s">
@@ -1259,49 +1259,49 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:10" ht="31" x14ac:dyDescent="0.7">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="40" t="str">
+      <c r="A14" s="28" t="str">
         <f xml:space="preserve"> "M671 " &amp; "X" &amp; B41 &amp; ":" &amp; I6 &amp; ":" &amp; T41 &amp; " Y" &amp; C41 &amp; ":" &amp; J6 &amp; ":" &amp; U41 &amp; " S10"</f>
         <v>M671 X-13.298:162.911:339.12 Y2.021:330.231:2.021 S10</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="27" spans="4:19" ht="28.5" x14ac:dyDescent="0.65">
       <c r="D27" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="20">
+      <c r="S27" s="16">
         <f>VLOOKUP(B2,DATA!H:J,3,0)</f>
         <v>328.21</v>
       </c>
@@ -1312,89 +1312,89 @@
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="T35" s="21" t="s">
+      <c r="C35" s="37"/>
+      <c r="T35" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="U35" s="22"/>
+      <c r="U35" s="37"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="24"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="39"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="24"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="39"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="39"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="26"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="41"/>
     </row>
     <row r="39" spans="2:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="T39" s="27" t="s">
+      <c r="C39" s="33"/>
+      <c r="T39" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="U39" s="28"/>
+      <c r="U39" s="33"/>
     </row>
     <row r="40" spans="2:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="T40" s="29" t="s">
+      <c r="T40" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="U40" s="30" t="s">
+      <c r="U40" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B41" s="31">
+      <c r="B41" s="19">
         <f>VLOOKUP(B3,Table1[],2,0)*-1+(13+1.891)-B6</f>
         <v>-13.298</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="20">
         <f>VLOOKUP(B3,Table1[],3,0)-31.604-12.509</f>
         <v>2.0210000000000008</v>
       </c>
-      <c r="T41" s="31">
+      <c r="T41" s="19">
         <f>B41+(K50)</f>
         <v>339.12</v>
       </c>
-      <c r="U41" s="32">
+      <c r="U41" s="20">
         <f>C41</f>
         <v>2.0210000000000008</v>
       </c>
     </row>
     <row r="50" spans="11:11" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="K50" s="20">
+      <c r="K50" s="16">
         <f>VLOOKUP(B2,DATA!H:J,2,0)</f>
         <v>352.41800000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I2:J3"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="T39:U39"/>
     <mergeCell ref="B35:C38"/>
     <mergeCell ref="T35:U38"/>
-    <mergeCell ref="I2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1451,41 +1451,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="43"/>
       <c r="I1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1493,16 +1493,16 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>15.189</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>46.134</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>37.448999999999998</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>26.253</v>
       </c>
       <c r="H3">
@@ -1519,10 +1519,10 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="H4">
         <v>365</v>
       </c>
@@ -1539,10 +1539,10 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="H5">
         <v>415</v>
       </c>
@@ -1559,10 +1559,10 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="H6">
         <v>465</v>
       </c>
@@ -1579,10 +1579,10 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="H7">
         <v>515</v>
       </c>

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{037916B4-33C6-4CC7-8B39-70E363639744}"/>
+  <xr:revisionPtr revIDLastSave="381" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5ACA8EAE-2C89-4939-AECD-C2CA956CA272}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
-    <sheet name="BMG_AQUA" sheetId="3" r:id="rId2"/>
-    <sheet name="DATA" sheetId="2" r:id="rId3"/>
+    <sheet name="NIMBLE_KRYO" sheetId="6" r:id="rId2"/>
+    <sheet name="BMG_AQUA" sheetId="3" r:id="rId3"/>
+    <sheet name="BMG_KRYO" sheetId="4" r:id="rId4"/>
+    <sheet name="HEMERA" sheetId="5" r:id="rId5"/>
+    <sheet name="HEMERA_TOPMOUNT" sheetId="7" r:id="rId6"/>
+    <sheet name="DATA" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>PRINT_HEAD</t>
   </si>
@@ -49,12 +53,6 @@
     <t>HEMERA</t>
   </si>
   <si>
-    <t>HEMERA_TopMount</t>
-  </si>
-  <si>
-    <t>BMG_Nimble</t>
-  </si>
-  <si>
     <t>BMG_V6</t>
   </si>
   <si>
@@ -143,13 +141,22 @@
   </si>
   <si>
     <t>Z Lift Point position</t>
+  </si>
+  <si>
+    <t>BMG_KRYO</t>
+  </si>
+  <si>
+    <t>NIMBLEV1_KRYO</t>
+  </si>
+  <si>
+    <t>HEMERA_TOPMOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +255,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -546,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -615,6 +629,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,18 +653,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,6 +664,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,8 +709,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD1E654"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FFD1E654"/>
       <color rgb="FFFFC5C6"/>
       <color rgb="FFCBE7F9"/>
     </mruColors>
@@ -720,7 +737,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
+      <xdr:colOff>730250</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>160667</xdr:rowOff>
     </xdr:to>
@@ -765,6 +782,64 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>146049</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>140216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30198E24-B35B-4300-88B1-39ED56601A35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="180975"/>
+          <a:ext cx="14662149" cy="7198241"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -819,9 +894,183 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>467388</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413DF6BB-1B44-4C46-9106-90C7A0AFF94C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15097788" cy="7410450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>56956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AF068C-7BD2-47E7-8F6B-13E171CB97EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15601950" cy="7657906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8844ABCD-A2EF-4E39-B3F4-B08208DF3E4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15582900" cy="7648556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EB589B1-314F-41BA-8AAB-411460155F4C}" name="Table1" displayName="Table1" ref="A2:E7" totalsRowShown="0">
-  <autoFilter ref="A2:E7" xr:uid="{460B98C6-B2BE-440D-A664-33953CE19687}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EB589B1-314F-41BA-8AAB-411460155F4C}" name="Table1" displayName="Table1" ref="A2:E8" totalsRowShown="0">
+  <autoFilter ref="A2:E8" xr:uid="{460B98C6-B2BE-440D-A664-33953CE19687}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0AF2A029-35DD-48E6-A3E3-BDEC183574C1}" name="PrintHead"/>
     <tableColumn id="2" xr3:uid="{469A7C96-970F-4B3B-9AEA-9D4CD1CFEA90}" name="Xstop" dataDxfId="3"/>
@@ -1151,14 +1400,14 @@
   </sheetPr>
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.36328125" customWidth="1"/>
     <col min="9" max="10" width="21.81640625" customWidth="1"/>
     <col min="11" max="11" width="13.90625" customWidth="1"/>
@@ -1173,10 +1422,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="26" x14ac:dyDescent="0.35">
@@ -1187,80 +1436,80 @@
         <v>315</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="37"/>
+        <v>24</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
+      <c r="B3" s="44" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
+        <v>24</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I4" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="35"/>
+      <c r="I4" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="12">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I6" s="15">
         <f>B41+(K50/2)</f>
-        <v>162.911</v>
+        <v>155.00400000000002</v>
       </c>
       <c r="J6" s="15">
         <f>C41+S27</f>
-        <v>330.23099999999999</v>
+        <v>311.75799999999998</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="12">
         <v>31.603999999999999</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:10" ht="31" x14ac:dyDescent="0.7">
       <c r="A11" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -1278,7 +1527,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -1289,7 +1538,7 @@
     <row r="14" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A14" s="28" t="str">
         <f xml:space="preserve"> "M671 " &amp; "X" &amp; B41 &amp; ":" &amp; I6 &amp; ":" &amp; T41 &amp; " Y" &amp; C41 &amp; ":" &amp; J6 &amp; ":" &amp; U41 &amp; " S10"</f>
-        <v>M671 X-13.298:162.911:339.12 Y2.021:330.231:2.021 S10</v>
+        <v>M671 X-21.205:155.004:331.213 Y-16.452:311.758:-16.452 S10</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -1299,7 +1548,7 @@
     </row>
     <row r="27" spans="4:19" ht="28.5" x14ac:dyDescent="0.65">
       <c r="D27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S27" s="16">
         <f>VLOOKUP(B2,DATA!H:J,3,0)</f>
@@ -1308,30 +1557,30 @@
     </row>
     <row r="34" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B35" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="37"/>
-      <c r="T35" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="U35" s="37"/>
+      <c r="B35" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="T35" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="U35" s="33"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="39"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="35"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B37" s="38"/>
-      <c r="C37" s="39"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="39"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="35"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B38" s="40"/>
@@ -1340,45 +1589,45 @@
       <c r="U38" s="41"/>
     </row>
     <row r="39" spans="2:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B39" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="T39" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="U39" s="33"/>
+      <c r="B39" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="T39" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="U39" s="37"/>
     </row>
     <row r="40" spans="2:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B40" s="17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T40" s="17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U40" s="18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="19">
         <f>VLOOKUP(B3,Table1[],2,0)*-1+(13+1.891)-B6</f>
-        <v>-13.298</v>
+        <v>-21.204999999999998</v>
       </c>
       <c r="C41" s="20">
         <f>VLOOKUP(B3,Table1[],3,0)-31.604-12.509</f>
-        <v>2.0210000000000008</v>
+        <v>-16.451999999999998</v>
       </c>
       <c r="T41" s="19">
         <f>B41+(K50)</f>
-        <v>339.12</v>
+        <v>331.21300000000002</v>
       </c>
       <c r="U41" s="20">
         <f>C41</f>
-        <v>2.0210000000000008</v>
+        <v>-16.451999999999998</v>
       </c>
     </row>
     <row r="50" spans="11:11" ht="28.5" x14ac:dyDescent="0.65">
@@ -1404,7 +1653,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB97AF40-22B5-4C61-AE05-38E6CD4A1048}">
           <x14:formula1>
-            <xm:f>DATA!$A$3:$A$7</xm:f>
+            <xm:f>DATA!$A$3:$A$8</xm:f>
           </x14:formula1>
           <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
@@ -1421,7 +1670,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C925AC0-6504-48FF-B191-696883A5DD06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8642FEA0-B814-4E68-9272-1BD7BFB42F93}">
+  <sheetPr>
+    <tabColor rgb="FFD1E654"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1434,6 +1686,70 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C925AC0-6504-48FF-B191-696883A5DD06}">
+  <sheetPr>
+    <tabColor rgb="FFD1E654"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FB5D28-5A29-4920-92AA-EC96A7802B23}">
+  <sheetPr>
+    <tabColor rgb="FFD1E654"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AD37B0-2A7C-4588-BC03-FD0C7FB52251}">
+  <sheetPr>
+    <tabColor rgb="FFD1E654"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5249448E-64CB-4F9D-B89E-8D2A2B5C8549}">
+  <sheetPr>
+    <tabColor rgb="FFD1E654"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA66DFF9-FA4E-4D72-A033-DA7973A100D2}">
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
@@ -1441,7 +1757,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1452,41 +1768,41 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="43"/>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1519,10 +1835,18 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="2">
+        <v>10.750999999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>33.701999999999998</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.113</v>
+      </c>
+      <c r="E4" s="4">
+        <v>34.686999999999998</v>
+      </c>
       <c r="H4">
         <v>365</v>
       </c>
@@ -1537,12 +1861,20 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="B5" s="2">
+        <v>18.876000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>31.907</v>
+      </c>
+      <c r="D5" s="4">
+        <v>30.966999999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>13.055</v>
+      </c>
       <c r="H5">
         <v>415</v>
       </c>
@@ -1557,12 +1889,20 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="B6" s="2">
+        <v>35.875999999999998</v>
+      </c>
+      <c r="C6" s="2">
+        <v>27.907</v>
+      </c>
+      <c r="D6" s="4">
+        <v>32.584000000000003</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8.5779999999999994</v>
+      </c>
       <c r="H6">
         <v>465</v>
       </c>
@@ -1577,7 +1917,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1596,6 +1936,21 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2">
+        <v>23.096</v>
+      </c>
+      <c r="C8" s="2">
+        <v>27.661000000000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>27.454999999999998</v>
+      </c>
+      <c r="E8" s="4">
+        <v>9.1340000000000003</v>
+      </c>
       <c r="H8">
         <v>565</v>
       </c>

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="381" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5ACA8EAE-2C89-4939-AECD-C2CA956CA272}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE53CB21-72CC-4B8F-8E26-350F62F39452}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>PRINT_HEAD</t>
   </si>
@@ -119,9 +119,6 @@
     <t>&lt;- Adjust</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
     <t>Rear Lift Point Coordinates from Nozzle</t>
   </si>
   <si>
@@ -150,6 +147,12 @@
   </si>
   <si>
     <t>HEMERA_TOPMOUNT</t>
+  </si>
+  <si>
+    <t>Z-Probe Offset</t>
+  </si>
+  <si>
+    <t>Results to be inserted in config.g</t>
   </si>
 </sst>
 </file>
@@ -248,14 +251,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -560,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -624,11 +627,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,9 +669,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,15 +735,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>143641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>160667</xdr:rowOff>
+      <xdr:colOff>739775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>14241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -768,8 +772,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5353050" y="152400"/>
-          <a:ext cx="11804650" cy="10327017"/>
+          <a:off x="5739415" y="822434"/>
+          <a:ext cx="11549774" cy="10696255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1400,27 +1404,27 @@
   </sheetPr>
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="9" max="10" width="21.81640625" customWidth="1"/>
-    <col min="11" max="11" width="13.90625" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" customWidth="1"/>
-    <col min="13" max="13" width="16.453125" customWidth="1"/>
-    <col min="19" max="19" width="13.90625" customWidth="1"/>
-    <col min="20" max="20" width="20.08984375" customWidth="1"/>
-    <col min="21" max="21" width="14.90625" customWidth="1"/>
-    <col min="22" max="22" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="9" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1438,31 +1442,31 @@
       <c r="C2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="33"/>
-    </row>
-    <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="I2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>36</v>
+      <c r="B3" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I4" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="39"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1476,7 +1480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1499,7 @@
         <v>311.75799999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
@@ -1506,10 +1510,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:10" ht="31" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A11" s="21" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -1517,7 +1521,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -1525,9 +1529,9 @@
       <c r="E12" s="25"/>
       <c r="F12" s="26"/>
     </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
-        <v>33</v>
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -1535,18 +1539,47 @@
       <c r="E13" s="25"/>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="1:10" ht="29" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="28" t="str">
+    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="45" t="str">
         <f xml:space="preserve"> "M671 " &amp; "X" &amp; B41 &amp; ":" &amp; I6 &amp; ":" &amp; T41 &amp; " Y" &amp; C41 &amp; ":" &amp; J6 &amp; ":" &amp; U41 &amp; " S10"</f>
         <v>M671 X-21.205:155.004:331.213 Y-16.452:311.758:-16.452 S10</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-    </row>
-    <row r="27" spans="4:19" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="27" t="str">
+        <f>"G31 P500 X"&amp;VLOOKUP(B3,Table1[],4,0) &amp; " Y"&amp; VLOOKUP(B3,Table1[],5,0) &amp; " Z[measured via Paper technique]"</f>
+        <v>G31 P500 X27.455 Y9.134 Z[measured via Paper technique]</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+    </row>
+    <row r="27" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
         <v>18</v>
       </c>
@@ -1555,50 +1588,50 @@
         <v>328.21</v>
       </c>
     </row>
-    <row r="34" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="T35" s="32" t="s">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U35" s="33"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="35"/>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="35"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="41"/>
-    </row>
-    <row r="39" spans="2:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B39" s="36" t="s">
+      <c r="C35" s="32"/>
+      <c r="T35" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="U35" s="32"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="34"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="34"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="40"/>
+    </row>
+    <row r="39" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="T39" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="T39" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="U39" s="37"/>
-    </row>
-    <row r="40" spans="2:21" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="U39" s="36"/>
+    </row>
+    <row r="40" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
         <v>5</v>
       </c>
@@ -1612,7 +1645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="19">
         <f>VLOOKUP(B3,Table1[],2,0)*-1+(13+1.891)-B6</f>
         <v>-21.204999999999998</v>
@@ -1630,7 +1663,7 @@
         <v>-16.451999999999998</v>
       </c>
     </row>
-    <row r="50" spans="11:11" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="50" spans="11:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="K50" s="16">
         <f>VLOOKUP(B2,DATA!H:J,2,0)</f>
         <v>352.41800000000001</v>
@@ -1678,7 +1711,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1694,7 +1727,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1710,7 +1743,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1726,7 +1759,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1742,7 +1775,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1760,26 +1793,26 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="5" width="8.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="5" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="43"/>
+      <c r="E1" s="42"/>
       <c r="I1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1805,7 +1838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1831,7 +1864,7 @@
         <v>328.21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1859,9 +1892,9 @@
         <v>378.21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>18.876000000000001</v>
@@ -1887,9 +1920,9 @@
         <v>428.21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2">
         <v>35.875999999999998</v>
@@ -1915,7 +1948,7 @@
         <v>478.21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1935,9 +1968,9 @@
         <v>528.21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2">
         <v>23.096</v>
@@ -1963,7 +1996,7 @@
         <v>578.21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>615</v>
       </c>
@@ -1976,7 +2009,7 @@
         <v>628.21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>665</v>
       </c>
@@ -1989,7 +2022,7 @@
         <v>678.21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>715</v>
       </c>
@@ -2002,7 +2035,7 @@
         <v>728.21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>765</v>
       </c>
@@ -2015,7 +2048,7 @@
         <v>778.21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13">
         <v>815</v>
       </c>

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="397" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE53CB21-72CC-4B8F-8E26-350F62F39452}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{41374123-D8B9-4B95-A50E-E0E722E9D5EC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
@@ -633,45 +633,45 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,13 +737,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>339725</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>143641</xdr:rowOff>
+      <xdr:rowOff>146816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>739775</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>14241</xdr:rowOff>
+      <xdr:rowOff>17416</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -772,7 +772,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5739415" y="822434"/>
+          <a:off x="5739415" y="825609"/>
           <a:ext cx="11549774" cy="10696255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1087,8 +1087,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBDBAD23-474B-4AC5-A011-4D1EC1466E50}" name="Table2" displayName="Table2" ref="H2:J13" totalsRowShown="0">
-  <autoFilter ref="H2:J13" xr:uid="{8764FB30-DFE5-42AF-8A36-D229AA709EFC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBDBAD23-474B-4AC5-A011-4D1EC1466E50}" name="Table2" displayName="Table2" ref="H2:J14" totalsRowShown="0">
+  <autoFilter ref="H2:J14" xr:uid="{8764FB30-DFE5-42AF-8A36-D229AA709EFC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:J14">
+    <sortCondition ref="H2:H14"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1C84F27E-F9F2-4C03-8F9F-A726A1A6B86A}" name="PrintArea"/>
     <tableColumn id="2" xr3:uid="{E937D0D6-E765-428C-8000-1B6F727C8E9E}" name="X">
@@ -1405,7 +1408,7 @@
   <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,10 +1445,10 @@
       <c r="C2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="32"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1457,14 +1460,14 @@
       <c r="C3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="38"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -1530,7 +1533,7 @@
       <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="25"/>
@@ -1540,12 +1543,12 @@
       <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="45" t="str">
+      <c r="A14" s="33" t="str">
         <f xml:space="preserve"> "M671 " &amp; "X" &amp; B41 &amp; ":" &amp; I6 &amp; ":" &amp; T41 &amp; " Y" &amp; C41 &amp; ":" &amp; J6 &amp; ":" &amp; U41 &amp; " S10"</f>
         <v>M671 X-21.205:155.004:331.213 Y-16.452:311.758:-16.452 S10</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
@@ -1559,7 +1562,7 @@
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="25"/>
@@ -1594,42 +1597,42 @@
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="T35" s="31" t="s">
+      <c r="C35" s="35"/>
+      <c r="T35" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="U35" s="32"/>
+      <c r="U35" s="35"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="34"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="37"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="34"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="37"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="40"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="43"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="43"/>
     </row>
     <row r="39" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="T39" s="35" t="s">
+      <c r="C39" s="39"/>
+      <c r="T39" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="U39" s="36"/>
+      <c r="U39" s="39"/>
     </row>
     <row r="40" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
@@ -1692,7 +1695,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D9FCBA9-6355-4BD1-B57E-30257C3D0E30}">
           <x14:formula1>
-            <xm:f>DATA!$H$3:$H$13</xm:f>
+            <xm:f>DATA!$H$3:$H$14</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
@@ -1787,10 +1790,10 @@
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,14 +1803,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="42"/>
+      <c r="E1" s="45"/>
       <c r="I1" t="s">
         <v>15</v>
       </c>
@@ -1912,11 +1915,11 @@
         <v>415</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I13" si="0">H5-H4+I4</f>
+        <f>H5-H4+I4</f>
         <v>452.41800000000001</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J13" si="1">H5-H4+J4</f>
+        <f>H5-H4+J4</f>
         <v>428.21</v>
       </c>
     </row>
@@ -1937,15 +1940,15 @@
         <v>8.5779999999999994</v>
       </c>
       <c r="H6">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>502.41800000000001</v>
+        <f>H6-H5+I5</f>
+        <v>467.41800000000001</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>478.21</v>
+        <f>H6-H5+J5</f>
+        <v>443.21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1957,15 +1960,15 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="H7">
-        <v>515</v>
+        <v>465</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>552.41800000000001</v>
+        <f>H7-H6+I6</f>
+        <v>502.41800000000001</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
-        <v>528.21</v>
+        <f>H7-H6+J6</f>
+        <v>478.21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1985,79 +1988,92 @@
         <v>9.1340000000000003</v>
       </c>
       <c r="H8">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>602.41800000000001</v>
+        <f>H8-H7+I7</f>
+        <v>552.41800000000001</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
-        <v>578.21</v>
+        <f>H8-H7+J7</f>
+        <v>528.21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>652.41800000000001</v>
+        <f>H9-H8+I8</f>
+        <v>602.41800000000001</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
-        <v>628.21</v>
+        <f>H9-H8+J8</f>
+        <v>578.21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H10">
-        <v>665</v>
+        <v>615</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>702.41800000000001</v>
+        <f>H10-H9+I9</f>
+        <v>652.41800000000001</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>678.21</v>
+        <f>H10-H9+J9</f>
+        <v>628.21</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H11">
-        <v>715</v>
+        <v>665</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>752.41800000000001</v>
+        <f>H11-H10+I10</f>
+        <v>702.41800000000001</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>728.21</v>
+        <f>H11-H10+J10</f>
+        <v>678.21</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H12">
-        <v>765</v>
+        <v>715</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>802.41800000000001</v>
+        <f>H12-H11+I11</f>
+        <v>752.41800000000001</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>778.21</v>
+        <f>H12-H11+J11</f>
+        <v>728.21</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13">
+        <v>765</v>
+      </c>
+      <c r="I13">
+        <f>H13-H12+I12</f>
+        <v>802.41800000000001</v>
+      </c>
+      <c r="J13">
+        <f>H13-H12+J12</f>
+        <v>778.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14">
         <v>815</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
+      <c r="I14">
+        <f>H14-H13+I13</f>
         <v>852.41800000000001</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
+      <c r="J14">
+        <f>H14-H13+J13</f>
         <v>828.21</v>
       </c>
     </row>

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{41374123-D8B9-4B95-A50E-E0E722E9D5EC}"/>
+  <xr:revisionPtr revIDLastSave="460" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A0CD157-879E-4033-94EC-F25B58710A3B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="7" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="HEMERA" sheetId="5" r:id="rId5"/>
     <sheet name="HEMERA_TOPMOUNT" sheetId="7" r:id="rId6"/>
     <sheet name="DATA" sheetId="2" r:id="rId7"/>
+    <sheet name="RRF3_P1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>PRINT_HEAD</t>
   </si>
@@ -153,13 +154,32 @@
   </si>
   <si>
     <t>Results to be inserted in config.g</t>
+  </si>
+  <si>
+    <t>Choose your Duet Control Board. 
+See instructions for Duet 2 here:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select if you are using a Raspberry Pi with your Duet3. 
+Read more about Duet3 and RPI relationship here: 
+</t>
+  </si>
+  <si>
+    <t>Enter your printer's name.   This name will appear in the ribbon of the web browser accessing the Duet Web Control.</t>
+  </si>
+  <si>
+    <t>The config-override.g file will contain some settings that will over-ride the ones into the basic config.g. 
+PID Tune Values are typically stored into this file when saving using M500 command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very useful feature.  As the duet detects a low voltage condition (power outage or other) it will immediately cut the power to the motors and use the remaining energy from the power supply capacitors to rapidly store into memory current print progress.  That progress is stored into resume.g file.  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +285,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +366,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF88C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -560,10 +611,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -672,8 +724,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -713,6 +775,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEEF88C"/>
       <color rgb="FFD1E654"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFFFC5C6"/>
@@ -1072,6 +1135,382 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>471628</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46495756-169C-49BA-9862-D4B5AF4E1C4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="1158875"/>
+          <a:ext cx="8723453" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>206378</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Connector: Elbow 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A194BF60-C0F3-4348-A7DA-26F131A69816}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="13230228" y="1181100"/>
+          <a:ext cx="1577972" cy="1485898"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Connector: Elbow 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E13EB96-4D8A-4F80-B869-1A9B15634F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3286125" y="2339975"/>
+          <a:ext cx="1679575" cy="669925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 45085"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Connector: Elbow 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7EBC35-2207-41AD-A6EC-585A09C1C7AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3282950" y="1162050"/>
+          <a:ext cx="1733550" cy="1498600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 68681"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Connector: Elbow 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE9B6E2-22B9-48D3-96D5-128B2FD61A2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3308350" y="3216275"/>
+          <a:ext cx="1695450" cy="206375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 44382"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111127</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Connector: Elbow 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7475E98-6D76-429A-95D5-E10AD2B555C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3289300" y="2813050"/>
+          <a:ext cx="1746250" cy="1489077"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 68149"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Arrow: Right 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF394B0E-5A2D-482A-B94E-6F27D60DD49D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12823825" y="7924800"/>
+          <a:ext cx="679450" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Next</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EB589B1-314F-41BA-8AAB-411460155F4C}" name="Table1" displayName="Table1" ref="A2:E8" totalsRowShown="0">
   <autoFilter ref="A2:E8" xr:uid="{460B98C6-B2BE-440D-A664-33953CE19687}"/>
@@ -1407,7 +1846,7 @@
   </sheetPr>
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1887,11 +2326,11 @@
         <v>365</v>
       </c>
       <c r="I4">
-        <f>H4-H3+I3</f>
+        <f t="shared" ref="I4:I14" si="0">H4-H3+I3</f>
         <v>402.41800000000001</v>
       </c>
       <c r="J4">
-        <f>H4-H3+J3</f>
+        <f t="shared" ref="J4:J14" si="1">H4-H3+J3</f>
         <v>378.21</v>
       </c>
     </row>
@@ -1915,11 +2354,11 @@
         <v>415</v>
       </c>
       <c r="I5">
-        <f>H5-H4+I4</f>
+        <f t="shared" si="0"/>
         <v>452.41800000000001</v>
       </c>
       <c r="J5">
-        <f>H5-H4+J4</f>
+        <f t="shared" si="1"/>
         <v>428.21</v>
       </c>
     </row>
@@ -1943,11 +2382,11 @@
         <v>430</v>
       </c>
       <c r="I6">
-        <f>H6-H5+I5</f>
+        <f t="shared" si="0"/>
         <v>467.41800000000001</v>
       </c>
       <c r="J6">
-        <f>H6-H5+J5</f>
+        <f t="shared" si="1"/>
         <v>443.21</v>
       </c>
     </row>
@@ -1963,11 +2402,11 @@
         <v>465</v>
       </c>
       <c r="I7">
-        <f>H7-H6+I6</f>
+        <f t="shared" si="0"/>
         <v>502.41800000000001</v>
       </c>
       <c r="J7">
-        <f>H7-H6+J6</f>
+        <f t="shared" si="1"/>
         <v>478.21</v>
       </c>
     </row>
@@ -1991,11 +2430,11 @@
         <v>515</v>
       </c>
       <c r="I8">
-        <f>H8-H7+I7</f>
+        <f t="shared" si="0"/>
         <v>552.41800000000001</v>
       </c>
       <c r="J8">
-        <f>H8-H7+J7</f>
+        <f t="shared" si="1"/>
         <v>528.21</v>
       </c>
     </row>
@@ -2004,11 +2443,11 @@
         <v>565</v>
       </c>
       <c r="I9">
-        <f>H9-H8+I8</f>
+        <f t="shared" si="0"/>
         <v>602.41800000000001</v>
       </c>
       <c r="J9">
-        <f>H9-H8+J8</f>
+        <f t="shared" si="1"/>
         <v>578.21</v>
       </c>
     </row>
@@ -2017,11 +2456,11 @@
         <v>615</v>
       </c>
       <c r="I10">
-        <f>H10-H9+I9</f>
+        <f t="shared" si="0"/>
         <v>652.41800000000001</v>
       </c>
       <c r="J10">
-        <f>H10-H9+J9</f>
+        <f t="shared" si="1"/>
         <v>628.21</v>
       </c>
     </row>
@@ -2030,11 +2469,11 @@
         <v>665</v>
       </c>
       <c r="I11">
-        <f>H11-H10+I10</f>
+        <f t="shared" si="0"/>
         <v>702.41800000000001</v>
       </c>
       <c r="J11">
-        <f>H11-H10+J10</f>
+        <f t="shared" si="1"/>
         <v>678.21</v>
       </c>
     </row>
@@ -2043,11 +2482,11 @@
         <v>715</v>
       </c>
       <c r="I12">
-        <f>H12-H11+I11</f>
+        <f t="shared" si="0"/>
         <v>752.41800000000001</v>
       </c>
       <c r="J12">
-        <f>H12-H11+J11</f>
+        <f t="shared" si="1"/>
         <v>728.21</v>
       </c>
     </row>
@@ -2056,11 +2495,11 @@
         <v>765</v>
       </c>
       <c r="I13">
-        <f>H13-H12+I12</f>
+        <f t="shared" si="0"/>
         <v>802.41800000000001</v>
       </c>
       <c r="J13">
-        <f>H13-H12+J12</f>
+        <f t="shared" si="1"/>
         <v>778.21</v>
       </c>
     </row>
@@ -2069,11 +2508,11 @@
         <v>815</v>
       </c>
       <c r="I14">
-        <f>H14-H13+I13</f>
+        <f t="shared" si="0"/>
         <v>852.41800000000001</v>
       </c>
       <c r="J14">
-        <f>H14-H13+J13</f>
+        <f t="shared" si="1"/>
         <v>828.21</v>
       </c>
     </row>
@@ -2088,4 +2527,231 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65005C96-9609-4A9D-8BFD-DC86570817E4}">
+  <dimension ref="B3:AD26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X45" sqref="X45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="Z3" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B11" s="47" t="str">
+        <f>HYPERLINK("https://betrue3d.dk/rpi-and-duet-3-why-and-how/?fbclid=IwAR16IzLQhu4W4G6IMp81qFp3ousTRf1AjmVV-9iawk4osm4pF1tQDGAXfwg","Duet &amp; Raspberry Pi")</f>
+        <v>Duet &amp; Raspberry Pi</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="Z3:AD5"/>
+    <mergeCell ref="B14:F17"/>
+    <mergeCell ref="B20:F26"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="B8:F10"/>
+    <mergeCell ref="B11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <webPublishItems count="1">
+    <webPublishItem id="19311" divId="FirmWareSettings_19311" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\FirmWareSettings.htm" autoRepublish="1"/>
+  </webPublishItems>
+</worksheet>
 </file>
--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="460" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A0CD157-879E-4033-94EC-F25B58710A3B}"/>
+  <xr:revisionPtr revIDLastSave="462" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EA409D5F-B66A-4024-BDA0-E3CC3EA4F010}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="7" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
@@ -165,14 +165,14 @@
 </t>
   </si>
   <si>
-    <t>Enter your printer's name.   This name will appear in the ribbon of the web browser accessing the Duet Web Control.</t>
-  </si>
-  <si>
     <t>The config-override.g file will contain some settings that will over-ride the ones into the basic config.g. 
 PID Tune Values are typically stored into this file when saving using M500 command</t>
   </si>
   <si>
-    <t xml:space="preserve">Very useful feature.  As the duet detects a low voltage condition (power outage or other) it will immediately cut the power to the motors and use the remaining energy from the power supply capacitors to rapidly store into memory current print progress.  That progress is stored into resume.g file.  </t>
+    <t>Enter your printer's name.  This name will appear in the ribbon of the web browser accessing the Duet Web Control.</t>
+  </si>
+  <si>
+    <t>Very useful feature. As the duet detects a low voltage condition (power outage or other) it will immediately cut the power to the motors and use the remaining energy from the power supply capacitors to rapidly store into memory current print progress. That progress is stored into resume.g file.</t>
   </si>
 </sst>
 </file>
@@ -688,6 +688,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,9 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1884,10 +1884,10 @@
       <c r="C2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="35"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1899,14 +1899,14 @@
       <c r="C3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="41"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -2036,42 +2036,42 @@
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="T35" s="34" t="s">
+      <c r="C35" s="36"/>
+      <c r="T35" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="U35" s="35"/>
+      <c r="U35" s="36"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="38"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="38"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="44"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="44"/>
     </row>
     <row r="39" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="T39" s="38" t="s">
+      <c r="C39" s="40"/>
+      <c r="T39" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="U39" s="39"/>
+      <c r="U39" s="40"/>
     </row>
     <row r="40" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
@@ -2242,14 +2242,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="45"/>
+      <c r="E1" s="46"/>
       <c r="I1" t="s">
         <v>15</v>
       </c>
@@ -2534,7 +2534,7 @@
   <dimension ref="B3:AD26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X45" sqref="X45"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,32 +2543,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="Z3" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="Z3" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" s="25"/>
@@ -2576,11 +2576,11 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="25"/>
@@ -2597,44 +2597,44 @@
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="47" t="str">
+      <c r="B11" s="48" t="str">
         <f>HYPERLINK("https://betrue3d.dk/rpi-and-duet-3-why-and-how/?fbclid=IwAR16IzLQhu4W4G6IMp81qFp3ousTRf1AjmVV-9iawk4osm4pF1tQDGAXfwg","Duet &amp; Raspberry Pi")</f>
         <v>Duet &amp; Raspberry Pi</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
@@ -2644,34 +2644,34 @@
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="B14" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="25"/>
@@ -2688,55 +2688,55 @@
       <c r="F19" s="25"/>
     </row>
     <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="462" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EA409D5F-B66A-4024-BDA0-E3CC3EA4F010}"/>
+  <xr:revisionPtr revIDLastSave="510" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6931CA17-C641-4EEE-98B0-1EC45B91EE75}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="7" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>PRINT_HEAD</t>
   </si>
@@ -173,13 +173,62 @@
   </si>
   <si>
     <t>Very useful feature. As the duet detects a low voltage condition (power outage or other) it will immediately cut the power to the motors and use the remaining energy from the power supply capacitors to rapidly store into memory current print progress. That progress is stored into resume.g file.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto Save Threshold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: if input voltage to the Duet goes below this value, the sequence to power off motors and record the current print state will be initiated
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Resume Threshold: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If the power did not completely go off and that the Duet was able to stay alive.  The print will resume when the voltage reaches higher than this value.
+I have been using these values with success for the past 2 years.  Anything higher than 23v on the AutoSave Threshold would be triggered too often due to the PSU and Electricity Provider accuracy I use.</t>
+    </r>
+  </si>
+  <si>
+    <t>The resurrect-prolog.g file will be used to prepare the printer to resume the print saved during power outage or low voltage condition.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,8 +353,16 @@
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -615,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -730,8 +787,20 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1148,7 +1217,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>471628</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1506,6 +1575,108 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>203204</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180972</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Connector: Elbow 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A2D599-6E71-4EE4-8676-1B97F78CB145}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="13227054" y="2781299"/>
+          <a:ext cx="1593846" cy="638173"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>98427</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Connector: Elbow 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F683E3-47AF-4439-BEE0-1984B962D6AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3289300" y="3790950"/>
+          <a:ext cx="1917700" cy="1857377"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 71157"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2531,10 +2702,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65005C96-9609-4A9D-8BFD-DC86570817E4}">
-  <dimension ref="B3:AD26"/>
+  <dimension ref="B3:AD31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2619,15 +2790,15 @@
       <c r="E10" s="47"/>
       <c r="F10" s="47"/>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="str">
-        <f>HYPERLINK("https://betrue3d.dk/rpi-and-duet-3-why-and-how/?fbclid=IwAR16IzLQhu4W4G6IMp81qFp3ousTRf1AjmVV-9iawk4osm4pF1tQDGAXfwg","Duet &amp; Raspberry Pi")</f>
-        <v>Duet &amp; Raspberry Pi</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+    <row r="11" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="50" t="str">
+        <f>HYPERLINK("https://betrue3d.dk/rpi-and-duet-3-why-and-how/?fbclid=IwAR16IzLQhu4W4G6IMp81qFp3ousTRf1AjmVV-9iawk4osm4pF1tQDGAXfwg","-&gt; Duet &amp; Raspberry Pi &lt;-")</f>
+        <v>-&gt; Duet &amp; Raspberry Pi &lt;-</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="34"/>
@@ -2636,12 +2807,19 @@
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
+      <c r="Z13" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
     </row>
     <row r="14" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="47" t="s">
@@ -2651,6 +2829,11 @@
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B15" s="47"/>
@@ -2658,6 +2841,11 @@
       <c r="D15" s="47"/>
       <c r="E15" s="47"/>
       <c r="F15" s="47"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B16" s="47"/>
@@ -2665,29 +2853,49 @@
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="49"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="49"/>
+    </row>
+    <row r="20" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="47" t="s">
         <v>42</v>
       </c>
@@ -2695,57 +2903,121 @@
       <c r="D20" s="47"/>
       <c r="E20" s="47"/>
       <c r="F20" s="47"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
       <c r="E21" s="47"/>
       <c r="F21" s="47"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
       <c r="F22" s="47"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
       <c r="F23" s="47"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
       <c r="F24" s="47"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="49"/>
+      <c r="AD25" s="49"/>
+    </row>
+    <row r="26" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="47"/>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
       <c r="F26" s="47"/>
+      <c r="Z26" s="52" t="str">
+        <f>HYPERLINK("https://duet3d.dozuki.com/Wiki/Gcode#Section_M911_Configure_auto_save_on_loss_of_power","Read more: -&gt; M911 Gcode &lt;-")</f>
+        <v>Read more: -&gt; M911 Gcode &lt;-</v>
+      </c>
+      <c r="AA26" s="52"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="52"/>
+      <c r="AD26" s="52"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B29" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="B29:F31"/>
     <mergeCell ref="Z3:AD5"/>
     <mergeCell ref="B14:F17"/>
     <mergeCell ref="B20:F26"/>
     <mergeCell ref="B3:F4"/>
     <mergeCell ref="B8:F10"/>
     <mergeCell ref="B11:F11"/>
+    <mergeCell ref="Z13:AD25"/>
+    <mergeCell ref="Z26:AD26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="510" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6931CA17-C641-4EEE-98B0-1EC45B91EE75}"/>
+  <xr:revisionPtr revIDLastSave="604" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0847C75E-CCB7-4076-9228-38E0A6C2E302}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="7" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="8" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="HEMERA" sheetId="5" r:id="rId5"/>
     <sheet name="HEMERA_TOPMOUNT" sheetId="7" r:id="rId6"/>
     <sheet name="DATA" sheetId="2" r:id="rId7"/>
-    <sheet name="RRF3_P1" sheetId="8" r:id="rId8"/>
+    <sheet name="RRF3_D3P2" sheetId="8" r:id="rId8"/>
+    <sheet name="RRF3_D3P3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>PRINT_HEAD</t>
   </si>
@@ -165,14 +166,7 @@
 </t>
   </si>
   <si>
-    <t>The config-override.g file will contain some settings that will over-ride the ones into the basic config.g. 
-PID Tune Values are typically stored into this file when saving using M500 command</t>
-  </si>
-  <si>
     <t>Enter your printer's name.  This name will appear in the ribbon of the web browser accessing the Duet Web Control.</t>
-  </si>
-  <si>
-    <t>Very useful feature. As the duet detects a low voltage condition (power outage or other) it will immediately cut the power to the motors and use the remaining energy from the power supply capacitors to rapidly store into memory current print progress. That progress is stored into resume.g file.</t>
   </si>
   <si>
     <r>
@@ -221,14 +215,241 @@
     </r>
   </si>
   <si>
-    <t>The resurrect-prolog.g file will be used to prepare the printer to resume the print saved during power outage or low voltage condition.</t>
+    <t>Duet 2 RRF Tool instructions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>config-override.g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file will contain some settings that will over-ride the ones into the basic config.g. 
+PID Tune Values are typically stored into this file when saving using M500 command</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">resurrect-prolog.g </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>file will be used to prepare the printer to resume the print saved during power outage or low voltage condition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Very useful feature. As the duet detects a low voltage condition (power outage or other) it will immediately cut the power to the motors and use the remaining energy from the power supply capacitors to rapidly store into memory current print progress. That progress is stored into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>resume.g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The true print area of you printer will be defined by a few things:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Frame Size as defined in the Frame Calculator
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Depending on the selected print head, you might have more, or less print area.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - The Wobble Wings will consume 18.5mm of Z height.  
+Ex: A 340mm print size frame using the wings will end up being 321.5.  But if you are using a print head where the nozzle sits high, you will recuperate some of it. 
+It is proposed to use FrameCalculator values for now and tune them at first run.</t>
+    </r>
+  </si>
+  <si>
+    <t>The values proposed here are a bit higher than the default RRF config tool ones.  But we are talking about settig up an HevORT ;)</t>
+  </si>
+  <si>
+    <t>Since the HevORT print bed can be quite tilted, increasing this value to at least 15mm is a good idea in order to avoid early triggering of the Z probe (BLTouch)</t>
+  </si>
+  <si>
+    <t>Duet 3 Pin</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>3.3v</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>io0.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optical End Stop </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>End Stops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are to be connected to the Inputs and Output Ports of the Duet 3
+The Corresponding I/O pin needs to be selected.  Select [io</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.in] since these sensor are Active High no need for pull up resistor (Sensor send 3.3V to I/O when triggered.)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,7 +572,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <u/>
       <sz val="12"/>
       <color theme="0"/>
@@ -360,15 +580,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,8 +656,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -667,12 +900,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -784,24 +1047,43 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1209,7 +1491,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>279400</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
@@ -1246,8 +1528,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6372225" y="1158875"/>
-          <a:ext cx="8723453" cy="7772400"/>
+          <a:off x="4768850" y="587375"/>
+          <a:ext cx="8726628" cy="7797800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1677,6 +1959,1556 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>377832</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connector: Elbow 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34728CFE-F5B3-4F3E-BBA3-7ACD2A3DCFF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="13401682" y="5664198"/>
+          <a:ext cx="1425568" cy="450852"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>454024</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584199</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Left Brace 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C601E20-62E4-49A8-B898-F625814DD7AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7866062" y="3725862"/>
+          <a:ext cx="381000" cy="6226175"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>174628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Connector: Elbow 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D38F2B6-FB04-4D05-8058-92D3E92C63FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3279775" y="6677028"/>
+          <a:ext cx="1489075" cy="314322"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>155577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Connector: Elbow 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE6C4CE-1BDC-477F-9F24-3A3C65026A0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3292475" y="7419977"/>
+          <a:ext cx="8591550" cy="476248"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99963"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle: Rounded Corners 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4236D643-2BF4-46AE-BDDA-EA3B6ECC874B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943724" y="4054474"/>
+          <a:ext cx="2203451" cy="485776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Select CoreXY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>, as this is the Geopmetry used by the HevORT</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CA" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>93663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Connector: Elbow 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4247F224-1FDD-4305-86C9-2CD81DAE96FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="0"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6331743" y="4026695"/>
+          <a:ext cx="341313" cy="882649"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle: Rounded Corners 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2E2661-C9A3-42F4-BE63-C34ED0298657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="4635500"/>
+          <a:ext cx="685800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>535209</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE790531-36D2-4BA8-A918-78F1F2DF5514}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="50027"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="4918075"/>
+          <a:ext cx="1436909" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B92FF728-D34C-4F24-B0E9-6CE71F412176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="2698750"/>
+          <a:ext cx="736600" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15518</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="Group 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC786C1-2907-43D6-AC5A-52D8926B254B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5168900" cy="3635018"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="5165725" cy="3635018"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Picture 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C755B6A-8D8D-4810-9B23-6D8BE3D94D5D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="5165725" cy="3635018"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A0D3EA-439D-40C9-B694-38F528CCA1A7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="809625" y="2689225"/>
+            <a:ext cx="711200" cy="492125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>401638</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Connector: Elbow 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3398866-CBBC-49B8-8E61-AC666D695FCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="988219" y="3358355"/>
+          <a:ext cx="841375" cy="487363"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5702EA08-643E-48B9-BDA4-B56BD2EEDBDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1682750" y="4006850"/>
+          <a:ext cx="787400" cy="755650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>44451</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E2C87E-682C-4711-B0B6-A8C549D50F3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14605001" y="1276350"/>
+          <a:ext cx="3063874" cy="2443993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>16996</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="Group 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7ACF9C-FEAA-4D08-9872-6F4F9768EC88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4473575" y="263525"/>
+          <a:ext cx="9925050" cy="7589371"/>
+          <a:chOff x="5864225" y="581025"/>
+          <a:chExt cx="10058400" cy="7595721"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA315F9-21EB-4861-8F5E-7CE106A4DC85}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5864225" y="581025"/>
+            <a:ext cx="10058400" cy="7595721"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectangle 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD470CF-36E8-4554-93EF-D89E44A63140}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7775575" y="3657600"/>
+            <a:ext cx="2066925" cy="301625"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="Rectangle 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B03D2E-74BF-4AE6-A360-E69215BEF5B5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13814425" y="5680075"/>
+            <a:ext cx="1876425" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="Rectangle 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A170C444-A66F-49FC-8A7B-74B594582EDB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13808075" y="6651625"/>
+            <a:ext cx="1879600" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>212726</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>162880</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="Group 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368713F3-7BAD-4A82-87B4-2F7017DD14CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14773276" y="5743575"/>
+          <a:ext cx="2946399" cy="1686880"/>
+          <a:chOff x="16970376" y="6111875"/>
+          <a:chExt cx="3136899" cy="1683705"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="Picture 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF81F809-83A5-4912-BA3B-804A1F9388C0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="16970376" y="6111875"/>
+            <a:ext cx="3136899" cy="1683705"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="28575">
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="Rectangle 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3EDCDF6-4ADB-494B-9420-B276C980FDEB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16989425" y="7229475"/>
+            <a:ext cx="901700" cy="241300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Rectangle 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84973893-62DC-4D31-8EE5-23BB7E9FC13A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17002125" y="6781800"/>
+            <a:ext cx="873125" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-CA" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>555523</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>163885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>242547</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Connector: Elbow 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6823E6-9143-4B0B-85B7-A4F0AF2F91BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14169923" y="5510585"/>
+          <a:ext cx="633174" cy="1020290"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 62973"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>552390</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>182123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>230618</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>97585</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Connector: Elbow 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30EFA7D1-9463-4954-8EE9-4A96685A20BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14166790" y="6481323"/>
+          <a:ext cx="624378" cy="499662"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>368301</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>447384</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5750D88-DEB3-4097-A12D-6D0992AAD2E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14928851" y="3987800"/>
+          <a:ext cx="2326983" cy="1615874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>395288</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Connector: Elbow 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54EF60D0-318E-4CFE-B55C-3A756B058B2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2489200" y="3329289"/>
+          <a:ext cx="5919788" cy="1066499"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47278"/>
+            <a:gd name="adj2" fmla="val 121499"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Arrow: Right 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F84D4E3-0936-4442-9A79-7FA9F0594D71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14725650" y="7353300"/>
+          <a:ext cx="679450" cy="450850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Next</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Arrow: Right 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA25F44-3C0C-4144-B085-84D4F35B10C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5553075" y="7388225"/>
+          <a:ext cx="628650" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Back</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2702,10 +4534,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65005C96-9609-4A9D-8BFD-DC86570817E4}">
-  <dimension ref="B3:AD31"/>
+  <dimension ref="B3:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,44 +4546,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="Z3" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="Z3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
+      <c r="B5" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="25"/>
@@ -2768,37 +4602,37 @@
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="50" t="str">
+      <c r="B11" s="51" t="str">
         <f>HYPERLINK("https://betrue3d.dk/rpi-and-duet-3-why-and-how/?fbclid=IwAR16IzLQhu4W4G6IMp81qFp3ousTRf1AjmVV-9iawk4osm4pF1tQDGAXfwg","-&gt; Duet &amp; Raspberry Pi &lt;-")</f>
         <v>-&gt; Duet &amp; Raspberry Pi &lt;-</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="34"/>
@@ -2813,63 +4647,63 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="Z13" s="49" t="s">
+      <c r="Z13" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+    </row>
+    <row r="14" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-    </row>
-    <row r="14" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="47"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="25"/>
@@ -2877,11 +4711,11 @@
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
@@ -2889,102 +4723,102 @@
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
     </row>
     <row r="20" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="49"/>
+      <c r="B20" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="49"/>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="49"/>
-      <c r="AD25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
     </row>
     <row r="26" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="Z26" s="52" t="str">
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="Z26" s="50" t="str">
         <f>HYPERLINK("https://duet3d.dozuki.com/Wiki/Gcode#Section_M911_Configure_auto_save_on_loss_of_power","Read more: -&gt; M911 Gcode &lt;-")</f>
         <v>Read more: -&gt; M911 Gcode &lt;-</v>
       </c>
-      <c r="AA26" s="52"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+    </row>
+    <row r="29" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="48" t="s">
         <v>44</v>
       </c>
@@ -2992,6 +4826,13 @@
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
       <c r="F29" s="48"/>
+      <c r="Z29" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30" s="48"/>
@@ -2999,6 +4840,11 @@
       <c r="D30" s="48"/>
       <c r="E30" s="48"/>
       <c r="F30" s="48"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="54"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31" s="48"/>
@@ -3006,9 +4852,138 @@
       <c r="D31" s="48"/>
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="54"/>
+      <c r="AC31" s="54"/>
+      <c r="AD31" s="54"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="54"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B34" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="54"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="54"/>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="54"/>
+    </row>
+    <row r="37" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
+      <c r="AC37" s="54"/>
+      <c r="AD37" s="54"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="54"/>
+      <c r="AD39" s="54"/>
+    </row>
+    <row r="40" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="Z40" s="54"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="54"/>
+      <c r="AD40" s="54"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="54"/>
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="54"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="54"/>
+      <c r="AC42" s="54"/>
+      <c r="AD42" s="54"/>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
+    <mergeCell ref="B40:F43"/>
     <mergeCell ref="B29:F31"/>
     <mergeCell ref="Z3:AD5"/>
     <mergeCell ref="B14:F17"/>
@@ -3018,12 +4993,147 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="Z13:AD25"/>
     <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="Z29:AD42"/>
+    <mergeCell ref="B34:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <webPublishItems count="1">
-    <webPublishItem id="19311" divId="FirmWareSettings_19311" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\FirmWareSettings.htm" autoRepublish="1"/>
+    <webPublishItem id="19311" divId="FirmWareSettings_19311" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\RRF3_D3P2.htm" autoRepublish="1"/>
+  </webPublishItems>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D9C8A0-2668-4297-8EF3-575600067781}">
+  <dimension ref="B21:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38:F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="25" max="25" width="5" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="24"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="24"/>
+      <c r="C27" s="26"/>
+      <c r="E27" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="24"/>
+      <c r="C28" s="26"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="24"/>
+      <c r="C29" s="26"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="C30" s="26"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="24"/>
+      <c r="C31" s="26"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="24"/>
+      <c r="C32" s="26"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="24"/>
+      <c r="C33" s="26"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="59"/>
+      <c r="C34" s="29"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E27:G35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="26907" divId="FirmWareSettings_26907" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\RRF3_D3P3.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="604" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0847C75E-CCB7-4076-9228-38E0A6C2E302}"/>
+  <xr:revisionPtr revIDLastSave="645" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1F25E4F7-4669-452D-B3B0-0B726FE61E72}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="8" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>PRINT_HEAD</t>
   </si>
@@ -444,12 +444,40 @@
       <t>.in] since these sensor are Active High no need for pull up resistor (Sensor send 3.3V to I/O when triggered.)</t>
     </r>
   </si>
+  <si>
+    <t>Note: It is recommended to use I/O port #7 for the Bltouch, but you can also use #4 or #5.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IMPORTANT!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If you are using a V2 BLTouch you need to cut the PCB trace linking those two pads as shown here above to enable 3.3V logic instead of 5V.
+BLTouch V3 and up dont need any modification to enable 3.3V logic</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +618,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -935,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1011,6 +1047,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1056,14 +1105,14 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1071,19 +1120,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2375,123 +2414,18 @@
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>535209</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE790531-36D2-4BA8-A918-78F1F2DF5514}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect r="50027"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="774700" y="4918075"/>
-          <a:ext cx="1436909" cy="1447800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B92FF728-D34C-4F24-B0E9-6CE71F412176}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="774700" y="2698750"/>
-          <a:ext cx="736600" cy="469900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>15518</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2506,8 +2440,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="5168900" cy="3635018"/>
+          <a:off x="76200" y="187325"/>
+          <a:ext cx="4349750" cy="3130550"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5165725" cy="3635018"/>
         </a:xfrm>
@@ -2526,7 +2460,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2608,18 +2542,173 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>148280</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A186B2-33D0-4CD6-B3BA-1676A8AA2171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4518026" y="288925"/>
+          <a:ext cx="9854254" cy="7594600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>535209</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE790531-36D2-4BA8-A918-78F1F2DF5514}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect r="50027"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="4918075"/>
+          <a:ext cx="1436909" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B92FF728-D34C-4F24-B0E9-6CE71F412176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="2698750"/>
+          <a:ext cx="736600" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>872500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>401638</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2637,8 +2726,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="988219" y="3358355"/>
-          <a:ext cx="841375" cy="487363"/>
+          <a:off x="806642" y="3176779"/>
+          <a:ext cx="1095954" cy="595938"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2735,7 +2824,7 @@
       <xdr:col>30</xdr:col>
       <xdr:colOff>250825</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>100843</xdr:rowOff>
+      <xdr:rowOff>110368</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2751,7 +2840,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2790,224 +2879,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>16996</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="43" name="Group 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7ACF9C-FEAA-4D08-9872-6F4F9768EC88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4473575" y="263525"/>
-          <a:ext cx="9925050" cy="7589371"/>
-          <a:chOff x="5864225" y="581025"/>
-          <a:chExt cx="10058400" cy="7595721"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Picture 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA315F9-21EB-4861-8F5E-7CE106A4DC85}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5864225" y="581025"/>
-            <a:ext cx="10058400" cy="7595721"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Rectangle 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD470CF-36E8-4554-93EF-D89E44A63140}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7775575" y="3657600"/>
-            <a:ext cx="2066925" cy="301625"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-CA" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="Rectangle 24">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B03D2E-74BF-4AE6-A360-E69215BEF5B5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13814425" y="5680075"/>
-            <a:ext cx="1876425" cy="304800"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-CA" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="Rectangle 25">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A170C444-A66F-49FC-8A7B-74B594582EDB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13808075" y="6651625"/>
-            <a:ext cx="1879600" cy="304800"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="fr-CA" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>212726</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>260351</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>162880</xdr:rowOff>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>48580</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3022,8 +2903,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14773276" y="5743575"/>
-          <a:ext cx="2946399" cy="1686880"/>
+          <a:off x="14824076" y="3902075"/>
+          <a:ext cx="2940049" cy="1686880"/>
           <a:chOff x="16970376" y="6111875"/>
           <a:chExt cx="3136899" cy="1683705"/>
         </a:xfrm>
@@ -3182,14 +3063,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>555523</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>163885</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>242547</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28475</xdr:rowOff>
+      <xdr:colOff>290140</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>163885</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3206,13 +3087,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14169923" y="5510585"/>
-          <a:ext cx="633174" cy="1020290"/>
+        <a:xfrm flipV="1">
+          <a:off x="14169923" y="4689375"/>
+          <a:ext cx="680767" cy="821210"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 62973"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -3237,14 +3118,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>552390</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>182123</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>173785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>230618</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>97585</xdr:rowOff>
+      <xdr:colOff>278224</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>182123</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3261,13 +3142,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14166790" y="6481323"/>
-          <a:ext cx="624378" cy="499662"/>
+        <a:xfrm flipV="1">
+          <a:off x="14166790" y="5139485"/>
+          <a:ext cx="671984" cy="1341838"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 75394"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -3286,50 +3167,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>368301</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>447384</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66474</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5750D88-DEB3-4097-A12D-6D0992AAD2E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14928851" y="3987800"/>
-          <a:ext cx="2326983" cy="1615874"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3363,8 +3200,8 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 47278"/>
-            <a:gd name="adj2" fmla="val 121499"/>
+            <a:gd name="adj1" fmla="val 19892"/>
+            <a:gd name="adj2" fmla="val 149483"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -3388,15 +3225,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:colOff>60325</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3411,8 +3248,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14725650" y="7353300"/>
-          <a:ext cx="679450" cy="450850"/>
+          <a:off x="13674725" y="7369175"/>
+          <a:ext cx="676275" cy="450850"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3450,16 +3287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3474,8 +3311,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5553075" y="7388225"/>
-          <a:ext cx="628650" cy="457200"/>
+          <a:off x="4562475" y="7372350"/>
+          <a:ext cx="609600" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3506,6 +3343,698 @@
             <a:rPr lang="fr-CA" sz="1100"/>
             <a:t>Back</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C1FE46-01BF-4B37-9825-04A2C82E37F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9934575" y="2308225"/>
+          <a:ext cx="2971800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Standard Configuration</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> using regular thermistors</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CA" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>549274</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Left Brace 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E94BB7C-4AC3-416D-9921-1499D3C51F50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11268075" y="206375"/>
+          <a:ext cx="390524" cy="5400674"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 50117"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365124</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Left Brace 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26B8C58-C5D4-4DDE-8DC1-0F850669DBFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6054724" y="3279774"/>
+          <a:ext cx="374651" cy="1930401"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj2" fmla="val 13275"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>288924</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>117474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>339724</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{399F48E8-4E13-4CDF-9197-330D064C437C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6588124" y="4702174"/>
+          <a:ext cx="3098800" cy="631826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>To which Driver each motor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> is connected.  </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>No Need to be specific about X and Y at this point, we will see that at first power up.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>130174</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>111124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1BB06E5-B46D-41C2-BEB7-06C30BB08F54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5210174" y="7185024"/>
+          <a:ext cx="3524251" cy="479425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Fan1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> (Hot End): </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>No</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> need to define if using WaterCooling Otherwise you can use </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>out4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> thru </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>out6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101599</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606E3FF1-0422-4B17-988D-1577508FC377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181599" y="5930899"/>
+          <a:ext cx="3540126" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Fan0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> (Part Cooling): </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Recommended to use </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>out7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>out8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> or </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>out9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> for BerdAir</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Pump motor and HevACS.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>72923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9436A2ED-6C57-4E45-99AB-DC165ABDEFF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14862175" y="5661025"/>
+          <a:ext cx="2727325" cy="1288948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>120651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle: Rounded Corners 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B00CB7-4016-43C3-BE7E-319CC4667797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14414500" y="120651"/>
+          <a:ext cx="3305175" cy="8286750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3887,10 +4416,10 @@
       <c r="C2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="36"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -3902,14 +4431,14 @@
       <c r="C3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="42"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -4039,42 +4568,42 @@
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="T35" s="35" t="s">
+      <c r="C35" s="41"/>
+      <c r="T35" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="U35" s="36"/>
+      <c r="U35" s="41"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="38"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="43"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="38"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="43"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="44"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="49"/>
     </row>
     <row r="39" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="T39" s="39" t="s">
+      <c r="C39" s="45"/>
+      <c r="T39" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="U39" s="40"/>
+      <c r="U39" s="45"/>
     </row>
     <row r="40" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
@@ -4245,14 +4774,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="46"/>
+      <c r="E1" s="51"/>
       <c r="I1" t="s">
         <v>15</v>
       </c>
@@ -4546,46 +5075,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="Z3" s="49" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="Z3" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="49"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="25"/>
@@ -4602,37 +5131,37 @@
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
     </row>
     <row r="11" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="51" t="str">
+      <c r="B11" s="55" t="str">
         <f>HYPERLINK("https://betrue3d.dk/rpi-and-duet-3-why-and-how/?fbclid=IwAR16IzLQhu4W4G6IMp81qFp3ousTRf1AjmVV-9iawk4osm4pF1tQDGAXfwg","-&gt; Duet &amp; Raspberry Pi &lt;-")</f>
         <v>-&gt; Duet &amp; Raspberry Pi &lt;-</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="34"/>
@@ -4647,63 +5176,63 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="Z13" s="47" t="s">
+      <c r="Z13" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
     </row>
     <row r="14" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="47"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="47"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="47"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="25"/>
@@ -4711,11 +5240,11 @@
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
@@ -4723,263 +5252,263 @@
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
     </row>
     <row r="20" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="47"/>
-      <c r="AC24" s="47"/>
-      <c r="AD24" s="47"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="47"/>
-      <c r="AB25" s="47"/>
-      <c r="AC25" s="47"/>
-      <c r="AD25" s="47"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
     </row>
     <row r="26" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="Z26" s="50" t="str">
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="Z26" s="57" t="str">
         <f>HYPERLINK("https://duet3d.dozuki.com/Wiki/Gcode#Section_M911_Configure_auto_save_on_loss_of_power","Read more: -&gt; M911 Gcode &lt;-")</f>
         <v>Read more: -&gt; M911 Gcode &lt;-</v>
       </c>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57"/>
     </row>
     <row r="29" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="Z29" s="54" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="Z29" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="54"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="Z31" s="54"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="54"/>
-      <c r="AD31" s="54"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="54"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="54"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="54"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="54"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="Z34" s="54"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="54"/>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="54"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="Z35" s="54"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="54"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="54"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="Z36" s="54"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="54"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="54"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
     </row>
     <row r="37" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="Z37" s="54"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="54"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="54"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z39" s="54"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="54"/>
-      <c r="AC39" s="54"/>
-      <c r="AD39" s="54"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
     </row>
     <row r="40" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="54"/>
-      <c r="AC40" s="54"/>
-      <c r="AD40" s="54"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="54"/>
-      <c r="AC41" s="54"/>
-      <c r="AD41" s="54"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="Z42" s="54"/>
-      <c r="AA42" s="54"/>
-      <c r="AB42" s="54"/>
-      <c r="AC42" s="54"/>
-      <c r="AD42" s="54"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5008,10 +5537,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D9C8A0-2668-4297-8EF3-575600067781}">
-  <dimension ref="B21:G35"/>
+  <dimension ref="B3:AD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:F39"/>
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5026,36 +5555,59 @@
     <col min="26" max="26" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="26:30" x14ac:dyDescent="0.25">
+      <c r="Z3" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+    </row>
+    <row r="4" spans="26:30" x14ac:dyDescent="0.25">
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+    </row>
+    <row r="5" spans="26:30" x14ac:dyDescent="0.25">
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+    </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="38" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="38" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="38" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5066,72 +5618,119 @@
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24"/>
       <c r="C27" s="26"/>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="24"/>
       <c r="C28" s="26"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="24"/>
       <c r="C29" s="26"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="24"/>
       <c r="C30" s="26"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="24"/>
       <c r="C31" s="26"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="24"/>
       <c r="C32" s="26"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" s="24"/>
       <c r="C33" s="26"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="59"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+    </row>
+    <row r="34" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="39"/>
       <c r="C34" s="29"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z38" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="60"/>
+    </row>
+    <row r="39" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="60"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="60"/>
+      <c r="AB40" s="60"/>
+      <c r="AC40" s="60"/>
+      <c r="AD40" s="60"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="60"/>
+      <c r="AB41" s="60"/>
+      <c r="AC41" s="60"/>
+      <c r="AD41" s="60"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="60"/>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z43" s="60"/>
+      <c r="AA43" s="60"/>
+      <c r="AB43" s="60"/>
+      <c r="AC43" s="60"/>
+      <c r="AD43" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="E27:G35"/>
+    <mergeCell ref="Z3:AD5"/>
+    <mergeCell ref="Z38:AD43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <webPublishItems count="1">
     <webPublishItem id="26907" divId="FirmWareSettings_26907" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\RRF3_D3P3.htm" autoRepublish="1"/>
   </webPublishItems>

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="645" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1F25E4F7-4669-452D-B3B0-0B726FE61E72}"/>
+  <xr:revisionPtr revIDLastSave="659" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10DAE9B3-0250-46B2-AF3A-C430ACBE6F77}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="8" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
@@ -1573,6 +1573,16 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1851,6 +1861,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="75" name="Arrow: Right 74">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF394B0E-5A2D-482A-B94E-6F27D60DD49D}"/>
@@ -2381,6 +2392,74 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483826F8-4999-4CBD-B927-1D8A96322C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4806950" y="7943850"/>
+          <a:ext cx="711200" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2544,16 +2623,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>148280</xdr:colOff>
+      <xdr:colOff>40330</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2582,12 +2661,22 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4518026" y="288925"/>
-          <a:ext cx="9854254" cy="7594600"/>
+          <a:off x="4413251" y="320675"/>
+          <a:ext cx="9851079" cy="7604125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3201,7 +3290,7 @@
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
             <a:gd name="adj1" fmla="val 19892"/>
-            <a:gd name="adj2" fmla="val 149483"/>
+            <a:gd name="adj2" fmla="val 154246"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -3224,16 +3313,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3248,8 +3337,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13674725" y="7369175"/>
-          <a:ext cx="676275" cy="450850"/>
+          <a:off x="13573125" y="7410450"/>
+          <a:ext cx="679450" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3288,19 +3377,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>92075</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>92075</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="48" name="Arrow: Right 47">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA25F44-3C0C-4144-B085-84D4F35B10C4}"/>
@@ -3311,7 +3401,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4562475" y="7372350"/>
+          <a:off x="4486275" y="7400925"/>
           <a:ext cx="609600" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3655,15 +3745,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>130174</xdr:colOff>
+      <xdr:colOff>73024</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>111124</xdr:rowOff>
+      <xdr:rowOff>149224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
+      <xdr:colOff>549275</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>60324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3678,8 +3768,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5210174" y="7185024"/>
-          <a:ext cx="3524251" cy="479425"/>
+          <a:off x="5153024" y="7223124"/>
+          <a:ext cx="3524251" cy="482600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3776,15 +3866,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>101599</xdr:colOff>
+      <xdr:colOff>3174</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>593725</xdr:colOff>
+      <xdr:colOff>492125</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>88899</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3799,8 +3889,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5181599" y="5930899"/>
-          <a:ext cx="3540126" cy="457200"/>
+          <a:off x="5083174" y="5927724"/>
+          <a:ext cx="3536951" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3945,7 +4035,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3982,15 +4072,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>158750</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>120651</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>301625</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4005,8 +4095,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14414500" y="120651"/>
-          <a:ext cx="3305175" cy="8286750"/>
+          <a:off x="14382750" y="123826"/>
+          <a:ext cx="3336925" cy="8429624"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5066,7 +5156,7 @@
   <dimension ref="B3:AD43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5540,7 +5630,7 @@
   <dimension ref="B3:AD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="659" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10DAE9B3-0250-46B2-AF3A-C430ACBE6F77}"/>
+  <xr:revisionPtr revIDLastSave="661" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78AB8A3C-B1C5-455C-85D9-098D70D085F7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="8" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="7" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
@@ -2488,6 +2488,77 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle: Rounded Corners 20">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A9BFEF-874D-42B6-A284-2D814800FE2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8566150" y="8255000"/>
+          <a:ext cx="1047750" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Back to Menu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4125,6 +4196,77 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{882D6AE1-7ECE-4B9B-BD9E-C76376DF5351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8696325" y="7807325"/>
+          <a:ext cx="1044575" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Back to Menu</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5155,7 +5297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65005C96-9609-4A9D-8BFD-DC86570817E4}">
   <dimension ref="B3:AD43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
@@ -5629,8 +5771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D9C8A0-2668-4297-8EF3-575600067781}">
   <dimension ref="B3:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="661" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78AB8A3C-B1C5-455C-85D9-098D70D085F7}"/>
+  <xr:revisionPtr revIDLastSave="675" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6079FFF9-946C-4133-A2C7-A5F32D64F80B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="7" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
@@ -404,6 +404,31 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IMPORTANT!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If you are using a V2 BLTouch you need to cut the PCB trace linking those two pads as shown here above to enable 3.3V logic instead of 5V.
+BLTouch V3 and up dont need any modification to enable 3.3V logic</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -420,7 +445,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> are to be connected to the Inputs and Output Ports of the Duet 3
-The Corresponding I/O pin needs to be selected.  Select [io</t>
+The Corresponding I/O pin needs to be selected. 
+Select [io</t>
     </r>
     <r>
       <rPr>
@@ -445,19 +471,16 @@
     </r>
   </si>
   <si>
-    <t>Note: It is recommended to use I/O port #7 for the Bltouch, but you can also use #4 or #5.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>IMPORTANT!</t>
+      <t>Note</t>
     </r>
     <r>
       <rPr>
@@ -467,9 +490,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-If you are using a V2 BLTouch you need to cut the PCB trace linking those two pads as shown here above to enable 3.3V logic instead of 5V.
-BLTouch V3 and up dont need any modification to enable 3.3V logic</t>
+      <t>: It is recommended to use I/O port #7 for the Bltouch, but you can also use #4 or #5.</t>
     </r>
   </si>
 </sst>
@@ -2567,15 +2588,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2590,8 +2611,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="76200" y="187325"/>
-          <a:ext cx="4349750" cy="3130550"/>
+          <a:off x="133350" y="479425"/>
+          <a:ext cx="4321175" cy="3133725"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5165725" cy="3635018"/>
         </a:xfrm>
@@ -2860,9 +2881,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>872500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>69271</xdr:rowOff>
+      <xdr:colOff>923922</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -2886,8 +2907,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="806642" y="3176779"/>
-          <a:ext cx="1095954" cy="595938"/>
+          <a:off x="978601" y="3348738"/>
+          <a:ext cx="803458" cy="544516"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3512,15 +3533,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3535,7 +3556,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9934575" y="2308225"/>
+          <a:off x="9890125" y="2384425"/>
           <a:ext cx="2971800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3597,16 +3618,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>549276</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>549274</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>53974</xdr:rowOff>
+      <xdr:rowOff>57152</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3621,8 +3642,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="11268075" y="206375"/>
-          <a:ext cx="390524" cy="5400674"/>
+          <a:off x="11161711" y="233364"/>
+          <a:ext cx="387353" cy="5356224"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst>
@@ -3659,15 +3680,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>365124</xdr:colOff>
+      <xdr:colOff>301624</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>41274</xdr:rowOff>
+      <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>130175</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3682,7 +3703,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6054724" y="3279774"/>
+          <a:off x="5991224" y="3317874"/>
           <a:ext cx="374651" cy="1930401"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
@@ -3720,15 +3741,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>288924</xdr:colOff>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>117474</xdr:rowOff>
+      <xdr:rowOff>66673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>339724</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3743,8 +3764,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6588124" y="4702174"/>
-          <a:ext cx="3098800" cy="631826"/>
+          <a:off x="6499224" y="4651373"/>
+          <a:ext cx="2054226" cy="1047751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3816,15 +3837,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>73024</xdr:colOff>
+      <xdr:colOff>66674</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>149224</xdr:rowOff>
+      <xdr:rowOff>117474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>60324</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3839,7 +3860,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5153024" y="7223124"/>
+          <a:off x="5146674" y="7191374"/>
           <a:ext cx="3524251" cy="482600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3874,7 +3895,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="fr-CA" sz="1100" b="0">
+            <a:rPr lang="fr-CA" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3937,15 +3958,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>3174</xdr:colOff>
+      <xdr:colOff>34924</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>107949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>184149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3960,7 +3981,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5083174" y="5927724"/>
+          <a:off x="5114924" y="6026149"/>
           <a:ext cx="3536951" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4267,6 +4288,67 @@
             <a:rPr lang="fr-CA" sz="1100"/>
             <a:t>Back to Menu</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165101</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle: Rounded Corners 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538C8E69-65A1-4671-935F-4E8F648E7320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50800" y="38100"/>
+          <a:ext cx="4298951" cy="7337425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5303,7 +5385,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5771,8 +5853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D9C8A0-2668-4297-8EF3-575600067781}">
   <dimension ref="B3:AD43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH36" sqref="AH36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5789,7 +5871,7 @@
   <sheetData>
     <row r="3" spans="26:30" x14ac:dyDescent="0.25">
       <c r="Z3" s="60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA3" s="60"/>
       <c r="AB3" s="60"/>
@@ -5851,7 +5933,7 @@
       <c r="B27" s="24"/>
       <c r="C27" s="26"/>
       <c r="E27" s="52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="52"/>
       <c r="G27" s="52"/>
@@ -5912,7 +5994,7 @@
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="Z38" s="60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AA38" s="60"/>
       <c r="AB38" s="60"/>

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="675" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6079FFF9-946C-4133-A2C7-A5F32D64F80B}"/>
+  <xr:revisionPtr revIDLastSave="752" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3F46930B-19E6-4ADF-A9BC-590CA14004B6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="7" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="9" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="DATA" sheetId="2" r:id="rId7"/>
     <sheet name="RRF3_D3P2" sheetId="8" r:id="rId8"/>
     <sheet name="RRF3_D3P3" sheetId="9" r:id="rId9"/>
+    <sheet name="RRF3_D3P4" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>PRINT_HEAD</t>
   </si>
@@ -404,31 +405,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IMPORTANT!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-If you are using a V2 BLTouch you need to cut the PCB trace linking those two pads as shown here above to enable 3.3V logic instead of 5V.
-BLTouch V3 and up dont need any modification to enable 3.3V logic</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -498,7 +474,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,14 +615,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -992,7 +960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1144,6 +1112,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2612,7 +2583,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="133350" y="479425"/>
-          <a:ext cx="4321175" cy="3133725"/>
+          <a:ext cx="4305113" cy="3130550"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5165725" cy="3635018"/>
         </a:xfrm>
@@ -2996,16 +2967,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>44451</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>330201</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>250825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>110368</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53218</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3035,8 +3006,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14605001" y="1276350"/>
-          <a:ext cx="3063874" cy="2443993"/>
+          <a:off x="14541501" y="2371725"/>
+          <a:ext cx="3063874" cy="2453518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3061,15 +3032,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>260351</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>269876</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>346075</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>48580</xdr:rowOff>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>29530</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3084,8 +3055,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14824076" y="3902075"/>
-          <a:ext cx="2940049" cy="1686880"/>
+          <a:off x="14747876" y="5605556"/>
+          <a:ext cx="2920812" cy="1685386"/>
           <a:chOff x="16970376" y="6111875"/>
           <a:chExt cx="3136899" cy="1683705"/>
         </a:xfrm>
@@ -3244,14 +3215,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>555523</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104675</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>163885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>290140</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>163885</xdr:rowOff>
+      <xdr:colOff>299665</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>96838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3268,9 +3239,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14169923" y="4689375"/>
-          <a:ext cx="680767" cy="821210"/>
+        <a:xfrm>
+          <a:off x="14157223" y="5507410"/>
+          <a:ext cx="687117" cy="885453"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3299,14 +3270,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>552390</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>173785</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>182123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>278224</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>182123</xdr:rowOff>
+      <xdr:colOff>287749</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3323,13 +3294,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14166790" y="5139485"/>
-          <a:ext cx="671984" cy="1341838"/>
+        <a:xfrm>
+          <a:off x="14154090" y="6478148"/>
+          <a:ext cx="678334" cy="363977"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 75394"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -3419,6 +3390,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="47" name="Arrow: Right 46">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F84D4E3-0936-4442-9A79-7FA9F0594D71}"/>
@@ -3482,7 +3454,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="48" name="Arrow: Right 47">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA25F44-3C0C-4144-B085-84D4F35B10C4}"/>
@@ -4100,67 +4072,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>72923</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9436A2ED-6C57-4E45-99AB-DC165ABDEFF0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14862175" y="5661025"/>
-          <a:ext cx="2727325" cy="1288948"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
@@ -4352,6 +4263,2150 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>134710</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>155122</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A42F24E-A3AB-4626-A7DA-46CD9942CDEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4535181" y="326572"/>
+          <a:ext cx="9517235" cy="7639050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7205</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>24012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129669</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>8635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B9FAEC-C2CB-4D44-800C-C20EF004A826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2427676" y="24012"/>
+          <a:ext cx="1937817" cy="3413623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368139</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E19EF9-F18A-4CC4-96B0-6827DA56C280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="201707" y="2274793"/>
+          <a:ext cx="1981785" cy="3462618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Left Brace 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FAB16C-2BF6-4E23-A60A-C4FCCB939BA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7978588" y="2073088"/>
+          <a:ext cx="100853" cy="1053353"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129669</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>16324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Connector: Elbow 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570D5156-4A47-4BDB-AE95-D24E59F546DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4365493" y="1730824"/>
+          <a:ext cx="3613095" cy="868941"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 95592"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368139</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5602</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connector: Elbow 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE9FBBA-5601-4162-A966-2FC954EE8D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2183492" y="3597088"/>
+          <a:ext cx="5929567" cy="409014"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 95545"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7EB4E9-1355-4627-9A06-61CD6A9497C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8113059" y="3395382"/>
+          <a:ext cx="795617" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF480FB3-FBC7-45C1-9C6E-203FDD6E539C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9054353" y="2050676"/>
+          <a:ext cx="4840941" cy="1770530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle: Rounded Corners 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABB154C-AAD5-4F19-852A-C5627BD15C64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14410765" y="313763"/>
+          <a:ext cx="3115235" cy="4661648"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>All</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> of these values for Jerk (Max.Speed Change) , Sepped and Acceleration are conservative, but quite higher than the proposed values into the RRF tool.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>For the first runs of you printer I propose you use these values and then increase them while testing to see how your build reacts to them.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>All these values are considered as </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Not to Exceed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.  So even if your slicer is asking for a move that would accelerate and travel faster than these values, the Duet will change that request to something that will not exceed your max parameters.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Thanks to the Duet, these can be easily changed </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>while printing </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>by sending GCode commands through the Web Control.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Motor Current: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>As a rule of thumb, if your motors are well ventilated, you should use a value that is not higher than 80% of their recommended Amp Rating.  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connector: Elbow 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C3ED56-B623-4781-83E0-938F09A94552}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13895294" y="2644587"/>
+          <a:ext cx="515471" cy="291354"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48424D47-D947-4CA8-93EC-F17F04E217B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8135471" y="5233147"/>
+          <a:ext cx="784411" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B49E1B-503F-43C9-8B03-7654793038FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9076768" y="5244353"/>
+          <a:ext cx="3899644" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989D1C69-4C60-4E8F-A327-01B60F3BF2DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5244353" y="5233147"/>
+          <a:ext cx="1243853" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168090</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle: Rounded Corners 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C36083D-EF4A-42AE-891B-637DC3C697AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1983443" y="4258234"/>
+          <a:ext cx="2285998" cy="2274796"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>For </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Z,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Using</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Ball screw with a pitch of 4mm / turn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> and using 1.8 degree motors will give us 800 steps per mm at x16 microsteps.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(If you are using 0.9degree motors for Z, this value will then be 1600)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Normally, Steps / mm for XY and Z should'nt require to be adjusted.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>448238</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>134473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle: Rounded Corners 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489EA081-3FBB-4B1E-8BEA-9DA55B88F37D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="448238" y="0"/>
+          <a:ext cx="2061881" cy="1658473"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>For</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> when using 0.9 degree steeper motors, the Hevort will use 160 Steps per mm.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>This is taking into accound the diameter of the Pulleys and the fact that the steps are (micro stepped to X16)  </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>400 * 16 = 6400 steps /rev</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>437031</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle: Rounded Corners 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512C07A1-C77F-4924-949A-EED0F53DCC3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="437031" y="1658470"/>
+          <a:ext cx="2039469" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-&gt; How Microstepping works &lt;-</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>112056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle: Rounded Corners 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E512A2-C6E0-449B-AC18-341AF0AA0EA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="986118" y="6779556"/>
+          <a:ext cx="3193677" cy="1255061"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Motor Directions for </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XY and Z </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>can be left as is for now.  Too many variables will interact with how your printer will behave when powered on for the first time.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>So a good old test and see is probably the best method.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>144558</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>166405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>218890</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>42580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Arrow: Right 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4DE341-5634-4B6E-8C50-6A8289C81ADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13457146" y="7405405"/>
+          <a:ext cx="679450" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Next</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268944</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>168086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>273427</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>53786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Arrow: Right 37">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EFC25A-F86B-4B10-8142-A05C85E44F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4504768" y="7407086"/>
+          <a:ext cx="609600" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Back</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175935</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>14192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10275</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>147542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle: Rounded Corners 38">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD28ECBD-9249-4C09-8BAB-0A885F540ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8647582" y="7824692"/>
+          <a:ext cx="1044575" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Back to Menu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>420221</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Connector: Elbow 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7BE228-5680-4D8B-ACB8-E224EB490F12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="2"/>
+          <a:endCxn id="36" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4137774" y="5678581"/>
+          <a:ext cx="1770528" cy="1686485"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>515472</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>128867</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Connector: Elbow 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C307EB-9122-4406-8C52-C9E0EF80617D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="0"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11668127" y="4602816"/>
+          <a:ext cx="2123514" cy="3406588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5488"/>
+            <a:gd name="adj2" fmla="val 85855"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>515472</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>67233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>481854</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle: Rounded Corners 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59983B92-62C6-4371-A68F-6EDC53DF52A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14433178" y="6353733"/>
+          <a:ext cx="2991970" cy="2028267"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Extruder </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Acceleration, Jerk and Max Speed are quite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> higher </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>in this proposal due to the use of Pressure Advance and assumption of a direct drive Extruder system.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>When printing at high speed, the required pre-load of pressure in the nozzle before a move can be brutal.  We need to make sure the Extruder motor will be able to match that request, if not the print will slow down.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>481855</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle: Rounded Corners 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE72E66-558B-41EE-A8BD-F0C829BFE332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14421971" y="5076264"/>
+          <a:ext cx="3003178" cy="1098178"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Start with the value proposed by the manufacturer of your extruder. EX: </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(Using 1.8 motors)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BMG = 415 step /mm @ x16</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Hemera = 409 steps/mm @ x16</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>230166</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>560291</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Left Brace 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D5B55A-12E6-43EA-9EDF-DBE51DE33862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10514141" y="3577702"/>
+          <a:ext cx="336176" cy="6381301"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 46137"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11203</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rectangle: Rounded Corners 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD83770-BAB3-4C21-9BEA-8C5094777294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9087968" y="5838262"/>
+          <a:ext cx="3653120" cy="717180"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Good as proposed for now. </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>After 30seconds of innactivity motor power will be reduced to 30% in order to maintain position while not moving.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Connector: Elbow 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBE6105-854C-4A9E-8DD5-0F0816DC5896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="0"/>
+          <a:endCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11278721" y="2482103"/>
+          <a:ext cx="392206" cy="5894294"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -172572"/>
+            <a:gd name="adj2" fmla="val 97433"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4990,6 +7045,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA426F61-967D-469E-A71E-9CE677D0A911}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF35" sqref="AF35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="8148" divId="FirmWareSettings_8148" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\RRF3_D3P4.htm" autoRepublish="1"/>
+  </webPublishItems>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8642FEA0-B814-4E68-9272-1BD7BFB42F93}">
   <sheetPr>
@@ -5379,7 +7452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65005C96-9609-4A9D-8BFD-DC86570817E4}">
   <dimension ref="B3:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
@@ -5851,10 +7924,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D9C8A0-2668-4297-8EF3-575600067781}">
-  <dimension ref="B3:AD43"/>
+  <dimension ref="B6:AD43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH36" sqref="AH36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5869,28 +7942,28 @@
     <col min="26" max="26" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="26:30" x14ac:dyDescent="0.25">
-      <c r="Z3" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-    </row>
-    <row r="4" spans="26:30" x14ac:dyDescent="0.25">
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-    </row>
-    <row r="5" spans="26:30" x14ac:dyDescent="0.25">
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
+    <row r="6" spans="26:30" x14ac:dyDescent="0.25">
+      <c r="Z6" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+    </row>
+    <row r="7" spans="26:30" x14ac:dyDescent="0.25">
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="60"/>
+    </row>
+    <row r="8" spans="26:30" x14ac:dyDescent="0.25">
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -5933,7 +8006,7 @@
       <c r="B27" s="24"/>
       <c r="C27" s="26"/>
       <c r="E27" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="52"/>
       <c r="G27" s="52"/>
@@ -5993,54 +8066,51 @@
       <c r="G35" s="52"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z38" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA38" s="60"/>
-      <c r="AB38" s="60"/>
-      <c r="AC38" s="60"/>
-      <c r="AD38" s="60"/>
+      <c r="Z38" s="61"/>
+      <c r="AA38" s="61"/>
+      <c r="AB38" s="61"/>
+      <c r="AC38" s="61"/>
+      <c r="AD38" s="61"/>
     </row>
     <row r="39" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z39" s="60"/>
-      <c r="AA39" s="60"/>
-      <c r="AB39" s="60"/>
-      <c r="AC39" s="60"/>
-      <c r="AD39" s="60"/>
+      <c r="Z39" s="61"/>
+      <c r="AA39" s="61"/>
+      <c r="AB39" s="61"/>
+      <c r="AC39" s="61"/>
+      <c r="AD39" s="61"/>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z40" s="60"/>
-      <c r="AA40" s="60"/>
-      <c r="AB40" s="60"/>
-      <c r="AC40" s="60"/>
-      <c r="AD40" s="60"/>
+      <c r="Z40" s="61"/>
+      <c r="AA40" s="61"/>
+      <c r="AB40" s="61"/>
+      <c r="AC40" s="61"/>
+      <c r="AD40" s="61"/>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z41" s="60"/>
-      <c r="AA41" s="60"/>
-      <c r="AB41" s="60"/>
-      <c r="AC41" s="60"/>
-      <c r="AD41" s="60"/>
+      <c r="Z41" s="61"/>
+      <c r="AA41" s="61"/>
+      <c r="AB41" s="61"/>
+      <c r="AC41" s="61"/>
+      <c r="AD41" s="61"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="60"/>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="60"/>
-      <c r="AD42" s="60"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="61"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="61"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z43" s="60"/>
-      <c r="AA43" s="60"/>
-      <c r="AB43" s="60"/>
-      <c r="AC43" s="60"/>
-      <c r="AD43" s="60"/>
+      <c r="Z43" s="61"/>
+      <c r="AA43" s="61"/>
+      <c r="AB43" s="61"/>
+      <c r="AC43" s="61"/>
+      <c r="AD43" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="E27:G35"/>
-    <mergeCell ref="Z3:AD5"/>
-    <mergeCell ref="Z38:AD43"/>
+    <mergeCell ref="Z6:AD8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="752" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3F46930B-19E6-4ADF-A9BC-590CA14004B6}"/>
+  <xr:revisionPtr revIDLastSave="754" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8027D5AF-46C6-4705-A147-49DE46AE11C8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="9" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
@@ -1049,6 +1049,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1111,9 +1114,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4273,22 +4273,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>299357</xdr:colOff>
+      <xdr:colOff>235323</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>134710</xdr:colOff>
+      <xdr:colOff>182656</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>155122</xdr:rowOff>
+      <xdr:rowOff>58270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="29" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A42F24E-A3AB-4626-A7DA-46CD9942CDEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE87C852-7CEA-4D17-B530-FE2E28176317}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4311,8 +4311,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4535181" y="326572"/>
-          <a:ext cx="9517235" cy="7639050"/>
+          <a:off x="4471147" y="324970"/>
+          <a:ext cx="9629215" cy="7543800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6785,10 +6785,10 @@
       <c r="C2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="41"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -6800,14 +6800,14 @@
       <c r="C3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -6937,42 +6937,42 @@
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="T35" s="40" t="s">
+      <c r="C35" s="42"/>
+      <c r="T35" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="U35" s="41"/>
+      <c r="U35" s="42"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="44"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="44"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="44"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="50"/>
     </row>
     <row r="39" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="T39" s="44" t="s">
+      <c r="C39" s="46"/>
+      <c r="T39" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="U39" s="45"/>
+      <c r="U39" s="46"/>
     </row>
     <row r="40" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
@@ -7050,7 +7050,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF35" sqref="AF35"/>
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7161,14 +7161,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="51"/>
+      <c r="E1" s="52"/>
       <c r="I1" t="s">
         <v>15</v>
       </c>
@@ -7462,46 +7462,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="Z3" s="54" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="Z3" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" s="25"/>
@@ -7518,37 +7518,37 @@
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="55" t="str">
+      <c r="B11" s="56" t="str">
         <f>HYPERLINK("https://betrue3d.dk/rpi-and-duet-3-why-and-how/?fbclid=IwAR16IzLQhu4W4G6IMp81qFp3ousTRf1AjmVV-9iawk4osm4pF1tQDGAXfwg","-&gt; Duet &amp; Raspberry Pi &lt;-")</f>
         <v>-&gt; Duet &amp; Raspberry Pi &lt;-</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" s="34"/>
@@ -7563,63 +7563,63 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="Z13" s="52" t="s">
+      <c r="Z13" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
     </row>
     <row r="14" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="52"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="25"/>
@@ -7627,11 +7627,11 @@
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
@@ -7639,263 +7639,263 @@
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="53"/>
     </row>
     <row r="20" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="53"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="53"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="53"/>
     </row>
     <row r="26" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="Z26" s="57" t="str">
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="Z26" s="58" t="str">
         <f>HYPERLINK("https://duet3d.dozuki.com/Wiki/Gcode#Section_M911_Configure_auto_save_on_loss_of_power","Read more: -&gt; M911 Gcode &lt;-")</f>
         <v>Read more: -&gt; M911 Gcode &lt;-</v>
       </c>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="57"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
     </row>
     <row r="29" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="Z29" s="59" t="s">
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="Z29" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="60"/>
+      <c r="AB31" s="60"/>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="60"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="60"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="60"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="60"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="60"/>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="60"/>
     </row>
     <row r="37" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="59"/>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="59"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="60"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="60"/>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="60"/>
     </row>
     <row r="40" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="60"/>
+      <c r="AB40" s="60"/>
+      <c r="AC40" s="60"/>
+      <c r="AD40" s="60"/>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="59"/>
-      <c r="AB41" s="59"/>
-      <c r="AC41" s="59"/>
-      <c r="AD41" s="59"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="60"/>
+      <c r="AB41" s="60"/>
+      <c r="AC41" s="60"/>
+      <c r="AD41" s="60"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="Z42" s="59"/>
-      <c r="AA42" s="59"/>
-      <c r="AB42" s="59"/>
-      <c r="AC42" s="59"/>
-      <c r="AD42" s="59"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="60"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7943,27 +7943,27 @@
   </cols>
   <sheetData>
     <row r="6" spans="26:30" x14ac:dyDescent="0.25">
-      <c r="Z6" s="60" t="s">
+      <c r="Z6" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
     </row>
     <row r="7" spans="26:30" x14ac:dyDescent="0.25">
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="60"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
     </row>
     <row r="8" spans="26:30" x14ac:dyDescent="0.25">
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60"/>
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="61"/>
+      <c r="AD8" s="61"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -8005,107 +8005,107 @@
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24"/>
       <c r="C27" s="26"/>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="24"/>
       <c r="C28" s="26"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="24"/>
       <c r="C29" s="26"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="24"/>
       <c r="C30" s="26"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="24"/>
       <c r="C31" s="26"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="24"/>
       <c r="C32" s="26"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" s="24"/>
       <c r="C33" s="26"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
     </row>
     <row r="34" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="39"/>
       <c r="C34" s="29"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z38" s="61"/>
-      <c r="AA38" s="61"/>
-      <c r="AB38" s="61"/>
-      <c r="AC38" s="61"/>
-      <c r="AD38" s="61"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="40"/>
+      <c r="AD38" s="40"/>
     </row>
     <row r="39" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z39" s="61"/>
-      <c r="AA39" s="61"/>
-      <c r="AB39" s="61"/>
-      <c r="AC39" s="61"/>
-      <c r="AD39" s="61"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="40"/>
+      <c r="AD39" s="40"/>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z40" s="61"/>
-      <c r="AA40" s="61"/>
-      <c r="AB40" s="61"/>
-      <c r="AC40" s="61"/>
-      <c r="AD40" s="61"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="40"/>
+      <c r="AB40" s="40"/>
+      <c r="AC40" s="40"/>
+      <c r="AD40" s="40"/>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z41" s="61"/>
-      <c r="AA41" s="61"/>
-      <c r="AB41" s="61"/>
-      <c r="AC41" s="61"/>
-      <c r="AD41" s="61"/>
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="40"/>
+      <c r="AB41" s="40"/>
+      <c r="AC41" s="40"/>
+      <c r="AD41" s="40"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="61"/>
-      <c r="AB42" s="61"/>
-      <c r="AC42" s="61"/>
-      <c r="AD42" s="61"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="40"/>
+      <c r="AD42" s="40"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z43" s="61"/>
-      <c r="AA43" s="61"/>
-      <c r="AB43" s="61"/>
-      <c r="AC43" s="61"/>
-      <c r="AD43" s="61"/>
+      <c r="Z43" s="40"/>
+      <c r="AA43" s="40"/>
+      <c r="AB43" s="40"/>
+      <c r="AC43" s="40"/>
+      <c r="AD43" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="754" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8027D5AF-46C6-4705-A147-49DE46AE11C8}"/>
+  <xr:revisionPtr revIDLastSave="755" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A840CCA5-CB85-4CAF-BBA8-E326C4867E3F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="9" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21760" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="BMG_KRYO" sheetId="4" r:id="rId4"/>
     <sheet name="HEMERA" sheetId="5" r:id="rId5"/>
     <sheet name="HEMERA_TOPMOUNT" sheetId="7" r:id="rId6"/>
-    <sheet name="DATA" sheetId="2" r:id="rId7"/>
-    <sheet name="RRF3_D3P2" sheetId="8" r:id="rId8"/>
-    <sheet name="RRF3_D3P3" sheetId="9" r:id="rId9"/>
-    <sheet name="RRF3_D3P4" sheetId="10" r:id="rId10"/>
+    <sheet name="BMG_MGN9" sheetId="11" r:id="rId7"/>
+    <sheet name="DATA" sheetId="2" r:id="rId8"/>
+    <sheet name="RRF3_D3P2" sheetId="8" r:id="rId9"/>
+    <sheet name="RRF3_D3P3" sheetId="9" r:id="rId10"/>
+    <sheet name="RRF3_D3P4" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>PRINT_HEAD</t>
   </si>
@@ -468,6 +469,9 @@
       </rPr>
       <t>: It is recommended to use I/O port #7 for the Bltouch, but you can also use #4 or #5.</t>
     </r>
+  </si>
+  <si>
+    <t>BMG_MGN9</t>
   </si>
 </sst>
 </file>
@@ -1230,6 +1234,2150 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>182656</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>58270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE87C852-7CEA-4D17-B530-FE2E28176317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4471147" y="324970"/>
+          <a:ext cx="9629215" cy="7543800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7205</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>24012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129669</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>8635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B9FAEC-C2CB-4D44-800C-C20EF004A826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2427676" y="24012"/>
+          <a:ext cx="1937817" cy="3413623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368139</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E19EF9-F18A-4CC4-96B0-6827DA56C280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="201707" y="2274793"/>
+          <a:ext cx="1981785" cy="3462618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Left Brace 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FAB16C-2BF6-4E23-A60A-C4FCCB939BA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7978588" y="2073088"/>
+          <a:ext cx="100853" cy="1053353"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>129669</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>16324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Connector: Elbow 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570D5156-4A47-4BDB-AE95-D24E59F546DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4365493" y="1730824"/>
+          <a:ext cx="3613095" cy="868941"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 95592"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368139</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5602</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connector: Elbow 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE9FBBA-5601-4162-A966-2FC954EE8D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2183492" y="3597088"/>
+          <a:ext cx="5929567" cy="409014"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 95545"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7EB4E9-1355-4627-9A06-61CD6A9497C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8113059" y="3395382"/>
+          <a:ext cx="795617" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF480FB3-FBC7-45C1-9C6E-203FDD6E539C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9054353" y="2050676"/>
+          <a:ext cx="4840941" cy="1770530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle: Rounded Corners 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABB154C-AAD5-4F19-852A-C5627BD15C64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14410765" y="313763"/>
+          <a:ext cx="3115235" cy="4661648"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>All</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> of these values for Jerk (Max.Speed Change) , Sepped and Acceleration are conservative, but quite higher than the proposed values into the RRF tool.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>For the first runs of you printer I propose you use these values and then increase them while testing to see how your build reacts to them.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>All these values are considered as </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Not to Exceed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.  So even if your slicer is asking for a move that would accelerate and travel faster than these values, the Duet will change that request to something that will not exceed your max parameters.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Thanks to the Duet, these can be easily changed </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>while printing </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>by sending GCode commands through the Web Control.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Motor Current: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>As a rule of thumb, if your motors are well ventilated, you should use a value that is not higher than 80% of their recommended Amp Rating.  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connector: Elbow 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C3ED56-B623-4781-83E0-938F09A94552}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13895294" y="2644587"/>
+          <a:ext cx="515471" cy="291354"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48424D47-D947-4CA8-93EC-F17F04E217B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8135471" y="5233147"/>
+          <a:ext cx="784411" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B49E1B-503F-43C9-8B03-7654793038FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9076768" y="5244353"/>
+          <a:ext cx="3899644" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989D1C69-4C60-4E8F-A327-01B60F3BF2DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5244353" y="5233147"/>
+          <a:ext cx="1243853" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168090</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle: Rounded Corners 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C36083D-EF4A-42AE-891B-637DC3C697AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1983443" y="4258234"/>
+          <a:ext cx="2285998" cy="2274796"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>For </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Z,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Using</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Ball screw with a pitch of 4mm / turn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> and using 1.8 degree motors will give us 800 steps per mm at x16 microsteps.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(If you are using 0.9degree motors for Z, this value will then be 1600)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Normally, Steps / mm for XY and Z should'nt require to be adjusted.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>448238</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>134473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle: Rounded Corners 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489EA081-3FBB-4B1E-8BEA-9DA55B88F37D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="448238" y="0"/>
+          <a:ext cx="2061881" cy="1658473"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>For</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> when using 0.9 degree steeper motors, the Hevort will use 160 Steps per mm.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>This is taking into accound the diameter of the Pulleys and the fact that the steps are (micro stepped to X16)  </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>400 * 16 = 6400 steps /rev</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>437031</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle: Rounded Corners 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512C07A1-C77F-4924-949A-EED0F53DCC3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="437031" y="1658470"/>
+          <a:ext cx="2039469" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-&gt; How Microstepping works &lt;-</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>112056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle: Rounded Corners 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E512A2-C6E0-449B-AC18-341AF0AA0EA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="986118" y="6779556"/>
+          <a:ext cx="3193677" cy="1255061"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Motor Directions for </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XY and Z </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>can be left as is for now.  Too many variables will interact with how your printer will behave when powered on for the first time.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>So a good old test and see is probably the best method.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>144558</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>166405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>218890</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>42580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Arrow: Right 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4DE341-5634-4B6E-8C50-6A8289C81ADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13457146" y="7405405"/>
+          <a:ext cx="679450" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Next</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268944</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>168086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>273427</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>53786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Arrow: Right 37">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EFC25A-F86B-4B10-8142-A05C85E44F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4504768" y="7407086"/>
+          <a:ext cx="609600" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Back</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175935</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>14192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10275</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>147542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle: Rounded Corners 38">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD28ECBD-9249-4C09-8BAB-0A885F540ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8647582" y="7824692"/>
+          <a:ext cx="1044575" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Back to Menu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>420221</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Connector: Elbow 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7BE228-5680-4D8B-ACB8-E224EB490F12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="2"/>
+          <a:endCxn id="36" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4137774" y="5678581"/>
+          <a:ext cx="1770528" cy="1686485"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>515472</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>128867</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Connector: Elbow 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C307EB-9122-4406-8C52-C9E0EF80617D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="0"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11668127" y="4602816"/>
+          <a:ext cx="2123514" cy="3406588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5488"/>
+            <a:gd name="adj2" fmla="val 85855"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>515472</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>67233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>481854</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle: Rounded Corners 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59983B92-62C6-4371-A68F-6EDC53DF52A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14433178" y="6353733"/>
+          <a:ext cx="2991970" cy="2028267"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Extruder </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Acceleration, Jerk and Max Speed are quite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> higher </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>in this proposal due to the use of Pressure Advance and assumption of a direct drive Extruder system.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>When printing at high speed, the required pre-load of pressure in the nozzle before a move can be brutal.  We need to make sure the Extruder motor will be able to match that request, if not the print will slow down.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>481855</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle: Rounded Corners 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE72E66-558B-41EE-A8BD-F0C829BFE332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14421971" y="5076264"/>
+          <a:ext cx="3003178" cy="1098178"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Start with the value proposed by the manufacturer of your extruder. EX: </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(Using 1.8 motors)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BMG = 415 step /mm @ x16</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Hemera = 409 steps/mm @ x16</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>230166</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>560291</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Left Brace 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D5B55A-12E6-43EA-9EDF-DBE51DE33862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10514141" y="3577702"/>
+          <a:ext cx="336176" cy="6381301"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 46137"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11203</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rectangle: Rounded Corners 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD83770-BAB3-4C21-9BEA-8C5094777294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9087968" y="5838262"/>
+          <a:ext cx="3653120" cy="717180"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Good as proposed for now. </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>After 30seconds of innactivity motor power will be reduced to 30% in order to maintain position while not moving.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Connector: Elbow 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBE6105-854C-4A9E-8DD5-0F0816DC5896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="0"/>
+          <a:endCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11278721" y="2482103"/>
+          <a:ext cx="392206" cy="5894294"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -172572"/>
+            <a:gd name="adj2" fmla="val 97433"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1518,6 +3666,72 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53FBDB6-F5B9-4DCC-A07E-80AB48D1AD0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7686675" cy="8553450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2554,7 +4768,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2582,8 +4796,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="133350" y="479425"/>
-          <a:ext cx="4305113" cy="3130550"/>
+          <a:off x="133350" y="486896"/>
+          <a:ext cx="4327525" cy="3193489"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5165725" cy="3635018"/>
         </a:xfrm>
@@ -3055,8 +5269,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14747876" y="5605556"/>
-          <a:ext cx="2920812" cy="1685386"/>
+          <a:off x="14882347" y="5713319"/>
+          <a:ext cx="2957604" cy="1715268"/>
           <a:chOff x="16970376" y="6111875"/>
           <a:chExt cx="3136899" cy="1683705"/>
         </a:xfrm>
@@ -4268,2153 +6482,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>235323</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>182656</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>58270</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE87C852-7CEA-4D17-B530-FE2E28176317}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4471147" y="324970"/>
-          <a:ext cx="9629215" cy="7543800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="333333">
-              <a:alpha val="65000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7205</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>24012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>129669</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>8635</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B9FAEC-C2CB-4D44-800C-C20EF004A826}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2427676" y="24012"/>
-          <a:ext cx="1937817" cy="3413623"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="333333">
-              <a:alpha val="65000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>201707</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>179293</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>368139</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E19EF9-F18A-4CC4-96B0-6827DA56C280}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="201707" y="2274793"/>
-          <a:ext cx="1981785" cy="3462618"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="333333">
-              <a:alpha val="65000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Left Brace 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FAB16C-2BF6-4E23-A60A-C4FCCB939BA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7978588" y="2073088"/>
-          <a:ext cx="100853" cy="1053353"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>129669</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>16324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Connector: Elbow 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570D5156-4A47-4BDB-AE95-D24E59F546DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4365493" y="1730824"/>
-          <a:ext cx="3613095" cy="868941"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 95592"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>368139</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>246530</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>5602</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Connector: Elbow 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE9FBBA-5601-4162-A966-2FC954EE8D56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="15" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2183492" y="3597088"/>
-          <a:ext cx="5929567" cy="409014"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 95545"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>246530</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>437029</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7EB4E9-1355-4627-9A06-61CD6A9497C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8113059" y="3395382"/>
-          <a:ext cx="795617" cy="403412"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF480FB3-FBC7-45C1-9C6E-203FDD6E539C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9054353" y="2050676"/>
-          <a:ext cx="4840941" cy="1770530"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123263</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle: Rounded Corners 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABB154C-AAD5-4F19-852A-C5627BD15C64}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14410765" y="313763"/>
-          <a:ext cx="3115235" cy="4661648"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="EEF88C"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>All</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> of these values for Jerk (Max.Speed Change) , Sepped and Acceleration are conservative, but quite higher than the proposed values into the RRF tool.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>For the first runs of you printer I propose you use these values and then increase them while testing to see how your build reacts to them.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>All these values are considered as </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Not to Exceed</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.  So even if your slicer is asking for a move that would accelerate and travel faster than these values, the Duet will change that request to something that will not exceed your max parameters.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Thanks to the Duet, these can be easily changed </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>while printing </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>by sending GCode commands through the Web Control.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Motor Current: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>As a rule of thumb, if your motors are well ventilated, you should use a value that is not higher than 80% of their recommended Amp Rating.  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Connector: Elbow 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C3ED56-B623-4781-83E0-938F09A94552}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="3"/>
-          <a:endCxn id="23" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13895294" y="2644587"/>
-          <a:ext cx="515471" cy="291354"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>268942</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48424D47-D947-4CA8-93EC-F17F04E217B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8135471" y="5233147"/>
-          <a:ext cx="784411" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>3</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rectangle 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B49E1B-503F-43C9-8B03-7654793038FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9076768" y="5244353"/>
-          <a:ext cx="3899644" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>437030</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Rectangle 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989D1C69-4C60-4E8F-A327-01B60F3BF2DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5244353" y="5233147"/>
-          <a:ext cx="1243853" cy="403412"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>168090</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rectangle: Rounded Corners 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C36083D-EF4A-42AE-891B-637DC3C697AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1983443" y="4258234"/>
-          <a:ext cx="2285998" cy="2274796"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="EEF88C"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>For </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Z,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" b="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Using</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Ball screw with a pitch of 4mm / turn</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> and using 1.8 degree motors will give us 800 steps per mm at x16 microsteps.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(If you are using 0.9degree motors for Z, this value will then be 1600)</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Normally, Steps / mm for XY and Z should'nt require to be adjusted.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>448238</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>89648</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>134473</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Rectangle: Rounded Corners 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489EA081-3FBB-4B1E-8BEA-9DA55B88F37D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="448238" y="0"/>
-          <a:ext cx="2061881" cy="1658473"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="EEF88C"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>For</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>XY</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> when using 0.9 degree steeper motors, the Hevort will use 160 Steps per mm.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>This is taking into accound the diameter of the Pulleys and the fact that the steps are (micro stepped to X16)  </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>400 * 16 = 6400 steps /rev</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>437031</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Rectangle: Rounded Corners 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512C07A1-C77F-4924-949A-EED0F53DCC3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="437031" y="1658470"/>
-          <a:ext cx="2039469" cy="280147"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="0070C0"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>-&gt; How Microstepping works &lt;-</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>112056</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>549089</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Rectangle: Rounded Corners 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E512A2-C6E0-449B-AC18-341AF0AA0EA7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="986118" y="6779556"/>
-          <a:ext cx="3193677" cy="1255061"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="EEF88C"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Motor Directions for </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>XY and Z </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>can be left as is for now.  Too many variables will interact with how your printer will behave when powered on for the first time.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>So a good old test and see is probably the best method.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>144558</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>166405</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>218890</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>42580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Arrow: Right 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4DE341-5634-4B6E-8C50-6A8289C81ADF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13457146" y="7405405"/>
-          <a:ext cx="679450" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100"/>
-            <a:t>Next</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>268944</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>168086</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>273427</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>53786</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Arrow: Right 37">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EFC25A-F86B-4B10-8142-A05C85E44F36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4504768" y="7407086"/>
-          <a:ext cx="609600" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100"/>
-            <a:t>Back</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>175935</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>14192</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>10275</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>147542</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Rectangle: Rounded Corners 38">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD28ECBD-9249-4C09-8BAB-0A885F540ED2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8647582" y="7824692"/>
-          <a:ext cx="1044575" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100"/>
-            <a:t>Back to Menu</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>549089</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>112060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>420221</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Connector: Elbow 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7BE228-5680-4D8B-ACB8-E224EB490F12}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="31" idx="2"/>
-          <a:endCxn id="36" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4137774" y="5678581"/>
-          <a:ext cx="1770528" cy="1686485"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>134472</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>515472</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>128867</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Connector: Elbow 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C307EB-9122-4406-8C52-C9E0EF80617D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="0"/>
-          <a:endCxn id="47" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="11668127" y="4602816"/>
-          <a:ext cx="2123514" cy="3406588"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -5488"/>
-            <a:gd name="adj2" fmla="val 85855"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>515472</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>67233</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>481854</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Rectangle: Rounded Corners 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59983B92-62C6-4371-A68F-6EDC53DF52A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14433178" y="6353733"/>
-          <a:ext cx="2991970" cy="2028267"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="EEF88C"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Extruder </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Acceleration, Jerk and Max Speed are quite</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> higher </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>in this proposal due to the use of Pressure Advance and assumption of a direct drive Extruder system.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>When printing at high speed, the required pre-load of pressure in the nozzle before a move can be brutal.  We need to make sure the Extruder motor will be able to match that request, if not the print will slow down.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>481855</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Rectangle: Rounded Corners 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE72E66-558B-41EE-A8BD-F0C829BFE332}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14421971" y="5076264"/>
-          <a:ext cx="3003178" cy="1098178"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="EEF88C"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Start with the value proposed by the manufacturer of your extruder. EX: </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(Using 1.8 motors)</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>BMG = 415 step /mm @ x16</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Hemera = 409 steps/mm @ x16</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>230166</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>560291</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Left Brace 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D5B55A-12E6-43EA-9EDF-DBE51DE33862}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="10514141" y="3577702"/>
-          <a:ext cx="336176" cy="6381301"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8333"/>
-            <a:gd name="adj2" fmla="val 46137"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>11203</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Rectangle: Rounded Corners 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD83770-BAB3-4C21-9BEA-8C5094777294}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9087968" y="5838262"/>
-          <a:ext cx="3653120" cy="717180"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="EEF88C"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Good as proposed for now. </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>After 30seconds of innactivity motor power will be reduced to 30% in order to maintain position while not moving.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="Connector: Elbow 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBE6105-854C-4A9E-8DD5-0F0816DC5896}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="0"/>
-          <a:endCxn id="54" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="11278721" y="2482103"/>
-          <a:ext cx="392206" cy="5894294"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -172572"/>
-            <a:gd name="adj2" fmla="val 97433"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EB589B1-314F-41BA-8AAB-411460155F4C}" name="Table1" displayName="Table1" ref="A2:E8" totalsRowShown="0">
-  <autoFilter ref="A2:E8" xr:uid="{460B98C6-B2BE-440D-A664-33953CE19687}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EB589B1-314F-41BA-8AAB-411460155F4C}" name="Table1" displayName="Table1" ref="A2:E9" totalsRowShown="0">
+  <autoFilter ref="A2:E9" xr:uid="{460B98C6-B2BE-440D-A664-33953CE19687}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0AF2A029-35DD-48E6-A3E3-BDEC183574C1}" name="PrintHead"/>
     <tableColumn id="2" xr3:uid="{469A7C96-970F-4B3B-9AEA-9D4CD1CFEA90}" name="Xstop" dataDxfId="3"/>
@@ -6747,8 +6817,8 @@
   </sheetPr>
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6795,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>24</v>
@@ -6835,11 +6905,11 @@
       </c>
       <c r="I6" s="15">
         <f>B41+(K50/2)</f>
-        <v>155.00400000000002</v>
+        <v>142.9</v>
       </c>
       <c r="J6" s="15">
         <f>C41+S27</f>
-        <v>311.75799999999998</v>
+        <v>314.2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6884,8 +6954,8 @@
     </row>
     <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="33" t="str">
-        <f xml:space="preserve"> "M671 " &amp; "X" &amp; B41 &amp; ":" &amp; I6 &amp; ":" &amp; T41 &amp; " Y" &amp; C41 &amp; ":" &amp; J6 &amp; ":" &amp; U41 &amp; " S10"</f>
-        <v>M671 X-21.205:155.004:331.213 Y-16.452:311.758:-16.452 S10</v>
+        <f xml:space="preserve"> "M671 " &amp; "X" &amp; B41 &amp; ":" &amp; I6 &amp; ":" &amp; T41 &amp; " Y" &amp; C41 &amp; ":" &amp; J6 &amp; ":" &amp; U41 &amp; " S50"</f>
+        <v>M671 X-33.309:142.9:319.109 Y-14.01:314.2:-14.01 S50</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -6914,7 +6984,7 @@
     <row r="17" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="27" t="str">
         <f>"G31 P500 X"&amp;VLOOKUP(B3,Table1[],4,0) &amp; " Y"&amp; VLOOKUP(B3,Table1[],5,0) &amp; " Z[measured via Paper technique]"</f>
-        <v>G31 P500 X27.455 Y9.134 Z[measured via Paper technique]</v>
+        <v>G31 P500 X-23.485 Y0 Z[measured via Paper technique]</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -6991,19 +7061,19 @@
     <row r="41" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="19">
         <f>VLOOKUP(B3,Table1[],2,0)*-1+(13+1.891)-B6</f>
-        <v>-21.204999999999998</v>
+        <v>-33.309000000000005</v>
       </c>
       <c r="C41" s="20">
         <f>VLOOKUP(B3,Table1[],3,0)-31.604-12.509</f>
-        <v>-16.451999999999998</v>
+        <v>-14.009999999999998</v>
       </c>
       <c r="T41" s="19">
         <f>B41+(K50)</f>
-        <v>331.21300000000002</v>
+        <v>319.10899999999998</v>
       </c>
       <c r="U41" s="20">
         <f>C41</f>
-        <v>-16.451999999999998</v>
+        <v>-14.009999999999998</v>
       </c>
     </row>
     <row r="50" spans="11:11" ht="28.5" x14ac:dyDescent="0.45">
@@ -7029,7 +7099,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB97AF40-22B5-4C61-AE05-38E6CD4A1048}">
           <x14:formula1>
-            <xm:f>DATA!$A$3:$A$8</xm:f>
+            <xm:f>DATA!$A$3:$A$9</xm:f>
           </x14:formula1>
           <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
@@ -7046,10 +7116,209 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D9C8A0-2668-4297-8EF3-575600067781}">
+  <dimension ref="B6:AD43"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="25" max="25" width="5" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="26:30" x14ac:dyDescent="0.25">
+      <c r="Z6" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+    </row>
+    <row r="7" spans="26:30" x14ac:dyDescent="0.25">
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+    </row>
+    <row r="8" spans="26:30" x14ac:dyDescent="0.25">
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="61"/>
+      <c r="AD8" s="61"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="24"/>
+      <c r="C26" s="26"/>
+    </row>
+    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="24"/>
+      <c r="C27" s="26"/>
+      <c r="E27" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="24"/>
+      <c r="C28" s="26"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="24"/>
+      <c r="C29" s="26"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="C30" s="26"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="24"/>
+      <c r="C31" s="26"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="24"/>
+      <c r="C32" s="26"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B33" s="24"/>
+      <c r="C33" s="26"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+    </row>
+    <row r="34" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="39"/>
+      <c r="C34" s="29"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="40"/>
+      <c r="AD38" s="40"/>
+    </row>
+    <row r="39" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="40"/>
+      <c r="AD39" s="40"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="40"/>
+      <c r="AB40" s="40"/>
+      <c r="AC40" s="40"/>
+      <c r="AD40" s="40"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="40"/>
+      <c r="AB41" s="40"/>
+      <c r="AC41" s="40"/>
+      <c r="AD41" s="40"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="40"/>
+      <c r="AD42" s="40"/>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="Z43" s="40"/>
+      <c r="AA43" s="40"/>
+      <c r="AB43" s="40"/>
+      <c r="AC43" s="40"/>
+      <c r="AD43" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E27:G35"/>
+    <mergeCell ref="Z6:AD8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <webPublishItems count="1">
+    <webPublishItem id="26907" divId="FirmWareSettings_26907" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\RRF3_D3P3.htm" autoRepublish="1"/>
+  </webPublishItems>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA426F61-967D-469E-A71E-9CE677D0A911}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
@@ -7144,6 +7413,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DA39D9-E7A6-4679-88D8-2EE57D46773E}">
+  <sheetPr>
+    <tabColor rgb="FFEEF88C"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA66DFF9-FA4E-4D72-A033-DA7973A100D2}">
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
@@ -7151,7 +7438,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H3" sqref="H3:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7358,6 +7645,21 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30.103000000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-23.484999999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
       <c r="H9">
         <v>565</v>
       </c>
@@ -7448,7 +7750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65005C96-9609-4A9D-8BFD-DC86570817E4}">
   <dimension ref="B3:AD43"/>
   <sheetViews>
@@ -7920,203 +8222,4 @@
     <webPublishItem id="19311" divId="FirmWareSettings_19311" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\RRF3_D3P2.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D9C8A0-2668-4297-8EF3-575600067781}">
-  <dimension ref="B6:AD43"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" customWidth="1"/>
-    <col min="25" max="25" width="5" customWidth="1"/>
-    <col min="26" max="26" width="6.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="26:30" x14ac:dyDescent="0.25">
-      <c r="Z6" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-    </row>
-    <row r="7" spans="26:30" x14ac:dyDescent="0.25">
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-    </row>
-    <row r="8" spans="26:30" x14ac:dyDescent="0.25">
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="26"/>
-    </row>
-    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
-      <c r="C27" s="26"/>
-      <c r="E27" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="26"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
-      <c r="C30" s="26"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
-      <c r="C31" s="26"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="26"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
-      <c r="C33" s="26"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-    </row>
-    <row r="34" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="39"/>
-      <c r="C34" s="29"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="40"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="40"/>
-    </row>
-    <row r="39" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z39" s="40"/>
-      <c r="AA39" s="40"/>
-      <c r="AB39" s="40"/>
-      <c r="AC39" s="40"/>
-      <c r="AD39" s="40"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z40" s="40"/>
-      <c r="AA40" s="40"/>
-      <c r="AB40" s="40"/>
-      <c r="AC40" s="40"/>
-      <c r="AD40" s="40"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z41" s="40"/>
-      <c r="AA41" s="40"/>
-      <c r="AB41" s="40"/>
-      <c r="AC41" s="40"/>
-      <c r="AD41" s="40"/>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="40"/>
-      <c r="AC42" s="40"/>
-      <c r="AD42" s="40"/>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="Z43" s="40"/>
-      <c r="AA43" s="40"/>
-      <c r="AB43" s="40"/>
-      <c r="AC43" s="40"/>
-      <c r="AD43" s="40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E27:G35"/>
-    <mergeCell ref="Z6:AD8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <webPublishItems count="1">
-    <webPublishItem id="26907" divId="FirmWareSettings_26907" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\RRF3_D3P3.htm" autoRepublish="1"/>
-  </webPublishItems>
-</worksheet>
 </file>
--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="755" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A840CCA5-CB85-4CAF-BBA8-E326C4867E3F}"/>
+  <xr:revisionPtr revIDLastSave="766" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9291570-E027-4A18-A61D-893C9370F33C}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21760" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
@@ -4796,8 +4796,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="133350" y="486896"/>
-          <a:ext cx="4327525" cy="3193489"/>
+          <a:off x="133350" y="479425"/>
+          <a:ext cx="4305113" cy="3130550"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5165725" cy="3635018"/>
         </a:xfrm>
@@ -5269,8 +5269,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14882347" y="5713319"/>
-          <a:ext cx="2957604" cy="1715268"/>
+          <a:off x="14747876" y="5605556"/>
+          <a:ext cx="2920812" cy="1685386"/>
           <a:chOff x="16970376" y="6111875"/>
           <a:chExt cx="3136899" cy="1683705"/>
         </a:xfrm>
@@ -6497,10 +6497,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBDBAD23-474B-4AC5-A011-4D1EC1466E50}" name="Table2" displayName="Table2" ref="H2:J14" totalsRowShown="0">
-  <autoFilter ref="H2:J14" xr:uid="{8764FB30-DFE5-42AF-8A36-D229AA709EFC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:J14">
-    <sortCondition ref="H2:H14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBDBAD23-474B-4AC5-A011-4D1EC1466E50}" name="Table2" displayName="Table2" ref="H2:J15" totalsRowShown="0">
+  <autoFilter ref="H2:J15" xr:uid="{8764FB30-DFE5-42AF-8A36-D229AA709EFC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:J15">
+    <sortCondition ref="H2:H15"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1C84F27E-F9F2-4C03-8F9F-A726A1A6B86A}" name="PrintArea"/>
@@ -6817,8 +6817,8 @@
   </sheetPr>
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7105,7 +7105,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D9FCBA9-6355-4BD1-B57E-30257C3D0E30}">
           <x14:formula1>
-            <xm:f>DATA!$H$3:$H$14</xm:f>
+            <xm:f>DATA!$H$3:$H$15</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
@@ -7435,10 +7435,10 @@
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:J14"/>
+    <sheetView topLeftCell="D1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7503,13 +7503,15 @@
         <v>26.253</v>
       </c>
       <c r="H3">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="I3">
-        <v>352.41800000000001</v>
+        <f>I4+Table2[[#This Row],[PrintArea]]-H4</f>
+        <v>327.41800000000001</v>
       </c>
       <c r="J3">
-        <v>328.21</v>
+        <f>J4+Table2[[#This Row],[PrintArea]]-H4</f>
+        <v>303.21000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -7529,15 +7531,13 @@
         <v>34.686999999999998</v>
       </c>
       <c r="H4">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I14" si="0">H4-H3+I3</f>
-        <v>402.41800000000001</v>
+        <v>352.41800000000001</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J14" si="1">H4-H3+J3</f>
-        <v>378.21</v>
+        <v>328.21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7557,15 +7557,15 @@
         <v>13.055</v>
       </c>
       <c r="H5">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>452.41800000000001</v>
+        <f>H5-H4+I4</f>
+        <v>402.41800000000001</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
-        <v>428.21</v>
+        <f>H5-H4+J4</f>
+        <v>378.21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7585,15 +7585,15 @@
         <v>8.5779999999999994</v>
       </c>
       <c r="H6">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>467.41800000000001</v>
+        <f>H6-H5+I5</f>
+        <v>452.41800000000001</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>443.21</v>
+        <f>H6-H5+J5</f>
+        <v>428.21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -7605,15 +7605,15 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="H7">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>502.41800000000001</v>
+        <f>H7-H6+I6</f>
+        <v>467.41800000000001</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
-        <v>478.21</v>
+        <f>H7-H6+J6</f>
+        <v>443.21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -7633,15 +7633,15 @@
         <v>9.1340000000000003</v>
       </c>
       <c r="H8">
-        <v>515</v>
+        <v>465</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>552.41800000000001</v>
+        <f>H8-H7+I7</f>
+        <v>502.41800000000001</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
-        <v>528.21</v>
+        <f>H8-H7+J7</f>
+        <v>478.21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -7661,79 +7661,92 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>602.41800000000001</v>
+        <f>H9-H8+I8</f>
+        <v>552.41800000000001</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
-        <v>578.21</v>
+        <f>H9-H8+J8</f>
+        <v>528.21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H10">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>652.41800000000001</v>
+        <f>H10-H9+I9</f>
+        <v>602.41800000000001</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>628.21</v>
+        <f>H10-H9+J9</f>
+        <v>578.21</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H11">
-        <v>665</v>
+        <v>615</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>702.41800000000001</v>
+        <f>H11-H10+I10</f>
+        <v>652.41800000000001</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>678.21</v>
+        <f>H11-H10+J10</f>
+        <v>628.21</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H12">
-        <v>715</v>
+        <v>665</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>752.41800000000001</v>
+        <f>H12-H11+I11</f>
+        <v>702.41800000000001</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>728.21</v>
+        <f>H12-H11+J11</f>
+        <v>678.21</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13">
-        <v>765</v>
+        <v>715</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>802.41800000000001</v>
+        <f>H13-H12+I12</f>
+        <v>752.41800000000001</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
-        <v>778.21</v>
+        <f>H13-H12+J12</f>
+        <v>728.21</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H14">
+        <v>765</v>
+      </c>
+      <c r="I14">
+        <f>H14-H13+I13</f>
+        <v>802.41800000000001</v>
+      </c>
+      <c r="J14">
+        <f>H14-H13+J13</f>
+        <v>778.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15">
         <v>815</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
+      <c r="I15">
+        <f>H15-H14+I14</f>
         <v>852.41800000000001</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
+      <c r="J15">
+        <f>H15-H14+J14</f>
         <v>828.21</v>
       </c>
     </row>

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="766" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9291570-E027-4A18-A61D-893C9370F33C}"/>
+  <xr:revisionPtr revIDLastSave="780" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{587A9B2B-C992-4777-BBFB-AE891C7962D9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="16530" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>PRINT_HEAD</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>BMG_MGN9</t>
+  </si>
+  <si>
+    <t>Hemera (Marcio)</t>
   </si>
 </sst>
 </file>
@@ -4796,8 +4799,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="133350" y="479425"/>
-          <a:ext cx="4305113" cy="3130550"/>
+          <a:off x="133350" y="471954"/>
+          <a:ext cx="4461996" cy="3070786"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5165725" cy="3635018"/>
         </a:xfrm>
@@ -5269,8 +5272,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14747876" y="5605556"/>
-          <a:ext cx="2920812" cy="1685386"/>
+          <a:off x="15046700" y="5500968"/>
+          <a:ext cx="2976841" cy="1648033"/>
           <a:chOff x="16970376" y="6111875"/>
           <a:chExt cx="3136899" cy="1683705"/>
         </a:xfrm>
@@ -6483,8 +6486,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EB589B1-314F-41BA-8AAB-411460155F4C}" name="Table1" displayName="Table1" ref="A2:E9" totalsRowShown="0">
-  <autoFilter ref="A2:E9" xr:uid="{460B98C6-B2BE-440D-A664-33953CE19687}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EB589B1-314F-41BA-8AAB-411460155F4C}" name="Table1" displayName="Table1" ref="A2:E11" totalsRowShown="0">
+  <autoFilter ref="A2:E11" xr:uid="{460B98C6-B2BE-440D-A664-33953CE19687}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0AF2A029-35DD-48E6-A3E3-BDEC183574C1}" name="PrintHead"/>
     <tableColumn id="2" xr3:uid="{469A7C96-970F-4B3B-9AEA-9D4CD1CFEA90}" name="Xstop" dataDxfId="3"/>
@@ -6818,26 +6821,26 @@
   <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="9" max="10" width="21.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.85546875" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="9" max="10" width="21.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" customWidth="1"/>
+    <col min="13" max="13" width="16.453125" customWidth="1"/>
+    <col min="19" max="19" width="13.81640625" customWidth="1"/>
+    <col min="20" max="20" width="20.1796875" customWidth="1"/>
+    <col min="21" max="21" width="14.81640625" customWidth="1"/>
+    <col min="22" max="22" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
@@ -6845,7 +6848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -6860,12 +6863,12 @@
       </c>
       <c r="J2" s="42"/>
     </row>
-    <row r="3" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>24</v>
@@ -6873,13 +6876,13 @@
       <c r="I3" s="43"/>
       <c r="J3" s="44"/>
     </row>
-    <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I4" s="47" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="48"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -6893,7 +6896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11" t="s">
         <v>22</v>
       </c>
@@ -6905,14 +6908,14 @@
       </c>
       <c r="I6" s="15">
         <f>B41+(K50/2)</f>
-        <v>142.9</v>
+        <v>158.1</v>
       </c>
       <c r="J6" s="15">
         <f>C41+S27</f>
-        <v>314.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>317.79699999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
@@ -6923,8 +6926,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:10" ht="31" x14ac:dyDescent="0.7">
       <c r="A11" s="21" t="s">
         <v>37</v>
       </c>
@@ -6934,7 +6937,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="24"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -6942,7 +6945,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="26"/>
     </row>
-    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.5">
       <c r="A13" s="31" t="s">
         <v>32</v>
       </c>
@@ -6952,10 +6955,10 @@
       <c r="E13" s="25"/>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A14" s="33" t="str">
         <f xml:space="preserve"> "M671 " &amp; "X" &amp; B41 &amp; ":" &amp; I6 &amp; ":" &amp; T41 &amp; " Y" &amp; C41 &amp; ":" &amp; J6 &amp; ":" &amp; U41 &amp; " S50"</f>
-        <v>M671 X-33.309:142.9:319.109 Y-14.01:314.2:-14.01 S50</v>
+        <v>M671 X-18.109:158.1:334.309 Y-10.413:317.797:-10.413 S50</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -6963,7 +6966,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -6971,7 +6974,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="26"/>
     </row>
-    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.5">
       <c r="A16" s="31" t="s">
         <v>36</v>
       </c>
@@ -6981,10 +6984,10 @@
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
     </row>
-    <row r="17" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A17" s="27" t="str">
         <f>"G31 P500 X"&amp;VLOOKUP(B3,Table1[],4,0) &amp; " Y"&amp; VLOOKUP(B3,Table1[],5,0) &amp; " Z[measured via Paper technique]"</f>
-        <v>G31 P500 X-23.485 Y0 Z[measured via Paper technique]</v>
+        <v>G31 P500 X0 Y46 Z[measured via Paper technique]</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -6992,7 +6995,7 @@
       <c r="E17" s="28"/>
       <c r="F17" s="29"/>
     </row>
-    <row r="27" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" ht="28.5" x14ac:dyDescent="0.65">
       <c r="D27" t="s">
         <v>18</v>
       </c>
@@ -7001,12 +7004,12 @@
         <v>328.21</v>
       </c>
     </row>
-    <row r="34" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B35" s="41" t="s">
         <v>30</v>
       </c>
@@ -7016,25 +7019,25 @@
       </c>
       <c r="U35" s="42"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B36" s="43"/>
       <c r="C36" s="44"/>
       <c r="T36" s="43"/>
       <c r="U36" s="44"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B37" s="43"/>
       <c r="C37" s="44"/>
       <c r="T37" s="43"/>
       <c r="U37" s="44"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
       <c r="T38" s="49"/>
       <c r="U38" s="50"/>
     </row>
-    <row r="39" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B39" s="45" t="s">
         <v>27</v>
       </c>
@@ -7044,7 +7047,7 @@
       </c>
       <c r="U39" s="46"/>
     </row>
-    <row r="40" spans="2:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B40" s="17" t="s">
         <v>5</v>
       </c>
@@ -7058,25 +7061,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="19">
         <f>VLOOKUP(B3,Table1[],2,0)*-1+(13+1.891)-B6</f>
-        <v>-33.309000000000005</v>
+        <v>-18.109000000000002</v>
       </c>
       <c r="C41" s="20">
         <f>VLOOKUP(B3,Table1[],3,0)-31.604-12.509</f>
-        <v>-14.009999999999998</v>
+        <v>-10.412999999999997</v>
       </c>
       <c r="T41" s="19">
         <f>B41+(K50)</f>
-        <v>319.10899999999998</v>
+        <v>334.30900000000003</v>
       </c>
       <c r="U41" s="20">
         <f>C41</f>
-        <v>-14.009999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="11:11" ht="28.5" x14ac:dyDescent="0.45">
+        <v>-10.412999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11" ht="28.5" x14ac:dyDescent="0.65">
       <c r="K50" s="16">
         <f>VLOOKUP(B2,DATA!H:J,2,0)</f>
         <v>352.41800000000001</v>
@@ -7099,7 +7102,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB97AF40-22B5-4C61-AE05-38E6CD4A1048}">
           <x14:formula1>
-            <xm:f>DATA!$A$3:$A$9</xm:f>
+            <xm:f>DATA!$A$3:$A$10</xm:f>
           </x14:formula1>
           <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
@@ -7123,19 +7126,19 @@
       <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="1.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="8" max="8" width="4.26953125" customWidth="1"/>
     <col min="25" max="25" width="5" customWidth="1"/>
-    <col min="26" max="26" width="6.28515625" customWidth="1"/>
+    <col min="26" max="26" width="6.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z6" s="61" t="s">
         <v>58</v>
       </c>
@@ -7144,22 +7147,22 @@
       <c r="AC6" s="61"/>
       <c r="AD6" s="61"/>
     </row>
-    <row r="7" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z7" s="61"/>
       <c r="AA7" s="61"/>
       <c r="AB7" s="61"/>
       <c r="AC7" s="61"/>
       <c r="AD7" s="61"/>
     </row>
-    <row r="8" spans="26:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z8" s="61"/>
       <c r="AA8" s="61"/>
       <c r="AB8" s="61"/>
       <c r="AC8" s="61"/>
       <c r="AD8" s="61"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="35" t="s">
         <v>56</v>
       </c>
@@ -7167,7 +7170,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="37" t="s">
         <v>50</v>
       </c>
@@ -7175,7 +7178,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="37" t="s">
         <v>51</v>
       </c>
@@ -7183,7 +7186,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="37" t="s">
         <v>52</v>
       </c>
@@ -7191,11 +7194,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="24"/>
       <c r="C26" s="26"/>
     </row>
-    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="24"/>
       <c r="C27" s="26"/>
       <c r="E27" s="53" t="s">
@@ -7204,96 +7207,96 @@
       <c r="F27" s="53"/>
       <c r="G27" s="53"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="24"/>
       <c r="C28" s="26"/>
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
       <c r="G28" s="53"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="24"/>
       <c r="C29" s="26"/>
       <c r="E29" s="53"/>
       <c r="F29" s="53"/>
       <c r="G29" s="53"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="24"/>
       <c r="C30" s="26"/>
       <c r="E30" s="53"/>
       <c r="F30" s="53"/>
       <c r="G30" s="53"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="24"/>
       <c r="C31" s="26"/>
       <c r="E31" s="53"/>
       <c r="F31" s="53"/>
       <c r="G31" s="53"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="24"/>
       <c r="C32" s="26"/>
       <c r="E32" s="53"/>
       <c r="F32" s="53"/>
       <c r="G32" s="53"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B33" s="24"/>
       <c r="C33" s="26"/>
       <c r="E33" s="53"/>
       <c r="F33" s="53"/>
       <c r="G33" s="53"/>
     </row>
-    <row r="34" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="39"/>
       <c r="C34" s="29"/>
       <c r="E34" s="53"/>
       <c r="F34" s="53"/>
       <c r="G34" s="53"/>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.35">
       <c r="E35" s="53"/>
       <c r="F35" s="53"/>
       <c r="G35" s="53"/>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.35">
       <c r="Z38" s="40"/>
       <c r="AA38" s="40"/>
       <c r="AB38" s="40"/>
       <c r="AC38" s="40"/>
       <c r="AD38" s="40"/>
     </row>
-    <row r="39" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Z39" s="40"/>
       <c r="AA39" s="40"/>
       <c r="AB39" s="40"/>
       <c r="AC39" s="40"/>
       <c r="AD39" s="40"/>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.35">
       <c r="Z40" s="40"/>
       <c r="AA40" s="40"/>
       <c r="AB40" s="40"/>
       <c r="AC40" s="40"/>
       <c r="AD40" s="40"/>
     </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.35">
       <c r="Z41" s="40"/>
       <c r="AA41" s="40"/>
       <c r="AB41" s="40"/>
       <c r="AC41" s="40"/>
       <c r="AD41" s="40"/>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.35">
       <c r="Z42" s="40"/>
       <c r="AA42" s="40"/>
       <c r="AB42" s="40"/>
       <c r="AC42" s="40"/>
       <c r="AD42" s="40"/>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.35">
       <c r="Z43" s="40"/>
       <c r="AA43" s="40"/>
       <c r="AB43" s="40"/>
@@ -7322,7 +7325,7 @@
       <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7341,7 +7344,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7357,7 +7360,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7373,7 +7376,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7389,7 +7392,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7405,7 +7408,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7423,7 +7426,7 @@
       <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7437,17 +7440,17 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="5" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="2" max="5" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="51" t="s">
         <v>8</v>
       </c>
@@ -7460,7 +7463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -7486,7 +7489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7514,7 +7517,7 @@
         <v>303.21000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7540,7 +7543,7 @@
         <v>328.21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -7560,15 +7563,15 @@
         <v>365</v>
       </c>
       <c r="I5">
-        <f>H5-H4+I4</f>
+        <f t="shared" ref="I5:I15" si="0">H5-H4+I4</f>
         <v>402.41800000000001</v>
       </c>
       <c r="J5">
-        <f>H5-H4+J4</f>
+        <f t="shared" ref="J5:J15" si="1">H5-H4+J4</f>
         <v>378.21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -7588,15 +7591,15 @@
         <v>415</v>
       </c>
       <c r="I6">
-        <f>H6-H5+I5</f>
+        <f t="shared" si="0"/>
         <v>452.41800000000001</v>
       </c>
       <c r="J6">
-        <f>H6-H5+J5</f>
+        <f t="shared" si="1"/>
         <v>428.21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -7608,15 +7611,15 @@
         <v>430</v>
       </c>
       <c r="I7">
-        <f>H7-H6+I6</f>
+        <f t="shared" si="0"/>
         <v>467.41800000000001</v>
       </c>
       <c r="J7">
-        <f>H7-H6+J6</f>
+        <f t="shared" si="1"/>
         <v>443.21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -7636,15 +7639,15 @@
         <v>465</v>
       </c>
       <c r="I8">
-        <f>H8-H7+I7</f>
+        <f t="shared" si="0"/>
         <v>502.41800000000001</v>
       </c>
       <c r="J8">
-        <f>H8-H7+J7</f>
+        <f t="shared" si="1"/>
         <v>478.21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -7664,89 +7667,108 @@
         <v>515</v>
       </c>
       <c r="I9">
-        <f>H9-H8+I8</f>
+        <f t="shared" si="0"/>
         <v>552.41800000000001</v>
       </c>
       <c r="J9">
-        <f>H9-H8+J8</f>
+        <f t="shared" si="1"/>
         <v>528.21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>46</v>
+      </c>
       <c r="H10">
         <v>565</v>
       </c>
       <c r="I10">
-        <f>H10-H9+I9</f>
+        <f t="shared" si="0"/>
         <v>602.41800000000001</v>
       </c>
       <c r="J10">
-        <f>H10-H9+J9</f>
+        <f t="shared" si="1"/>
         <v>578.21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="H11">
         <v>615</v>
       </c>
       <c r="I11">
-        <f>H11-H10+I10</f>
+        <f t="shared" si="0"/>
         <v>652.41800000000001</v>
       </c>
       <c r="J11">
-        <f>H11-H10+J10</f>
+        <f t="shared" si="1"/>
         <v>628.21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H12">
         <v>665</v>
       </c>
       <c r="I12">
-        <f>H12-H11+I11</f>
+        <f t="shared" si="0"/>
         <v>702.41800000000001</v>
       </c>
       <c r="J12">
-        <f>H12-H11+J11</f>
+        <f t="shared" si="1"/>
         <v>678.21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H13">
         <v>715</v>
       </c>
       <c r="I13">
-        <f>H13-H12+I12</f>
+        <f t="shared" si="0"/>
         <v>752.41800000000001</v>
       </c>
       <c r="J13">
-        <f>H13-H12+J12</f>
+        <f t="shared" si="1"/>
         <v>728.21</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H14">
         <v>765</v>
       </c>
       <c r="I14">
-        <f>H14-H13+I13</f>
+        <f t="shared" si="0"/>
         <v>802.41800000000001</v>
       </c>
       <c r="J14">
-        <f>H14-H13+J13</f>
+        <f t="shared" si="1"/>
         <v>778.21</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H15">
         <v>815</v>
       </c>
       <c r="I15">
-        <f>H15-H14+I14</f>
+        <f t="shared" si="0"/>
         <v>852.41800000000001</v>
       </c>
       <c r="J15">
-        <f>H15-H14+J14</f>
+        <f t="shared" si="1"/>
         <v>828.21</v>
       </c>
     </row>
@@ -7771,12 +7793,12 @@
       <selection activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="55" t="s">
         <v>38</v>
       </c>
@@ -7792,7 +7814,7 @@
       <c r="AC3" s="55"/>
       <c r="AD3" s="55"/>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -7804,7 +7826,7 @@
       <c r="AC4" s="55"/>
       <c r="AD4" s="55"/>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B5" s="59" t="s">
         <v>42</v>
       </c>
@@ -7818,21 +7840,21 @@
       <c r="AC5" s="55"/>
       <c r="AD5" s="55"/>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="55" t="s">
         <v>39</v>
       </c>
@@ -7841,21 +7863,21 @@
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
       <c r="F9" s="55"/>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
     </row>
-    <row r="11" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="56" t="str">
         <f>HYPERLINK("https://betrue3d.dk/rpi-and-duet-3-why-and-how/?fbclid=IwAR16IzLQhu4W4G6IMp81qFp3ousTRf1AjmVV-9iawk4osm4pF1tQDGAXfwg","-&gt; Duet &amp; Raspberry Pi &lt;-")</f>
         <v>-&gt; Duet &amp; Raspberry Pi &lt;-</v>
@@ -7865,14 +7887,14 @@
       <c r="E11" s="57"/>
       <c r="F11" s="57"/>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
@@ -7886,7 +7908,7 @@
       <c r="AC13" s="53"/>
       <c r="AD13" s="53"/>
     </row>
-    <row r="14" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="55" t="s">
         <v>43</v>
       </c>
@@ -7900,7 +7922,7 @@
       <c r="AC14" s="53"/>
       <c r="AD14" s="53"/>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
@@ -7912,7 +7934,7 @@
       <c r="AC15" s="53"/>
       <c r="AD15" s="53"/>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
@@ -7924,7 +7946,7 @@
       <c r="AC16" s="53"/>
       <c r="AD16" s="53"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
@@ -7936,7 +7958,7 @@
       <c r="AC17" s="53"/>
       <c r="AD17" s="53"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -7948,7 +7970,7 @@
       <c r="AC18" s="53"/>
       <c r="AD18" s="53"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -7960,7 +7982,7 @@
       <c r="AC19" s="53"/>
       <c r="AD19" s="53"/>
     </row>
-    <row r="20" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="55" t="s">
         <v>45</v>
       </c>
@@ -7974,7 +7996,7 @@
       <c r="AC20" s="53"/>
       <c r="AD20" s="53"/>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B21" s="55"/>
       <c r="C21" s="55"/>
       <c r="D21" s="55"/>
@@ -7986,7 +8008,7 @@
       <c r="AC21" s="53"/>
       <c r="AD21" s="53"/>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B22" s="55"/>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
@@ -7998,7 +8020,7 @@
       <c r="AC22" s="53"/>
       <c r="AD22" s="53"/>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -8010,7 +8032,7 @@
       <c r="AC23" s="53"/>
       <c r="AD23" s="53"/>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -8022,7 +8044,7 @@
       <c r="AC24" s="53"/>
       <c r="AD24" s="53"/>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
       <c r="D25" s="55"/>
@@ -8034,7 +8056,7 @@
       <c r="AC25" s="53"/>
       <c r="AD25" s="53"/>
     </row>
-    <row r="26" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:30" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="55"/>
       <c r="C26" s="55"/>
       <c r="D26" s="55"/>
@@ -8049,7 +8071,7 @@
       <c r="AC26" s="58"/>
       <c r="AD26" s="58"/>
     </row>
-    <row r="29" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="54" t="s">
         <v>44</v>
       </c>
@@ -8065,7 +8087,7 @@
       <c r="AC29" s="60"/>
       <c r="AD29" s="60"/>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
       <c r="D30" s="54"/>
@@ -8077,7 +8099,7 @@
       <c r="AC30" s="60"/>
       <c r="AD30" s="60"/>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
       <c r="D31" s="54"/>
@@ -8089,21 +8111,21 @@
       <c r="AC31" s="60"/>
       <c r="AD31" s="60"/>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
       <c r="Z32" s="60"/>
       <c r="AA32" s="60"/>
       <c r="AB32" s="60"/>
       <c r="AC32" s="60"/>
       <c r="AD32" s="60"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.35">
       <c r="Z33" s="60"/>
       <c r="AA33" s="60"/>
       <c r="AB33" s="60"/>
       <c r="AC33" s="60"/>
       <c r="AD33" s="60"/>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B34" s="53" t="s">
         <v>47</v>
       </c>
@@ -8117,7 +8139,7 @@
       <c r="AC34" s="60"/>
       <c r="AD34" s="60"/>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
@@ -8129,7 +8151,7 @@
       <c r="AC35" s="60"/>
       <c r="AD35" s="60"/>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
       <c r="D36" s="53"/>
@@ -8141,7 +8163,7 @@
       <c r="AC36" s="60"/>
       <c r="AD36" s="60"/>
     </row>
-    <row r="37" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
@@ -8153,21 +8175,21 @@
       <c r="AC37" s="60"/>
       <c r="AD37" s="60"/>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.35">
       <c r="Z38" s="60"/>
       <c r="AA38" s="60"/>
       <c r="AB38" s="60"/>
       <c r="AC38" s="60"/>
       <c r="AD38" s="60"/>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.35">
       <c r="Z39" s="60"/>
       <c r="AA39" s="60"/>
       <c r="AB39" s="60"/>
       <c r="AC39" s="60"/>
       <c r="AD39" s="60"/>
     </row>
-    <row r="40" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="53" t="s">
         <v>48</v>
       </c>
@@ -8181,7 +8203,7 @@
       <c r="AC40" s="60"/>
       <c r="AD40" s="60"/>
     </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B41" s="53"/>
       <c r="C41" s="53"/>
       <c r="D41" s="53"/>
@@ -8193,7 +8215,7 @@
       <c r="AC41" s="60"/>
       <c r="AD41" s="60"/>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B42" s="53"/>
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
@@ -8205,7 +8227,7 @@
       <c r="AC42" s="60"/>
       <c r="AD42" s="60"/>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B43" s="53"/>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="780" documentId="8_{705E4496-6571-4B1D-B5FD-63195F664ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{587A9B2B-C992-4777-BBFB-AE891C7962D9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E6A474-53C0-445C-B2B2-241EBCFC286F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="16530" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21760" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>PRINT_HEAD</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>Z-Probe Offset</t>
-  </si>
-  <si>
-    <t>Results to be inserted in config.g</t>
   </si>
   <si>
     <t>Choose your Duet Control Board. 
@@ -475,6 +472,12 @@
   </si>
   <si>
     <t>Hemera (Marcio)</t>
+  </si>
+  <si>
+    <t>Results to be inserted in config.g (Duet/)</t>
+  </si>
+  <si>
+    <t>Results to be inserted in config.g (Duet/RRF)</t>
   </si>
 </sst>
 </file>
@@ -6500,10 +6503,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBDBAD23-474B-4AC5-A011-4D1EC1466E50}" name="Table2" displayName="Table2" ref="H2:J15" totalsRowShown="0">
-  <autoFilter ref="H2:J15" xr:uid="{8764FB30-DFE5-42AF-8A36-D229AA709EFC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:J15">
-    <sortCondition ref="H2:H15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBDBAD23-474B-4AC5-A011-4D1EC1466E50}" name="Table2" displayName="Table2" ref="H2:J16" totalsRowShown="0">
+  <autoFilter ref="H2:J16" xr:uid="{8764FB30-DFE5-42AF-8A36-D229AA709EFC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:J16">
+    <sortCondition ref="H2:H16"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1C84F27E-F9F2-4C03-8F9F-A726A1A6B86A}" name="PrintArea"/>
@@ -6820,8 +6823,8 @@
   </sheetPr>
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6853,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>24</v>
@@ -6868,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>24</v>
@@ -6908,11 +6911,11 @@
       </c>
       <c r="I6" s="15">
         <f>B41+(K50/2)</f>
-        <v>158.1</v>
+        <v>163.1</v>
       </c>
       <c r="J6" s="15">
         <f>C41+S27</f>
-        <v>317.79699999999997</v>
+        <v>327.79699999999997</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -6926,10 +6929,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="11" spans="1:10" ht="31" x14ac:dyDescent="0.7">
       <c r="A11" s="21" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -6958,7 +6965,7 @@
     <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A14" s="33" t="str">
         <f xml:space="preserve"> "M671 " &amp; "X" &amp; B41 &amp; ":" &amp; I6 &amp; ":" &amp; T41 &amp; " Y" &amp; C41 &amp; ":" &amp; J6 &amp; ":" &amp; U41 &amp; " S50"</f>
-        <v>M671 X-18.109:158.1:334.309 Y-10.413:317.797:-10.413 S50</v>
+        <v>M671 X-18.109:163.1:344.309 Y-10.413:327.797:-10.413 S50</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -7001,7 +7008,7 @@
       </c>
       <c r="S27" s="16">
         <f>VLOOKUP(B2,DATA!H:J,3,0)</f>
-        <v>328.21</v>
+        <v>338.21</v>
       </c>
     </row>
     <row r="34" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7072,7 +7079,7 @@
       </c>
       <c r="T41" s="19">
         <f>B41+(K50)</f>
-        <v>334.30900000000003</v>
+        <v>344.30900000000003</v>
       </c>
       <c r="U41" s="20">
         <f>C41</f>
@@ -7082,7 +7089,7 @@
     <row r="50" spans="11:11" ht="28.5" x14ac:dyDescent="0.65">
       <c r="K50" s="16">
         <f>VLOOKUP(B2,DATA!H:J,2,0)</f>
-        <v>352.41800000000001</v>
+        <v>362.41800000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7108,7 +7115,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D9FCBA9-6355-4BD1-B57E-30257C3D0E30}">
           <x14:formula1>
-            <xm:f>DATA!$H$3:$H$15</xm:f>
+            <xm:f>DATA!$H$3:$H$16</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
@@ -7140,7 +7147,7 @@
   <sheetData>
     <row r="6" spans="26:30" x14ac:dyDescent="0.35">
       <c r="Z6" s="61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA6" s="61"/>
       <c r="AB6" s="61"/>
@@ -7164,34 +7171,34 @@
     <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.35">
@@ -7202,7 +7209,7 @@
       <c r="B27" s="24"/>
       <c r="C27" s="26"/>
       <c r="E27" s="53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="53"/>
       <c r="G27" s="53"/>
@@ -7438,10 +7445,10 @@
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7560,15 +7567,15 @@
         <v>13.055</v>
       </c>
       <c r="H5">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I15" si="0">H5-H4+I4</f>
-        <v>402.41800000000001</v>
+        <f>H5-H4+I4</f>
+        <v>362.41800000000001</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J15" si="1">H5-H4+J4</f>
-        <v>378.21</v>
+        <f>H5-H4+J4</f>
+        <v>338.21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -7588,15 +7595,15 @@
         <v>8.5779999999999994</v>
       </c>
       <c r="H6">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>452.41800000000001</v>
+        <f>H6-H4+I4</f>
+        <v>402.41800000000001</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>428.21</v>
+        <f>H6-H4+J4</f>
+        <v>378.21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -7608,15 +7615,15 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="H7">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>467.41800000000001</v>
+        <f t="shared" ref="I7:I16" si="0">H7-H6+I6</f>
+        <v>452.41800000000001</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
-        <v>443.21</v>
+        <f t="shared" ref="J7:J16" si="1">H7-H6+J6</f>
+        <v>428.21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -7636,20 +7643,20 @@
         <v>9.1340000000000003</v>
       </c>
       <c r="H8">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>502.41800000000001</v>
+        <v>467.41800000000001</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>478.21</v>
+        <v>443.21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2">
         <v>35.200000000000003</v>
@@ -7664,20 +7671,20 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>515</v>
+        <v>465</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>552.41800000000001</v>
+        <v>502.41800000000001</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>528.21</v>
+        <v>478.21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2">
         <v>20</v>
@@ -7692,15 +7699,15 @@
         <v>46</v>
       </c>
       <c r="H10">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>602.41800000000001</v>
+        <v>552.41800000000001</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>578.21</v>
+        <v>528.21</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -7709,65 +7716,78 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="H11">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>652.41800000000001</v>
+        <v>602.41800000000001</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>628.21</v>
+        <v>578.21</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H12">
-        <v>665</v>
+        <v>615</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>702.41800000000001</v>
+        <v>652.41800000000001</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>678.21</v>
+        <v>628.21</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H13">
-        <v>715</v>
+        <v>665</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>752.41800000000001</v>
+        <v>702.41800000000001</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>728.21</v>
+        <v>678.21</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H14">
-        <v>765</v>
+        <v>715</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>802.41800000000001</v>
+        <v>752.41800000000001</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>778.21</v>
+        <v>728.21</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H15">
-        <v>815</v>
+        <v>765</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
+        <v>802.41800000000001</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>778.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>815</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
         <v>852.41800000000001</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <f t="shared" si="1"/>
         <v>828.21</v>
       </c>
@@ -7800,14 +7820,14 @@
   <sheetData>
     <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
       <c r="E3" s="55"/>
       <c r="F3" s="55"/>
       <c r="Z3" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA3" s="55"/>
       <c r="AB3" s="55"/>
@@ -7828,7 +7848,7 @@
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B5" s="59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
@@ -7856,7 +7876,7 @@
     </row>
     <row r="8" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="55"/>
@@ -7901,7 +7921,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="Z13" s="53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA13" s="53"/>
       <c r="AB13" s="53"/>
@@ -7910,7 +7930,7 @@
     </row>
     <row r="14" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -7984,7 +8004,7 @@
     </row>
     <row r="20" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="55"/>
@@ -8073,14 +8093,14 @@
     </row>
     <row r="29" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
       <c r="Z29" s="60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA29" s="60"/>
       <c r="AB29" s="60"/>
@@ -8127,7 +8147,7 @@
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B34" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
@@ -8191,7 +8211,7 @@
     </row>
     <row r="40" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0174A839-2023-4943-BA64-6E420B2FF5EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68B6714-F2ED-4709-AC29-15A62BF7BF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
@@ -1149,6 +1149,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1211,23 +1228,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6673,10 +6673,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBDBAD23-474B-4AC5-A011-4D1EC1466E50}" name="Table2" displayName="Table2" ref="H2:J16" totalsRowShown="0">
-  <autoFilter ref="H2:J16" xr:uid="{8764FB30-DFE5-42AF-8A36-D229AA709EFC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:J16">
-    <sortCondition ref="H2:H16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBDBAD23-474B-4AC5-A011-4D1EC1466E50}" name="Table2" displayName="Table2" ref="H2:J17" totalsRowShown="0">
+  <autoFilter ref="H2:J17" xr:uid="{8764FB30-DFE5-42AF-8A36-D229AA709EFC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:J17">
+    <sortCondition ref="H2:H17"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1C84F27E-F9F2-4C03-8F9F-A726A1A6B86A}" name="PrintArea"/>
@@ -6993,8 +6993,8 @@
   </sheetPr>
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7026,15 +7026,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>315</v>
+        <v>500</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="39"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
@@ -7046,14 +7046,14 @@
       <c r="C3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="45"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
@@ -7081,11 +7081,11 @@
       </c>
       <c r="I6" s="15">
         <f>B41+(K50/2)</f>
-        <v>138.02100000000002</v>
+        <v>230.52100000000002</v>
       </c>
       <c r="J6" s="15">
         <f>C41+S27</f>
-        <v>307.49299999999999</v>
+        <v>492.49300000000005</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -7105,7 +7105,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="26" x14ac:dyDescent="0.6">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="39" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="21"/>
@@ -7133,9 +7133,9 @@
       <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A14" s="61" t="str">
+      <c r="A14" s="40" t="str">
         <f xml:space="preserve"> "M671 " &amp; "X" &amp; B41 &amp; ":" &amp; I6 &amp; ":" &amp; T41 &amp; " Y" &amp; C41 &amp; ":" &amp; J6 &amp; ":" &amp; U41 &amp; " S50"</f>
-        <v>M671 X-38.188:138.021:314.23 Y-20.717:307.493:-20.717 S50</v>
+        <v>M671 X-38.188:230.521:499.23 Y-20.717:492.493:-20.717 S50</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -7162,7 +7162,7 @@
       <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="62" t="str">
+      <c r="A17" s="41" t="str">
         <f>"G31 P500 X"&amp;VLOOKUP(B3,Table1[],4,0) &amp; " Y"&amp; VLOOKUP(B3,Table1[],5,0) &amp; " Z[measured via Paper technique]"</f>
         <v>G31 P500 X22.775 Y5.21 Z[measured via Paper technique]</v>
       </c>
@@ -7174,43 +7174,43 @@
     </row>
     <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="63"/>
+      <c r="B20" s="42"/>
     </row>
     <row r="21" spans="1:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="65"/>
+      <c r="B21" s="44"/>
     </row>
     <row r="22" spans="1:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="65"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="A23" s="68" t="str">
+      <c r="A23" s="47" t="str">
         <f>B41&amp;","&amp;C41</f>
         <v>-38.188,-20.717</v>
       </c>
-      <c r="B23" s="65"/>
+      <c r="B23" s="44"/>
     </row>
     <row r="24" spans="1:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="A24" s="68" t="str">
+      <c r="A24" s="47" t="str">
         <f>I6&amp;","&amp;J6</f>
-        <v>138.021,307.493</v>
-      </c>
-      <c r="B24" s="65"/>
+        <v>230.521,492.493</v>
+      </c>
+      <c r="B24" s="44"/>
     </row>
     <row r="25" spans="1:19" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="69" t="str">
+      <c r="A25" s="48" t="str">
         <f>T41&amp;","&amp;U41</f>
-        <v>314.23,-20.717</v>
-      </c>
-      <c r="B25" s="66"/>
+        <v>499.23,-20.717</v>
+      </c>
+      <c r="B25" s="45"/>
     </row>
     <row r="27" spans="1:19" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A27" s="5"/>
@@ -7219,11 +7219,11 @@
       </c>
       <c r="S27" s="16">
         <f>VLOOKUP(B2,DATA!H:J,3,0)</f>
-        <v>328.21</v>
+        <v>513.21</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="59"/>
+      <c r="A28" s="38"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
@@ -7234,42 +7234,42 @@
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="T35" s="38" t="s">
+      <c r="C35" s="50"/>
+      <c r="T35" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="U35" s="39"/>
+      <c r="U35" s="50"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="41"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="52"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="41"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="52"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="52"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B38" s="46"/>
-      <c r="C38" s="47"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="47"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="58"/>
     </row>
     <row r="39" spans="2:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="T39" s="42" t="s">
+      <c r="C39" s="54"/>
+      <c r="T39" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="U39" s="43"/>
+      <c r="U39" s="54"/>
     </row>
     <row r="40" spans="2:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B40" s="17" t="s">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="T41" s="19">
         <f>B41+(K50)</f>
-        <v>314.23</v>
+        <v>499.23</v>
       </c>
       <c r="U41" s="20">
         <f>C41</f>
@@ -7306,7 +7306,7 @@
     <row r="50" spans="11:11" ht="28.5" x14ac:dyDescent="0.65">
       <c r="K50" s="16">
         <f>VLOOKUP(B2,DATA!H:J,2,0)</f>
-        <v>352.41800000000001</v>
+        <v>537.41800000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7332,7 +7332,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D9FCBA9-6355-4BD1-B57E-30257C3D0E30}">
           <x14:formula1>
-            <xm:f>DATA!$H$3:$H$16</xm:f>
+            <xm:f>DATA!$H$3:$H$17</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
@@ -7356,46 +7356,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="Z3" s="52" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="Z3" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B6" s="24"/>
@@ -7412,37 +7412,37 @@
       <c r="F7" s="24"/>
     </row>
     <row r="8" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
     </row>
     <row r="11" spans="2:30" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="53" t="str">
+      <c r="B11" s="64" t="str">
         <f>HYPERLINK("https://betrue3d.dk/rpi-and-duet-3-why-and-how/?fbclid=IwAR16IzLQhu4W4G6IMp81qFp3ousTRf1AjmVV-9iawk4osm4pF1tQDGAXfwg","-&gt; Duet &amp; Raspberry Pi &lt;-")</f>
         <v>-&gt; Duet &amp; Raspberry Pi &lt;-</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B12" s="31"/>
@@ -7457,63 +7457,63 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
-      <c r="Z13" s="50" t="s">
+      <c r="Z13" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
     </row>
     <row r="14" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="Z17" s="50"/>
-      <c r="AA17" s="50"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="50"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B18" s="24"/>
@@ -7521,11 +7521,11 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B19" s="24"/>
@@ -7533,263 +7533,263 @@
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="50"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
     </row>
     <row r="20" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="61"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="61"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="61"/>
+      <c r="AD24" s="61"/>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
     </row>
     <row r="26" spans="2:30" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="Z26" s="55" t="str">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="Z26" s="66" t="str">
         <f>HYPERLINK("https://duet3d.dozuki.com/Wiki/Gcode#Section_M911_Configure_auto_save_on_loss_of_power","Read more: -&gt; M911 Gcode &lt;-")</f>
         <v>Read more: -&gt; M911 Gcode &lt;-</v>
       </c>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="55"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="66"/>
     </row>
     <row r="29" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="Z29" s="57" t="s">
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="Z29" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="57"/>
-      <c r="AC29" s="57"/>
-      <c r="AD29" s="57"/>
+      <c r="AA29" s="68"/>
+      <c r="AB29" s="68"/>
+      <c r="AC29" s="68"/>
+      <c r="AD29" s="68"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="57"/>
-      <c r="AC30" s="57"/>
-      <c r="AD30" s="57"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="68"/>
+      <c r="AB30" s="68"/>
+      <c r="AC30" s="68"/>
+      <c r="AD30" s="68"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="57"/>
-      <c r="AC31" s="57"/>
-      <c r="AD31" s="57"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="Z31" s="68"/>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="68"/>
+      <c r="AC31" s="68"/>
+      <c r="AD31" s="68"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="57"/>
-      <c r="AB32" s="57"/>
-      <c r="AC32" s="57"/>
-      <c r="AD32" s="57"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="68"/>
+      <c r="AD32" s="68"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="57"/>
-      <c r="AC33" s="57"/>
-      <c r="AD33" s="57"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="68"/>
+      <c r="AD33" s="68"/>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="57"/>
-      <c r="AC34" s="57"/>
-      <c r="AD34" s="57"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="57"/>
-      <c r="AB35" s="57"/>
-      <c r="AC35" s="57"/>
-      <c r="AD35" s="57"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="68"/>
+      <c r="AC35" s="68"/>
+      <c r="AD35" s="68"/>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57"/>
-      <c r="AB36" s="57"/>
-      <c r="AC36" s="57"/>
-      <c r="AD36" s="57"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="68"/>
+      <c r="AC36" s="68"/>
+      <c r="AD36" s="68"/>
     </row>
     <row r="37" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="57"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="Z38" s="57"/>
-      <c r="AA38" s="57"/>
-      <c r="AB38" s="57"/>
-      <c r="AC38" s="57"/>
-      <c r="AD38" s="57"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="68"/>
+      <c r="AC38" s="68"/>
+      <c r="AD38" s="68"/>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="Z39" s="57"/>
-      <c r="AA39" s="57"/>
-      <c r="AB39" s="57"/>
-      <c r="AC39" s="57"/>
-      <c r="AD39" s="57"/>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="68"/>
+      <c r="AB39" s="68"/>
+      <c r="AC39" s="68"/>
+      <c r="AD39" s="68"/>
     </row>
     <row r="40" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="Z40" s="57"/>
-      <c r="AA40" s="57"/>
-      <c r="AB40" s="57"/>
-      <c r="AC40" s="57"/>
-      <c r="AD40" s="57"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="68"/>
+      <c r="AC40" s="68"/>
+      <c r="AD40" s="68"/>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="Z41" s="57"/>
-      <c r="AA41" s="57"/>
-      <c r="AB41" s="57"/>
-      <c r="AC41" s="57"/>
-      <c r="AD41" s="57"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="68"/>
+      <c r="AC41" s="68"/>
+      <c r="AD41" s="68"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="Z42" s="57"/>
-      <c r="AA42" s="57"/>
-      <c r="AB42" s="57"/>
-      <c r="AC42" s="57"/>
-      <c r="AD42" s="57"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="68"/>
+      <c r="AB42" s="68"/>
+      <c r="AC42" s="68"/>
+      <c r="AD42" s="68"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7837,27 +7837,27 @@
   </cols>
   <sheetData>
     <row r="6" spans="26:30" x14ac:dyDescent="0.35">
-      <c r="Z6" s="58" t="s">
+      <c r="Z6" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="58"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
     </row>
     <row r="7" spans="26:30" x14ac:dyDescent="0.35">
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="58"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="69"/>
     </row>
     <row r="8" spans="26:30" x14ac:dyDescent="0.35">
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="58"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
     </row>
     <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
@@ -7899,65 +7899,65 @@
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="23"/>
       <c r="C27" s="25"/>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="23"/>
       <c r="C28" s="25"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="23"/>
       <c r="C29" s="25"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="23"/>
       <c r="C30" s="25"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="23"/>
       <c r="C31" s="25"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="C32" s="25"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B33" s="23"/>
       <c r="C33" s="25"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
     </row>
     <row r="34" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="36"/>
       <c r="C34" s="27"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.35">
       <c r="Z38" s="37"/>
@@ -8020,7 +8020,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8152,10 +8152,10 @@
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8166,14 +8166,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="C1" s="59"/>
+      <c r="D1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="60"/>
       <c r="I1" t="s">
         <v>15</v>
       </c>
@@ -8326,11 +8326,11 @@
         <v>415</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I16" si="0">H7-H6+I6</f>
+        <f t="shared" ref="I7:I9" si="0">H7-H6+I6</f>
         <v>452.41800000000001</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J16" si="1">H7-H6+J6</f>
+        <f t="shared" ref="J7:J9" si="1">H7-H6+J6</f>
         <v>428.21</v>
       </c>
     </row>
@@ -8407,15 +8407,15 @@
         <v>46</v>
       </c>
       <c r="H10">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>552.41800000000001</v>
+        <f>H10-H9+I9</f>
+        <v>537.41800000000001</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>528.21</v>
+        <f>H10-H9+J9</f>
+        <v>513.21</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -8435,79 +8435,92 @@
         <v>5.21</v>
       </c>
       <c r="H11">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>602.41800000000001</v>
+        <f>H11-H9+I9</f>
+        <v>552.41800000000001</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>578.21</v>
+        <f>H11-H9+J9</f>
+        <v>528.21</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H12">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>652.41800000000001</v>
+        <f>H12-H11+I11</f>
+        <v>602.41800000000001</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>628.21</v>
+        <f>H12-H11+J11</f>
+        <v>578.21</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H13">
-        <v>665</v>
+        <v>615</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>702.41800000000001</v>
+        <f>H13-H12+I12</f>
+        <v>652.41800000000001</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
-        <v>678.21</v>
+        <f>H13-H12+J12</f>
+        <v>628.21</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H14">
-        <v>715</v>
+        <v>665</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>752.41800000000001</v>
+        <f>H14-H13+I13</f>
+        <v>702.41800000000001</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>728.21</v>
+        <f>H14-H13+J13</f>
+        <v>678.21</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H15">
-        <v>765</v>
+        <v>715</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
-        <v>802.41800000000001</v>
+        <f>H15-H14+I14</f>
+        <v>752.41800000000001</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>778.21</v>
+        <f>H15-H14+J14</f>
+        <v>728.21</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H16">
+        <v>765</v>
+      </c>
+      <c r="I16">
+        <f>H16-H15+I15</f>
+        <v>802.41800000000001</v>
+      </c>
+      <c r="J16">
+        <f>H16-H15+J15</f>
+        <v>778.21</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H17">
         <v>815</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
+      <c r="I17">
+        <f>H17-H16+I16</f>
         <v>852.41800000000001</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
+      <c r="J17">
+        <f>H17-H16+J16</f>
         <v>828.21</v>
       </c>
     </row>

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68B6714-F2ED-4709-AC29-15A62BF7BF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC8A906-A474-4434-974E-CB7F17FE7F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>PRINT_HEAD</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>KLIPPER (for printer.cfg file)</t>
+  </si>
+  <si>
+    <t>M671 X-38.188:230.521:499.23 Y-20.717:492.493:-20.717 S50</t>
   </si>
 </sst>
 </file>
@@ -6994,7 +6997,7 @@
   <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A20" sqref="A20:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7213,7 +7216,9 @@
       <c r="B25" s="45"/>
     </row>
     <row r="27" spans="1:19" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D27" t="s">
         <v>18</v>
       </c>
@@ -8451,11 +8456,11 @@
         <v>565</v>
       </c>
       <c r="I12">
-        <f>H12-H11+I11</f>
+        <f t="shared" ref="I12:I17" si="2">H12-H11+I11</f>
         <v>602.41800000000001</v>
       </c>
       <c r="J12">
-        <f>H12-H11+J11</f>
+        <f t="shared" ref="J12:J17" si="3">H12-H11+J11</f>
         <v>578.21</v>
       </c>
     </row>
@@ -8464,11 +8469,11 @@
         <v>615</v>
       </c>
       <c r="I13">
-        <f>H13-H12+I12</f>
+        <f t="shared" si="2"/>
         <v>652.41800000000001</v>
       </c>
       <c r="J13">
-        <f>H13-H12+J12</f>
+        <f t="shared" si="3"/>
         <v>628.21</v>
       </c>
     </row>
@@ -8477,11 +8482,11 @@
         <v>665</v>
       </c>
       <c r="I14">
-        <f>H14-H13+I13</f>
+        <f t="shared" si="2"/>
         <v>702.41800000000001</v>
       </c>
       <c r="J14">
-        <f>H14-H13+J13</f>
+        <f t="shared" si="3"/>
         <v>678.21</v>
       </c>
     </row>
@@ -8490,11 +8495,11 @@
         <v>715</v>
       </c>
       <c r="I15">
-        <f>H15-H14+I14</f>
+        <f t="shared" si="2"/>
         <v>752.41800000000001</v>
       </c>
       <c r="J15">
-        <f>H15-H14+J14</f>
+        <f t="shared" si="3"/>
         <v>728.21</v>
       </c>
     </row>
@@ -8503,11 +8508,11 @@
         <v>765</v>
       </c>
       <c r="I16">
-        <f>H16-H15+I15</f>
+        <f t="shared" si="2"/>
         <v>802.41800000000001</v>
       </c>
       <c r="J16">
-        <f>H16-H15+J15</f>
+        <f t="shared" si="3"/>
         <v>778.21</v>
       </c>
     </row>
@@ -8516,11 +8521,11 @@
         <v>815</v>
       </c>
       <c r="I17">
-        <f>H17-H16+I16</f>
+        <f t="shared" si="2"/>
         <v>852.41800000000001</v>
       </c>
       <c r="J17">
-        <f>H17-H16+J16</f>
+        <f t="shared" si="3"/>
         <v>828.21</v>
       </c>
     </row>

--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC8A906-A474-4434-974E-CB7F17FE7F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AB0BA3-A3DF-4972-9EEA-3959B65FB077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="789" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
-    <sheet name="NIMBLE_KRYO" sheetId="6" r:id="rId2"/>
-    <sheet name="BMG_AQUA" sheetId="3" r:id="rId3"/>
-    <sheet name="BMG_KRYO" sheetId="4" r:id="rId4"/>
-    <sheet name="HEMERA" sheetId="5" r:id="rId5"/>
-    <sheet name="HEMERA_TOPMOUNT" sheetId="7" r:id="rId6"/>
-    <sheet name="BMG_MGN9" sheetId="11" r:id="rId7"/>
-    <sheet name="HextrudORT" sheetId="12" r:id="rId8"/>
-    <sheet name="DATA" sheetId="2" r:id="rId9"/>
-    <sheet name="RRF3_D3P2" sheetId="8" r:id="rId10"/>
-    <sheet name="RRF3_D3P3" sheetId="9" r:id="rId11"/>
-    <sheet name="RRF3_D3P4" sheetId="10" r:id="rId12"/>
+    <sheet name="XYHDx_Map" sheetId="14" r:id="rId2"/>
+    <sheet name="NIMBLE_KRYO" sheetId="6" r:id="rId3"/>
+    <sheet name="BMG_AQUA" sheetId="3" r:id="rId4"/>
+    <sheet name="BMG_KRYO" sheetId="4" r:id="rId5"/>
+    <sheet name="HEMERA" sheetId="5" r:id="rId6"/>
+    <sheet name="HEMERA_TOPMOUNT" sheetId="7" r:id="rId7"/>
+    <sheet name="BMG_MGN9" sheetId="11" r:id="rId8"/>
+    <sheet name="HextrudORT STDHT" sheetId="12" r:id="rId9"/>
+    <sheet name="HextrudORT HDx" sheetId="13" r:id="rId10"/>
+    <sheet name="DATA" sheetId="2" r:id="rId11"/>
+    <sheet name="RRF3_D3P2" sheetId="8" r:id="rId12"/>
+    <sheet name="RRF3_D3P3" sheetId="9" r:id="rId13"/>
+    <sheet name="RRF3_D3P4" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>PRINT_HEAD</t>
   </si>
@@ -481,9 +483,6 @@
     <t>Results to be inserted in config.g (Duet/RRF)</t>
   </si>
   <si>
-    <t>HextrudORT</t>
-  </si>
-  <si>
     <t>[z_tilt]</t>
   </si>
   <si>
@@ -493,7 +492,40 @@
     <t>KLIPPER (for printer.cfg file)</t>
   </si>
   <si>
-    <t>M671 X-38.188:230.521:499.23 Y-20.717:492.493:-20.717 S50</t>
+    <t>HextrudORT STDHT</t>
+  </si>
+  <si>
+    <t>HextrudORT HD</t>
+  </si>
+  <si>
+    <t>XY Style</t>
+  </si>
+  <si>
+    <t>STDHD</t>
+  </si>
+  <si>
+    <t>FL Lift Point to EndStop</t>
+  </si>
+  <si>
+    <t>HDx</t>
+  </si>
+  <si>
+    <t>[bltouch]</t>
+  </si>
+  <si>
+    <t>sensor_pin: xxx</t>
+  </si>
+  <si>
+    <t>control_pin: xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z_offset: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">y_offset: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x_offset: </t>
   </si>
 </sst>
 </file>
@@ -661,7 +693,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -728,8 +760,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -996,74 +1040,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1152,23 +1134,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,6 +1199,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1298,14 +1285,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>352863</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>146816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>752913</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>150766</xdr:rowOff>
+      <xdr:colOff>749738</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>31476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1349,6 +1336,1109 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51AA5C65-4D6D-406B-B038-A50A9D8439CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7829550" cy="5588000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>471628</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46495756-169C-49BA-9862-D4B5AF4E1C4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4768850" y="587375"/>
+          <a:ext cx="8726628" cy="7797800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>206378</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Connector: Elbow 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A194BF60-C0F3-4348-A7DA-26F131A69816}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="13230228" y="1181100"/>
+          <a:ext cx="1577972" cy="1485898"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Connector: Elbow 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E13EB96-4D8A-4F80-B869-1A9B15634F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3286125" y="2339975"/>
+          <a:ext cx="1679575" cy="669925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 45085"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Connector: Elbow 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7EBC35-2207-41AD-A6EC-585A09C1C7AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3282950" y="1162050"/>
+          <a:ext cx="1733550" cy="1498600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 68681"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Connector: Elbow 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE9B6E2-22B9-48D3-96D5-128B2FD61A2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3308350" y="3216275"/>
+          <a:ext cx="1695450" cy="206375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 44382"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>111127</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Connector: Elbow 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7475E98-6D76-429A-95D5-E10AD2B555C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3289300" y="2813050"/>
+          <a:ext cx="1746250" cy="1489077"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 68149"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Arrow: Right 74">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF394B0E-5A2D-482A-B94E-6F27D60DD49D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12823825" y="7924800"/>
+          <a:ext cx="679450" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Next</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>203204</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180972</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Connector: Elbow 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A2D599-6E71-4EE4-8676-1B97F78CB145}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="13227054" y="2781299"/>
+          <a:ext cx="1593846" cy="638173"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>98427</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Connector: Elbow 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F683E3-47AF-4439-BEE0-1984B962D6AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3289300" y="3790950"/>
+          <a:ext cx="1917700" cy="1857377"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 71157"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>377832</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connector: Elbow 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34728CFE-F5B3-4F3E-BBA3-7ACD2A3DCFF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="13401682" y="5664198"/>
+          <a:ext cx="1425568" cy="450852"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>454024</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584199</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Left Brace 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C601E20-62E4-49A8-B898-F625814DD7AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7866062" y="3725862"/>
+          <a:ext cx="381000" cy="6226175"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>174628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Connector: Elbow 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D38F2B6-FB04-4D05-8058-92D3E92C63FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3279775" y="6677028"/>
+          <a:ext cx="1489075" cy="314322"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>155577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Connector: Elbow 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE6C4CE-1BDC-477F-9F24-3A3C65026A0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3292475" y="7419977"/>
+          <a:ext cx="8591550" cy="476248"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99963"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle: Rounded Corners 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4236D643-2BF4-46AE-BDDA-EA3B6ECC874B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943724" y="4054474"/>
+          <a:ext cx="2203451" cy="485776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EEF88C"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Select CoreXY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>, as this is the Geopmetry used by the HevORT</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CA" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>93663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Connector: Elbow 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4247F224-1FDD-4305-86C9-2CD81DAE96FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="0"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6331743" y="4026695"/>
+          <a:ext cx="341313" cy="882649"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle: Rounded Corners 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2E2661-C9A3-42F4-BE63-C34ED0298657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="4635500"/>
+          <a:ext cx="685800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483826F8-4999-4CBD-B927-1D8A96322C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4806950" y="7943850"/>
+          <a:ext cx="711200" cy="412750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle: Rounded Corners 20">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A9BFEF-874D-42B6-A284-2D814800FE2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8566150" y="8255000"/>
+          <a:ext cx="1047750" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Back to Menu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1375,8 +2465,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="133350" y="471954"/>
-          <a:ext cx="4461996" cy="3070786"/>
+          <a:off x="133350" y="460188"/>
+          <a:ext cx="4431553" cy="2944906"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5165725" cy="3635018"/>
         </a:xfrm>
@@ -1848,8 +2938,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15046700" y="5500968"/>
-          <a:ext cx="2976841" cy="1648033"/>
+          <a:off x="14885522" y="5288616"/>
+          <a:ext cx="2936874" cy="1584533"/>
           <a:chOff x="16970376" y="6111875"/>
           <a:chExt cx="3136899" cy="1683705"/>
         </a:xfrm>
@@ -3061,7 +4151,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5210,6 +6300,133 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40D8A5C1-E38A-4BC4-B905-D8220E963E6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4768850" cy="3638550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171A0B44-5ACA-4E71-A772-7D506D26162D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4429125" y="104775"/>
+          <a:ext cx="6477000" cy="4629150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5263,7 +6480,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5318,7 +6535,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5362,64 +6579,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="15097788" cy="7410450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>56956</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AF068C-7BD2-47E7-8F6B-13E171CB97EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="15601950" cy="7657906"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5445,16 +6604,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>47606</xdr:rowOff>
+      <xdr:rowOff>56956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8844ABCD-A2EF-4E39-B3F4-B08208DF3E4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AF068C-7BD2-47E7-8F6B-13E171CB97EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5477,7 +6636,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="15582900" cy="7648556"/>
+          <a:ext cx="15601950" cy="7657906"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5502,6 +6661,64 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8844ABCD-A2EF-4E39-B3F4-B08208DF3E4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15582900" cy="7648556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>44</xdr:row>
@@ -5558,7 +6775,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5624,1046 +6841,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>471628</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46495756-169C-49BA-9862-D4B5AF4E1C4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4768850" y="587375"/>
-          <a:ext cx="8726628" cy="7797800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="333333">
-              <a:alpha val="65000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>206378</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152398</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Connector: Elbow 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A194BF60-C0F3-4348-A7DA-26F131A69816}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="13230228" y="1181100"/>
-          <a:ext cx="1577972" cy="1485898"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Connector: Elbow 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E13EB96-4D8A-4F80-B869-1A9B15634F1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3286125" y="2339975"/>
-          <a:ext cx="1679575" cy="669925"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 45085"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Connector: Elbow 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7EBC35-2207-41AD-A6EC-585A09C1C7AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3282950" y="1162050"/>
-          <a:ext cx="1733550" cy="1498600"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 68681"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="Connector: Elbow 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE9B6E2-22B9-48D3-96D5-128B2FD61A2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3308350" y="3216275"/>
-          <a:ext cx="1695450" cy="206375"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 44382"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>111127</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="Connector: Elbow 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7475E98-6D76-429A-95D5-E10AD2B555C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3289300" y="2813050"/>
-          <a:ext cx="1746250" cy="1489077"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 68149"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Arrow: Right 74">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF394B0E-5A2D-482A-B94E-6F27D60DD49D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12823825" y="7924800"/>
-          <a:ext cx="679450" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100"/>
-            <a:t>Next</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>203204</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180972</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Connector: Elbow 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A2D599-6E71-4EE4-8676-1B97F78CB145}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="13227054" y="2781299"/>
-          <a:ext cx="1593846" cy="638173"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>98427</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Connector: Elbow 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F683E3-47AF-4439-BEE0-1984B962D6AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3289300" y="3790950"/>
-          <a:ext cx="1917700" cy="1857377"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 71157"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>377832</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Connector: Elbow 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34728CFE-F5B3-4F3E-BBA3-7ACD2A3DCFF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="13401682" y="5664198"/>
-          <a:ext cx="1425568" cy="450852"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>454024</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584199</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Left Brace 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C601E20-62E4-49A8-B898-F625814DD7AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7866062" y="3725862"/>
-          <a:ext cx="381000" cy="6226175"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>174628</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Connector: Elbow 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D38F2B6-FB04-4D05-8058-92D3E92C63FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3279775" y="6677028"/>
-          <a:ext cx="1489075" cy="314322"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>155577</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>79375</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Connector: Elbow 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE6C4CE-1BDC-477F-9F24-3A3C65026A0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3292475" y="7419977"/>
-          <a:ext cx="8591550" cy="476248"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 99963"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>41274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle: Rounded Corners 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4236D643-2BF4-46AE-BDDA-EA3B6ECC874B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6943724" y="4054474"/>
-          <a:ext cx="2203451" cy="485776"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="EEF88C"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Select CoreXY</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>, as this is the Geopmetry used by the HevORT</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-CA" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>93663</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>53976</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Connector: Elbow 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4247F224-1FDD-4305-86C9-2CD81DAE96FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="18" idx="0"/>
-          <a:endCxn id="14" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="6331743" y="4026695"/>
-          <a:ext cx="341313" cy="882649"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle: Rounded Corners 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2E2661-C9A3-42F4-BE63-C34ED0298657}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5715000" y="4635500"/>
-          <a:ext cx="685800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483826F8-4999-4CBD-B927-1D8A96322C0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4806950" y="7943850"/>
-          <a:ext cx="711200" cy="412750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle: Rounded Corners 20">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A9BFEF-874D-42B6-A284-2D814800FE2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8566150" y="8255000"/>
-          <a:ext cx="1047750" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100"/>
-            <a:t>Back to Menu</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EB589B1-314F-41BA-8AAB-411460155F4C}" name="Table1" displayName="Table1" ref="A2:E11" totalsRowShown="0">
-  <autoFilter ref="A2:E11" xr:uid="{460B98C6-B2BE-440D-A664-33953CE19687}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EB589B1-314F-41BA-8AAB-411460155F4C}" name="Table1" displayName="Table1" ref="A2:E12" totalsRowShown="0">
+  <autoFilter ref="A2:E12" xr:uid="{460B98C6-B2BE-440D-A664-33953CE19687}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0AF2A029-35DD-48E6-A3E3-BDEC183574C1}" name="PrintHead"/>
     <tableColumn id="2" xr3:uid="{469A7C96-970F-4B3B-9AEA-9D4CD1CFEA90}" name="Xstop" dataDxfId="3"/>
@@ -6691,6 +6871,20 @@
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{633E90B6-A410-4A58-B98F-4A668DBBC9F3}" name="Table3" displayName="Table3" ref="A16:C18" totalsRowShown="0">
+  <autoFilter ref="A16:C18" xr:uid="{633E90B6-A410-4A58-B98F-4A668DBBC9F3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4A30011F-E57F-41E8-99E5-48A8E1801CB7}" name="XY Style"/>
+    <tableColumn id="2" xr3:uid="{616943C5-798F-4C4C-9DCC-8F32B50A6CC6}" name="Xstop"/>
+    <tableColumn id="3" xr3:uid="{15436909-BBDC-43D9-85D9-9D63EEF4970A}" name="Ystop">
+      <calculatedColumnFormula>23.3+24</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -6994,10 +7188,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7029,317 +7223,373 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="50"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I4" s="55" t="s">
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="11" t="s">
+    <row r="7" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="12">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="15">
-        <f>B41+(K50/2)</f>
-        <v>230.52100000000002</v>
-      </c>
-      <c r="J6" s="15">
-        <f>C41+S27</f>
-        <v>492.49300000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="B7" s="12">
-        <v>31.603999999999999</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="I7" s="15">
+        <f>B42+(K51/2)</f>
+        <v>259.339</v>
+      </c>
+      <c r="J7" s="15">
+        <f>C42+S28</f>
+        <v>507.81000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="26" x14ac:dyDescent="0.6">
-      <c r="A11" s="39" t="s">
+    <row r="12" spans="1:10" ht="26" x14ac:dyDescent="0.6">
+      <c r="A12" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A13" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A14" s="40" t="str">
-        <f xml:space="preserve"> "M671 " &amp; "X" &amp; B41 &amp; ":" &amp; I6 &amp; ":" &amp; T41 &amp; " Y" &amp; C41 &amp; ":" &amp; J6 &amp; ":" &amp; U41 &amp; " S50"</f>
-        <v>M671 X-38.188:230.521:499.23 Y-20.717:492.493:-20.717 S50</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+      <c r="A14" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A15" s="39" t="str">
+        <f xml:space="preserve"> "M671 " &amp; "X" &amp; B42 &amp; ":" &amp; I7 &amp; ":" &amp; T42 &amp; " Y" &amp; C42 &amp; ":" &amp; J7 &amp; ":" &amp; U42 &amp; " S50"</f>
+        <v>M671 X-16.87:259.339:535.548 Y-20.4:507.81:-20.4 S50</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
     </row>
-    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A16" s="29" t="s">
-        <v>36</v>
-      </c>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:19" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="41" t="str">
-        <f>"G31 P500 X"&amp;VLOOKUP(B3,Table1[],4,0) &amp; " Y"&amp; VLOOKUP(B3,Table1[],5,0) &amp; " Z[measured via Paper technique]"</f>
-        <v>G31 P500 X22.775 Y5.21 Z[measured via Paper technique]</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="42"/>
-    </row>
-    <row r="21" spans="1:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="A21" s="43" t="s">
+    <row r="17" spans="1:19" ht="21" x14ac:dyDescent="0.5">
+      <c r="A17" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:19" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="40" t="str">
+        <f>"G31 P500 X"&amp;VLOOKUP(B4,Table1[],4,0) &amp; " Y"&amp; VLOOKUP(B4,Table1[],5,0) &amp; " Z[measured via Paper technique]"</f>
+        <v>G31 P500 X22.775 Y8.706 Z[measured via Paper technique]</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="22"/>
+    </row>
+    <row r="22" spans="1:19" ht="21" x14ac:dyDescent="0.5">
+      <c r="A22" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="25"/>
+    </row>
+    <row r="23" spans="1:19" ht="21" x14ac:dyDescent="0.5">
+      <c r="A23" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="44"/>
-    </row>
-    <row r="22" spans="1:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="A22" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="44"/>
-    </row>
-    <row r="23" spans="1:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="A23" s="47" t="str">
-        <f>B41&amp;","&amp;C41</f>
-        <v>-38.188,-20.717</v>
-      </c>
-      <c r="B23" s="44"/>
+      <c r="B23" s="25"/>
     </row>
     <row r="24" spans="1:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="A24" s="47" t="str">
-        <f>I6&amp;","&amp;J6</f>
-        <v>230.521,492.493</v>
-      </c>
-      <c r="B24" s="44"/>
-    </row>
-    <row r="25" spans="1:19" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="48" t="str">
-        <f>T41&amp;","&amp;U41</f>
-        <v>499.23,-20.717</v>
-      </c>
-      <c r="B25" s="45"/>
-    </row>
-    <row r="27" spans="1:19" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="A24" s="65" t="str">
+        <f>B42&amp;","&amp;C42</f>
+        <v>-16.87,-20.4</v>
+      </c>
+      <c r="B24" s="25"/>
+    </row>
+    <row r="25" spans="1:19" ht="21" x14ac:dyDescent="0.5">
+      <c r="A25" s="65" t="str">
+        <f>I7&amp;","&amp;J7</f>
+        <v>259.339,507.81</v>
+      </c>
+      <c r="B25" s="25"/>
+    </row>
+    <row r="26" spans="1:19" ht="21" x14ac:dyDescent="0.5">
+      <c r="A26" s="65" t="str">
+        <f>T42&amp;","&amp;U42</f>
+        <v>535.548,-20.4</v>
+      </c>
+      <c r="B26" s="25"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="25"/>
+    </row>
+    <row r="28" spans="1:19" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A28" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="D28" t="s">
         <v>18</v>
       </c>
-      <c r="S27" s="16">
+      <c r="S28" s="16">
         <f>VLOOKUP(B2,DATA!H:J,3,0)</f>
-        <v>513.21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="38"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="34" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G34" t="s">
+        <v>528.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="21" x14ac:dyDescent="0.5">
+      <c r="A29" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="25"/>
+    </row>
+    <row r="30" spans="1:19" ht="21" x14ac:dyDescent="0.5">
+      <c r="A30" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="25"/>
+    </row>
+    <row r="31" spans="1:19" ht="21" x14ac:dyDescent="0.5">
+      <c r="A31" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="67">
+        <f>VLOOKUP(B4,Table1[#All],2,0)</f>
+        <v>28.079000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="21" x14ac:dyDescent="0.5">
+      <c r="A32" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="67">
+        <f>VLOOKUP(B4,Table1[#All],3,0)</f>
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B35" s="49" t="s">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B36" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="T35" s="49" t="s">
+      <c r="C36" s="42"/>
+      <c r="T36" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="U35" s="50"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B36" s="51"/>
-      <c r="C36" s="52"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="52"/>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B37" s="51"/>
-      <c r="C37" s="52"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="52"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B38" s="57"/>
-      <c r="C38" s="58"/>
-      <c r="T38" s="57"/>
-      <c r="U38" s="58"/>
-    </row>
-    <row r="39" spans="2:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B39" s="53" t="s">
+      <c r="U36" s="42"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="44"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B38" s="43"/>
+      <c r="C38" s="44"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="44"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="50"/>
+    </row>
+    <row r="40" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B40" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="T39" s="53" t="s">
+      <c r="C40" s="46"/>
+      <c r="T40" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="U39" s="54"/>
-    </row>
-    <row r="40" spans="2:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B40" s="17" t="s">
+      <c r="U40" s="46"/>
+    </row>
+    <row r="41" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B41" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="T40" s="17" t="s">
+      <c r="T41" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="U40" s="18" t="s">
+      <c r="U41" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B41" s="19">
-        <f>VLOOKUP(B3,Table1[],2,0)*-1+(13+1.891)-B6</f>
-        <v>-38.188000000000002</v>
-      </c>
-      <c r="C41" s="20">
-        <f>VLOOKUP(B3,Table1[],3,0)-31.604-12.509</f>
-        <v>-20.716999999999999</v>
-      </c>
-      <c r="T41" s="19">
-        <f>B41+(K50)</f>
-        <v>499.23</v>
-      </c>
-      <c r="U41" s="20">
-        <f>C41</f>
-        <v>-20.716999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="11:11" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="K50" s="16">
+    <row r="42" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B42" s="19">
+        <f>VLOOKUP(B4,Table1[],2,0)*-1+VLOOKUP(B3,Table3[#All],2,0)-B7</f>
+        <v>-16.87</v>
+      </c>
+      <c r="C42" s="20">
+        <f>VLOOKUP(B4,Table1[],3,0)-(VLOOKUP(B3,Table3[#All],3,0))</f>
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="T42" s="19">
+        <f>B42+(K51)</f>
+        <v>535.548</v>
+      </c>
+      <c r="U42" s="20">
+        <f>C42</f>
+        <v>-20.399999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="K51" s="16">
         <f>VLOOKUP(B2,DATA!H:J,2,0)</f>
-        <v>537.41800000000001</v>
+        <v>552.41800000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="B35:C38"/>
-    <mergeCell ref="T35:U38"/>
+    <mergeCell ref="I2:J4"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="B36:C39"/>
+    <mergeCell ref="T36:U39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB97AF40-22B5-4C61-AE05-38E6CD4A1048}">
           <x14:formula1>
-            <xm:f>DATA!$A$3:$A$18</xm:f>
+            <xm:f>DATA!$A$3:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
+          <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D9FCBA9-6355-4BD1-B57E-30257C3D0E30}">
           <x14:formula1>
             <xm:f>DATA!$H$3:$H$17</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F414B56-0E2E-4A0C-947E-2184D457048A}">
+          <x14:formula1>
+            <xm:f>DATA!$A$17:$A$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7348,6 +7598,465 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3744CDE0-1AE6-4DD3-9074-4863347BB1AB}">
+  <sheetPr>
+    <tabColor rgb="FFEEF88C"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA66DFF9-FA4E-4D72-A033-DA7973A100D2}">
+  <sheetPr>
+    <tabColor rgb="FFFF00FF"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B1" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>15.189</v>
+      </c>
+      <c r="C3" s="2">
+        <v>46.134</v>
+      </c>
+      <c r="D3" s="4">
+        <v>37.448999999999998</v>
+      </c>
+      <c r="E3" s="4">
+        <v>26.253</v>
+      </c>
+      <c r="H3">
+        <v>290</v>
+      </c>
+      <c r="I3">
+        <f>I4+Table2[[#This Row],[PrintArea]]-H4</f>
+        <v>327.41800000000001</v>
+      </c>
+      <c r="J3">
+        <f>J4+Table2[[#This Row],[PrintArea]]-H4</f>
+        <v>303.21000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10.750999999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>33.701999999999998</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.113</v>
+      </c>
+      <c r="E4" s="4">
+        <v>34.686999999999998</v>
+      </c>
+      <c r="H4">
+        <v>315</v>
+      </c>
+      <c r="I4">
+        <v>352.41800000000001</v>
+      </c>
+      <c r="J4">
+        <v>328.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2">
+        <v>18.876000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>31.907</v>
+      </c>
+      <c r="D5" s="4">
+        <v>30.966999999999999</v>
+      </c>
+      <c r="E5" s="4">
+        <v>13.055</v>
+      </c>
+      <c r="H5">
+        <v>325</v>
+      </c>
+      <c r="I5">
+        <f>H5-H4+I4</f>
+        <v>362.41800000000001</v>
+      </c>
+      <c r="J5">
+        <f>H5-H4+J4</f>
+        <v>338.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2">
+        <v>35.875999999999998</v>
+      </c>
+      <c r="C6" s="2">
+        <v>27.907</v>
+      </c>
+      <c r="D6" s="4">
+        <v>32.584000000000003</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8.5779999999999994</v>
+      </c>
+      <c r="H6">
+        <v>365</v>
+      </c>
+      <c r="I6">
+        <f>H6-H4+I4</f>
+        <v>402.41800000000001</v>
+      </c>
+      <c r="J6">
+        <f>H6-H4+J4</f>
+        <v>378.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="H7">
+        <v>415</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I9" si="0">H7-H6+I6</f>
+        <v>452.41800000000001</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J9" si="1">H7-H6+J6</f>
+        <v>428.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2">
+        <v>23.096</v>
+      </c>
+      <c r="C8" s="2">
+        <v>27.661000000000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>27.454999999999998</v>
+      </c>
+      <c r="E8" s="4">
+        <v>9.1340000000000003</v>
+      </c>
+      <c r="H8">
+        <v>430</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>467.41800000000001</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>443.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30.103000000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-23.484999999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>465</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>502.41800000000001</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>478.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>46</v>
+      </c>
+      <c r="H10">
+        <v>500</v>
+      </c>
+      <c r="I10">
+        <f>H10-H9+I9</f>
+        <v>537.41800000000001</v>
+      </c>
+      <c r="J10">
+        <f>H10-H9+J9</f>
+        <v>513.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="2">
+        <v>28.079000000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>23.396000000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>22.774999999999999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5.21</v>
+      </c>
+      <c r="H11">
+        <v>515</v>
+      </c>
+      <c r="I11">
+        <f>H11-H9+I9</f>
+        <v>552.41800000000001</v>
+      </c>
+      <c r="J11">
+        <f>H11-H9+J9</f>
+        <v>528.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2">
+        <v>28.079000000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>26.9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>22.774999999999999</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8.7059999999999995</v>
+      </c>
+      <c r="H12">
+        <v>565</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I17" si="2">H12-H11+I11</f>
+        <v>602.41800000000001</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J17" si="3">H12-H11+J11</f>
+        <v>578.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>615</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>652.41800000000001</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>628.21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>665</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>702.41800000000001</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>678.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="H15">
+        <v>715</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>752.41800000000001</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>728.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>765</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>802.41800000000001</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>778.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17">
+        <v>1.891</v>
+      </c>
+      <c r="C17">
+        <f>31.604+12.509</f>
+        <v>44.113</v>
+      </c>
+      <c r="H17">
+        <v>815</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>852.41800000000001</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>828.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <v>11.209</v>
+      </c>
+      <c r="C18">
+        <f>23.3+24</f>
+        <v>47.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B15:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65005C96-9609-4A9D-8BFD-DC86570817E4}">
   <dimension ref="B3:AD43"/>
   <sheetViews>
@@ -7361,46 +8070,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="Z3" s="63" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="Z3" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="63"/>
-      <c r="AD5" s="63"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B6" s="24"/>
@@ -7417,37 +8126,37 @@
       <c r="F7" s="24"/>
     </row>
     <row r="8" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="2:30" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="64" t="str">
+      <c r="B11" s="56" t="str">
         <f>HYPERLINK("https://betrue3d.dk/rpi-and-duet-3-why-and-how/?fbclid=IwAR16IzLQhu4W4G6IMp81qFp3ousTRf1AjmVV-9iawk4osm4pF1tQDGAXfwg","-&gt; Duet &amp; Raspberry Pi &lt;-")</f>
         <v>-&gt; Duet &amp; Raspberry Pi &lt;-</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B12" s="31"/>
@@ -7462,63 +8171,63 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
-      <c r="Z13" s="61" t="s">
+      <c r="Z13" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
     </row>
     <row r="14" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="61"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B18" s="24"/>
@@ -7526,11 +8235,11 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="53"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B19" s="24"/>
@@ -7538,263 +8247,263 @@
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="53"/>
     </row>
     <row r="20" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="61"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="53"/>
+      <c r="AC20" s="53"/>
+      <c r="AD20" s="53"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="53"/>
+      <c r="AC21" s="53"/>
+      <c r="AD21" s="53"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="61"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="61"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="53"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="61"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="61"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="53"/>
+      <c r="AC25" s="53"/>
+      <c r="AD25" s="53"/>
     </row>
     <row r="26" spans="2:30" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="Z26" s="66" t="str">
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="Z26" s="58" t="str">
         <f>HYPERLINK("https://duet3d.dozuki.com/Wiki/Gcode#Section_M911_Configure_auto_save_on_loss_of_power","Read more: -&gt; M911 Gcode &lt;-")</f>
         <v>Read more: -&gt; M911 Gcode &lt;-</v>
       </c>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
     </row>
     <row r="29" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="Z29" s="68" t="s">
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="Z29" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="AA29" s="68"/>
-      <c r="AB29" s="68"/>
-      <c r="AC29" s="68"/>
-      <c r="AD29" s="68"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="60"/>
+      <c r="AD29" s="60"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="Z30" s="68"/>
-      <c r="AA30" s="68"/>
-      <c r="AB30" s="68"/>
-      <c r="AC30" s="68"/>
-      <c r="AD30" s="68"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="Z31" s="68"/>
-      <c r="AA31" s="68"/>
-      <c r="AB31" s="68"/>
-      <c r="AC31" s="68"/>
-      <c r="AD31" s="68"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="60"/>
+      <c r="AB31" s="60"/>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="60"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="68"/>
-      <c r="AB32" s="68"/>
-      <c r="AC32" s="68"/>
-      <c r="AD32" s="68"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="60"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="60"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="68"/>
-      <c r="AC33" s="68"/>
-      <c r="AD33" s="68"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="60"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="60"/>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="68"/>
-      <c r="AB35" s="68"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="68"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="60"/>
+      <c r="AD35" s="60"/>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="Z36" s="68"/>
-      <c r="AA36" s="68"/>
-      <c r="AB36" s="68"/>
-      <c r="AC36" s="68"/>
-      <c r="AD36" s="68"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="60"/>
     </row>
     <row r="37" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="Z37" s="68"/>
-      <c r="AA37" s="68"/>
-      <c r="AB37" s="68"/>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="68"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="60"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
-      <c r="AB38" s="68"/>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="68"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="60"/>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="Z39" s="68"/>
-      <c r="AA39" s="68"/>
-      <c r="AB39" s="68"/>
-      <c r="AC39" s="68"/>
-      <c r="AD39" s="68"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="60"/>
     </row>
     <row r="40" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="Z40" s="68"/>
-      <c r="AA40" s="68"/>
-      <c r="AB40" s="68"/>
-      <c r="AC40" s="68"/>
-      <c r="AD40" s="68"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="60"/>
+      <c r="AB40" s="60"/>
+      <c r="AC40" s="60"/>
+      <c r="AD40" s="60"/>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="Z41" s="68"/>
-      <c r="AA41" s="68"/>
-      <c r="AB41" s="68"/>
-      <c r="AC41" s="68"/>
-      <c r="AD41" s="68"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="60"/>
+      <c r="AB41" s="60"/>
+      <c r="AC41" s="60"/>
+      <c r="AD41" s="60"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="Z42" s="68"/>
-      <c r="AA42" s="68"/>
-      <c r="AB42" s="68"/>
-      <c r="AC42" s="68"/>
-      <c r="AD42" s="68"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="60"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7821,7 +8530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D9C8A0-2668-4297-8EF3-575600067781}">
   <dimension ref="B6:AD43"/>
   <sheetViews>
@@ -7842,27 +8551,27 @@
   </cols>
   <sheetData>
     <row r="6" spans="26:30" x14ac:dyDescent="0.35">
-      <c r="Z6" s="69" t="s">
+      <c r="Z6" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
     </row>
     <row r="7" spans="26:30" x14ac:dyDescent="0.35">
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
     </row>
     <row r="8" spans="26:30" x14ac:dyDescent="0.35">
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="61"/>
+      <c r="AD8" s="61"/>
     </row>
     <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
@@ -7904,65 +8613,65 @@
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="23"/>
       <c r="C27" s="25"/>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="23"/>
       <c r="C28" s="25"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="23"/>
       <c r="C29" s="25"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="23"/>
       <c r="C30" s="25"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="23"/>
       <c r="C31" s="25"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="C32" s="25"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B33" s="23"/>
       <c r="C33" s="25"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
     </row>
     <row r="34" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="36"/>
       <c r="C34" s="27"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.35">
       <c r="Z38" s="37"/>
@@ -8020,7 +8729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA426F61-967D-469E-A71E-9CE677D0A911}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8039,6 +8748,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F684939C-9EE0-4D90-85C6-E3B4A2278620}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8642FEA0-B814-4E68-9272-1BD7BFB42F93}">
   <sheetPr>
     <tabColor rgb="FFD1E654"/>
@@ -8054,7 +8781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C925AC0-6504-48FF-B191-696883A5DD06}">
   <sheetPr>
     <tabColor rgb="FFD1E654"/>
@@ -8070,7 +8797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FB5D28-5A29-4920-92AA-EC96A7802B23}">
   <sheetPr>
     <tabColor rgb="FFD1E654"/>
@@ -8086,7 +8813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AD37B0-2A7C-4588-BC03-FD0C7FB52251}">
   <sheetPr>
     <tabColor rgb="FFD1E654"/>
@@ -8102,7 +8829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5249448E-64CB-4F9D-B89E-8D2A2B5C8549}">
   <sheetPr>
     <tabColor rgb="FFD1E654"/>
@@ -8118,7 +8845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DA39D9-E7A6-4679-88D8-2EE57D46773E}">
   <sheetPr>
     <tabColor rgb="FFEEF88C"/>
@@ -8136,408 +8863,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9234FD79-0994-4515-9D23-0B2BFFE82762}">
   <sheetPr>
     <tabColor rgb="FFEEF88C"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA66DFF9-FA4E-4D72-A033-DA7973A100D2}">
-  <sheetPr>
-    <tabColor rgb="FFFF00FF"/>
-  </sheetPr>
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B1" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="60"/>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>15.189</v>
-      </c>
-      <c r="C3" s="2">
-        <v>46.134</v>
-      </c>
-      <c r="D3" s="4">
-        <v>37.448999999999998</v>
-      </c>
-      <c r="E3" s="4">
-        <v>26.253</v>
-      </c>
-      <c r="H3">
-        <v>290</v>
-      </c>
-      <c r="I3">
-        <f>I4+Table2[[#This Row],[PrintArea]]-H4</f>
-        <v>327.41800000000001</v>
-      </c>
-      <c r="J3">
-        <f>J4+Table2[[#This Row],[PrintArea]]-H4</f>
-        <v>303.21000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10.750999999999999</v>
-      </c>
-      <c r="C4" s="2">
-        <v>33.701999999999998</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.113</v>
-      </c>
-      <c r="E4" s="4">
-        <v>34.686999999999998</v>
-      </c>
-      <c r="H4">
-        <v>315</v>
-      </c>
-      <c r="I4">
-        <v>352.41800000000001</v>
-      </c>
-      <c r="J4">
-        <v>328.21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="2">
-        <v>18.876000000000001</v>
-      </c>
-      <c r="C5" s="2">
-        <v>31.907</v>
-      </c>
-      <c r="D5" s="4">
-        <v>30.966999999999999</v>
-      </c>
-      <c r="E5" s="4">
-        <v>13.055</v>
-      </c>
-      <c r="H5">
-        <v>325</v>
-      </c>
-      <c r="I5">
-        <f>H5-H4+I4</f>
-        <v>362.41800000000001</v>
-      </c>
-      <c r="J5">
-        <f>H5-H4+J4</f>
-        <v>338.21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2">
-        <v>35.875999999999998</v>
-      </c>
-      <c r="C6" s="2">
-        <v>27.907</v>
-      </c>
-      <c r="D6" s="4">
-        <v>32.584000000000003</v>
-      </c>
-      <c r="E6" s="4">
-        <v>8.5779999999999994</v>
-      </c>
-      <c r="H6">
-        <v>365</v>
-      </c>
-      <c r="I6">
-        <f>H6-H4+I4</f>
-        <v>402.41800000000001</v>
-      </c>
-      <c r="J6">
-        <f>H6-H4+J4</f>
-        <v>378.21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="H7">
-        <v>415</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ref="I7:I9" si="0">H7-H6+I6</f>
-        <v>452.41800000000001</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ref="J7:J9" si="1">H7-H6+J6</f>
-        <v>428.21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2">
-        <v>23.096</v>
-      </c>
-      <c r="C8" s="2">
-        <v>27.661000000000001</v>
-      </c>
-      <c r="D8" s="4">
-        <v>27.454999999999998</v>
-      </c>
-      <c r="E8" s="4">
-        <v>9.1340000000000003</v>
-      </c>
-      <c r="H8">
-        <v>430</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>467.41800000000001</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>443.21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="C9" s="2">
-        <v>30.103000000000002</v>
-      </c>
-      <c r="D9" s="4">
-        <v>-23.484999999999999</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>465</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>502.41800000000001</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>478.21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="2">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>46</v>
-      </c>
-      <c r="H10">
-        <v>500</v>
-      </c>
-      <c r="I10">
-        <f>H10-H9+I9</f>
-        <v>537.41800000000001</v>
-      </c>
-      <c r="J10">
-        <f>H10-H9+J9</f>
-        <v>513.21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="2">
-        <v>28.079000000000001</v>
-      </c>
-      <c r="C11" s="2">
-        <v>23.396000000000001</v>
-      </c>
-      <c r="D11" s="4">
-        <v>22.774999999999999</v>
-      </c>
-      <c r="E11" s="4">
-        <v>5.21</v>
-      </c>
-      <c r="H11">
-        <v>515</v>
-      </c>
-      <c r="I11">
-        <f>H11-H9+I9</f>
-        <v>552.41800000000001</v>
-      </c>
-      <c r="J11">
-        <f>H11-H9+J9</f>
-        <v>528.21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H12">
-        <v>565</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ref="I12:I17" si="2">H12-H11+I11</f>
-        <v>602.41800000000001</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ref="J12:J17" si="3">H12-H11+J11</f>
-        <v>578.21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H13">
-        <v>615</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
-        <v>652.41800000000001</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>628.21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H14">
-        <v>665</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>702.41800000000001</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>678.21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H15">
-        <v>715</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
-        <v>752.41800000000001</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>728.21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H16">
-        <v>765</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
-        <v>802.41800000000001</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>778.21</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H17">
-        <v>815</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
-        <v>852.41800000000001</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>828.21</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/FirmWareSettings.xlsx
+++ b/FirmWareSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AB0BA3-A3DF-4972-9EEA-3959B65FB077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C03BAE-15E9-435C-9D64-12516CB2071A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="789" xr2:uid="{509C0CBF-6515-4E03-BB96-B231BA0137C3}"/>
   </bookViews>
@@ -1137,6 +1137,22 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1173,6 +1189,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1199,25 +1218,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7191,7 +7191,7 @@
   <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7228,10 +7228,10 @@
       <c r="C2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="42"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
@@ -7243,8 +7243,8 @@
       <c r="C3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
@@ -7256,14 +7256,14 @@
       <c r="C4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="48"/>
+      <c r="J5" s="54"/>
     </row>
     <row r="6" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
@@ -7374,7 +7374,7 @@
     <row r="18" spans="1:19" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="40" t="str">
         <f>"G31 P500 X"&amp;VLOOKUP(B4,Table1[],4,0) &amp; " Y"&amp; VLOOKUP(B4,Table1[],5,0) &amp; " Z[measured via Paper technique]"</f>
-        <v>G31 P500 X22.775 Y8.706 Z[measured via Paper technique]</v>
+        <v>G31 P500 X22.775 Y-8.706 Z[measured via Paper technique]</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -7384,7 +7384,7 @@
     </row>
     <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="21" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="42" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="22"/>
@@ -7402,21 +7402,21 @@
       <c r="B23" s="25"/>
     </row>
     <row r="24" spans="1:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="A24" s="65" t="str">
+      <c r="A24" s="43" t="str">
         <f>B42&amp;","&amp;C42</f>
         <v>-16.87,-20.4</v>
       </c>
       <c r="B24" s="25"/>
     </row>
     <row r="25" spans="1:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="A25" s="65" t="str">
+      <c r="A25" s="43" t="str">
         <f>I7&amp;","&amp;J7</f>
         <v>259.339,507.81</v>
       </c>
       <c r="B25" s="25"/>
     </row>
     <row r="26" spans="1:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="A26" s="65" t="str">
+      <c r="A26" s="43" t="str">
         <f>T42&amp;","&amp;U42</f>
         <v>535.548,-20.4</v>
       </c>
@@ -7452,28 +7452,28 @@
       <c r="B30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="67">
-        <f>VLOOKUP(B4,Table1[#All],2,0)</f>
-        <v>28.079000000000001</v>
+      <c r="B31" s="45">
+        <f>VLOOKUP(B4,Table1[#All],4,0)</f>
+        <v>22.774999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="67">
-        <f>VLOOKUP(B4,Table1[#All],3,0)</f>
-        <v>26.9</v>
+      <c r="B32" s="45">
+        <f>VLOOKUP(B4,Table1[#All],5,0)</f>
+        <v>-8.7059999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="68">
+      <c r="B33" s="46">
         <v>2</v>
       </c>
     </row>
@@ -7483,42 +7483,42 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="T36" s="41" t="s">
+      <c r="C36" s="48"/>
+      <c r="T36" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="U36" s="42"/>
+      <c r="U36" s="48"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="44"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="50"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="44"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="50"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="50"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="56"/>
     </row>
     <row r="40" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="T40" s="45" t="s">
+      <c r="C40" s="52"/>
+      <c r="T40" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U40" s="46"/>
+      <c r="U40" s="52"/>
     </row>
     <row r="41" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B41" s="17" t="s">
@@ -7621,7 +7621,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7633,14 +7633,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="52"/>
+      <c r="E1" s="58"/>
       <c r="I1" t="s">
         <v>15</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>22.774999999999999</v>
       </c>
       <c r="E11" s="4">
-        <v>5.21</v>
+        <v>-5.21</v>
       </c>
       <c r="H11">
         <v>515</v>
@@ -7927,7 +7927,7 @@
         <v>22.774999999999999</v>
       </c>
       <c r="E12" s="4">
-        <v>8.7059999999999995</v>
+        <v>-8.7059999999999995</v>
       </c>
       <c r="H12">
         <v>565</v>
@@ -7968,10 +7968,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="62"/>
+      <c r="C15" s="59"/>
       <c r="H15">
         <v>715</v>
       </c>
@@ -7988,10 +7988,10 @@
       <c r="A16" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="41" t="s">
         <v>11</v>
       </c>
       <c r="H16">
@@ -8070,46 +8070,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="Z3" s="55" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="Z3" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B6" s="24"/>
@@ -8126,37 +8126,37 @@
       <c r="F7" s="24"/>
     </row>
     <row r="8" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
     </row>
     <row r="11" spans="2:30" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="56" t="str">
+      <c r="B11" s="63" t="str">
         <f>HYPERLINK("https://betrue3d.dk/rpi-and-duet-3-why-and-how/?fbclid=IwAR16IzLQhu4W4G6IMp81qFp3ousTRf1AjmVV-9iawk4osm4pF1tQDGAXfwg","-&gt; Duet &amp; Raspberry Pi &lt;-")</f>
         <v>-&gt; Duet &amp; Raspberry Pi &lt;-</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B12" s="31"/>
@@ -8171,63 +8171,63 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
-      <c r="Z13" s="53" t="s">
+      <c r="Z13" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="60"/>
     </row>
     <row r="14" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="53"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="60"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="60"/>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="60"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="60"/>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B18" s="24"/>
@@ -8235,11 +8235,11 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="53"/>
-      <c r="AC18" s="53"/>
-      <c r="AD18" s="53"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="60"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B19" s="24"/>
@@ -8247,263 +8247,263 @@
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="53"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="60"/>
     </row>
     <row r="20" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="53"/>
-      <c r="AD20" s="53"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="60"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="53"/>
-      <c r="AC21" s="53"/>
-      <c r="AD21" s="53"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="60"/>
+      <c r="AD21" s="60"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="53"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="60"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="60"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="60"/>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="60"/>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="53"/>
-      <c r="AD25" s="53"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="60"/>
     </row>
     <row r="26" spans="2:30" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="Z26" s="58" t="str">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="Z26" s="65" t="str">
         <f>HYPERLINK("https://duet3d.dozuki.com/Wiki/Gcode#Section_M911_Configure_auto_save_on_loss_of_power","Read more: -&gt; M911 Gcode &lt;-")</f>
         <v>Read more: -&gt; M911 Gcode &lt;-</v>
       </c>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
     </row>
     <row r="29" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="Z29" s="60" t="s">
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="Z29" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="60"/>
-      <c r="AD29" s="60"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="67"/>
+      <c r="AC29" s="67"/>
+      <c r="AD29" s="67"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="60"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="60"/>
-      <c r="AD30" s="60"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="67"/>
+      <c r="AB30" s="67"/>
+      <c r="AC30" s="67"/>
+      <c r="AD30" s="67"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="Z31" s="60"/>
-      <c r="AA31" s="60"/>
-      <c r="AB31" s="60"/>
-      <c r="AC31" s="60"/>
-      <c r="AD31" s="60"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
+      <c r="AB31" s="67"/>
+      <c r="AC31" s="67"/>
+      <c r="AD31" s="67"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="Z32" s="60"/>
-      <c r="AA32" s="60"/>
-      <c r="AB32" s="60"/>
-      <c r="AC32" s="60"/>
-      <c r="AD32" s="60"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="67"/>
+      <c r="AC32" s="67"/>
+      <c r="AD32" s="67"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="Z33" s="60"/>
-      <c r="AA33" s="60"/>
-      <c r="AB33" s="60"/>
-      <c r="AC33" s="60"/>
-      <c r="AD33" s="60"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="67"/>
+      <c r="AB33" s="67"/>
+      <c r="AC33" s="67"/>
+      <c r="AD33" s="67"/>
     </row>
     <row r="34" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="Z34" s="60"/>
-      <c r="AA34" s="60"/>
-      <c r="AB34" s="60"/>
-      <c r="AC34" s="60"/>
-      <c r="AD34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
+      <c r="AC34" s="67"/>
+      <c r="AD34" s="67"/>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="Z35" s="60"/>
-      <c r="AA35" s="60"/>
-      <c r="AB35" s="60"/>
-      <c r="AC35" s="60"/>
-      <c r="AD35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="67"/>
+      <c r="AC35" s="67"/>
+      <c r="AD35" s="67"/>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="Z36" s="60"/>
-      <c r="AA36" s="60"/>
-      <c r="AB36" s="60"/>
-      <c r="AC36" s="60"/>
-      <c r="AD36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="67"/>
+      <c r="AD36" s="67"/>
     </row>
     <row r="37" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="Z37" s="60"/>
-      <c r="AA37" s="60"/>
-      <c r="AB37" s="60"/>
-      <c r="AC37" s="60"/>
-      <c r="AD37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="67"/>
+      <c r="AB37" s="67"/>
+      <c r="AC37" s="67"/>
+      <c r="AD37" s="67"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="Z38" s="60"/>
-      <c r="AA38" s="60"/>
-      <c r="AB38" s="60"/>
-      <c r="AC38" s="60"/>
-      <c r="AD38" s="60"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="67"/>
+      <c r="AC38" s="67"/>
+      <c r="AD38" s="67"/>
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="Z39" s="60"/>
-      <c r="AA39" s="60"/>
-      <c r="AB39" s="60"/>
-      <c r="AC39" s="60"/>
-      <c r="AD39" s="60"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
+      <c r="AD39" s="67"/>
     </row>
     <row r="40" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="Z40" s="60"/>
-      <c r="AA40" s="60"/>
-      <c r="AB40" s="60"/>
-      <c r="AC40" s="60"/>
-      <c r="AD40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
+      <c r="AD40" s="67"/>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="Z41" s="60"/>
-      <c r="AA41" s="60"/>
-      <c r="AB41" s="60"/>
-      <c r="AC41" s="60"/>
-      <c r="AD41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="67"/>
+      <c r="AB41" s="67"/>
+      <c r="AC41" s="67"/>
+      <c r="AD41" s="67"/>
     </row>
     <row r="42" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="60"/>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="60"/>
-      <c r="AD42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="Z42" s="67"/>
+      <c r="AA42" s="67"/>
+      <c r="AB42" s="67"/>
+      <c r="AC42" s="67"/>
+      <c r="AD42" s="67"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8551,27 +8551,27 @@
   </cols>
   <sheetData>
     <row r="6" spans="26:30" x14ac:dyDescent="0.35">
-      <c r="Z6" s="61" t="s">
+      <c r="Z6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
     </row>
     <row r="7" spans="26:30" x14ac:dyDescent="0.35">
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
     </row>
     <row r="8" spans="26:30" x14ac:dyDescent="0.35">
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="61"/>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
     </row>
     <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
@@ -8613,65 +8613,65 @@
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="23"/>
       <c r="C27" s="25"/>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="23"/>
       <c r="C28" s="25"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="23"/>
       <c r="C29" s="25"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" s="23"/>
       <c r="C30" s="25"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" s="23"/>
       <c r="C31" s="25"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" s="23"/>
       <c r="C32" s="25"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
     </row>
     <row r="33" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B33" s="23"/>
       <c r="C33" s="25"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
     </row>
     <row r="34" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="36"/>
       <c r="C34" s="27"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.35">
       <c r="Z38" s="37"/>
